--- a/OkxData20250221.xlsx
+++ b/OkxData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>244149353</v>
+        <v>244972078</v>
       </c>
       <c r="E2" t="n">
-        <v>1531026278</v>
+        <v>1536185465</v>
       </c>
       <c r="F2" t="n">
-        <v>181548.4160046642</v>
+        <v>194554.3815186928</v>
       </c>
       <c r="G2" t="n">
-        <v>206885.0230357869</v>
+        <v>197068.243207378</v>
       </c>
       <c r="H2" t="n">
         <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>16404341</v>
+        <v>16569584</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>141366544</v>
+        <v>142700290</v>
       </c>
       <c r="E3" t="n">
-        <v>156656223</v>
+        <v>158134223</v>
       </c>
       <c r="F3" t="n">
-        <v>67868.77957218241</v>
+        <v>60652.7680124714</v>
       </c>
       <c r="G3" t="n">
-        <v>170002.6983222634</v>
+        <v>180810.6647215786</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>24405148</v>
+        <v>35804723</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>570564169</v>
+        <v>576386802</v>
       </c>
       <c r="E4" t="n">
-        <v>713690974</v>
+        <v>720974223</v>
       </c>
       <c r="F4" t="n">
-        <v>87005.0780182709</v>
+        <v>78819.60677233114</v>
       </c>
       <c r="G4" t="n">
-        <v>116198.749724453</v>
+        <v>162067.8223113841</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>51442350</v>
+        <v>51016532</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>136271981</v>
+        <v>137502855</v>
       </c>
       <c r="E5" t="n">
-        <v>136271981</v>
+        <v>137502855</v>
       </c>
       <c r="F5" t="n">
-        <v>62531.33692410632</v>
+        <v>75229.05588435977</v>
       </c>
       <c r="G5" t="n">
-        <v>107460.4417927563</v>
+        <v>99460.01835320333</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>60926724</v>
+        <v>60791821</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>251076119</v>
+        <v>252505005</v>
       </c>
       <c r="E6" t="n">
-        <v>251076119</v>
+        <v>252505005</v>
       </c>
       <c r="F6" t="n">
-        <v>71752.06877585512</v>
+        <v>62113.04287625813</v>
       </c>
       <c r="G6" t="n">
-        <v>103750.575781192</v>
+        <v>124749.7008471148</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>14902938</v>
+        <v>14708143</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>98910857</v>
+        <v>99458992</v>
       </c>
       <c r="E7" t="n">
-        <v>123330245</v>
+        <v>124013704</v>
       </c>
       <c r="F7" t="n">
-        <v>12684.93191320891</v>
+        <v>12736.12269657991</v>
       </c>
       <c r="G7" t="n">
-        <v>39195.62666747709</v>
+        <v>42983.78426939762</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I7" t="n">
-        <v>10442682</v>
+        <v>10482728</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73897206</v>
+        <v>74467371</v>
       </c>
       <c r="E8" t="n">
-        <v>154113201</v>
+        <v>155302284</v>
       </c>
       <c r="F8" t="n">
-        <v>43249.51872123952</v>
+        <v>41969.16538806214</v>
       </c>
       <c r="G8" t="n">
-        <v>38189.78763259559</v>
+        <v>46699.89087803587</v>
       </c>
       <c r="H8" t="n">
         <v>0.05</v>
       </c>
       <c r="I8" t="n">
-        <v>15926949</v>
+        <v>16075481</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>144014365</v>
+        <v>144572839</v>
       </c>
       <c r="E9" t="n">
-        <v>144061860</v>
+        <v>144621448</v>
       </c>
       <c r="F9" t="n">
-        <v>11122.24325349368</v>
+        <v>11743.24115371727</v>
       </c>
       <c r="G9" t="n">
-        <v>14858.80519520867</v>
+        <v>10806.35442018076</v>
       </c>
       <c r="H9" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>2670562</v>
+        <v>2600491</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>636897655</v>
+        <v>643139598</v>
       </c>
       <c r="E10" t="n">
-        <v>636897655</v>
+        <v>643139598</v>
       </c>
       <c r="F10" t="n">
-        <v>240945.1437383843</v>
+        <v>267075.2247328416</v>
       </c>
       <c r="G10" t="n">
-        <v>477299.2353241048</v>
+        <v>432556.2957386421</v>
       </c>
       <c r="H10" t="n">
         <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>285675405</v>
+        <v>287566412</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71619365</v>
+        <v>71781083</v>
       </c>
       <c r="E11" t="n">
-        <v>82174099</v>
+        <v>82359650</v>
       </c>
       <c r="F11" t="n">
-        <v>3683.198818973733</v>
+        <v>8558.328369365878</v>
       </c>
       <c r="G11" t="n">
-        <v>9780.5388394738</v>
+        <v>10937.00789030155</v>
       </c>
       <c r="H11" t="n">
-        <v>0.26</v>
+        <v>0.38</v>
       </c>
       <c r="I11" t="n">
-        <v>1150922</v>
+        <v>1156279</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>265172871</v>
+        <v>268842153</v>
       </c>
       <c r="E12" t="n">
-        <v>1144633321</v>
+        <v>1160471979</v>
       </c>
       <c r="F12" t="n">
-        <v>359089.6212104274</v>
+        <v>373089.4844609874</v>
       </c>
       <c r="G12" t="n">
-        <v>377351.9828935361</v>
+        <v>369291.5698541236</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>102374114</v>
+        <v>99165974</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>114387076</v>
+        <v>114421671</v>
       </c>
       <c r="E13" t="n">
-        <v>114387076</v>
+        <v>114421671</v>
       </c>
       <c r="F13" t="n">
-        <v>5680.445593074724</v>
+        <v>6051.20153358301</v>
       </c>
       <c r="G13" t="n">
-        <v>3668.366227686521</v>
+        <v>3739.907318265415</v>
       </c>
       <c r="H13" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="I13" t="n">
-        <v>6160670</v>
+        <v>6161852</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19737032</v>
+        <v>19735890</v>
       </c>
       <c r="E14" t="n">
-        <v>49342581</v>
+        <v>49339725</v>
       </c>
       <c r="F14" t="n">
-        <v>13721.14338742986</v>
+        <v>11759.1669228281</v>
       </c>
       <c r="G14" t="n">
-        <v>7682.090311271574</v>
+        <v>6960.043253511722</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="I14" t="n">
-        <v>1884801</v>
+        <v>1960449</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12124611</v>
+        <v>12194143</v>
       </c>
       <c r="E15" t="n">
-        <v>17829011</v>
+        <v>17931258</v>
       </c>
       <c r="F15" t="n">
-        <v>1044.87925960478</v>
+        <v>856.757027240135</v>
       </c>
       <c r="G15" t="n">
-        <v>4134.011386240597</v>
+        <v>6968.062013450869</v>
       </c>
       <c r="H15" t="n">
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
       <c r="I15" t="n">
-        <v>2265005</v>
+        <v>2291127</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31397739</v>
+        <v>31501478</v>
       </c>
       <c r="E16" t="n">
-        <v>97762484</v>
+        <v>98085496</v>
       </c>
       <c r="F16" t="n">
-        <v>16891.05322197792</v>
+        <v>13980.81965420789</v>
       </c>
       <c r="G16" t="n">
-        <v>26590.49039457847</v>
+        <v>28590.75018955369</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I16" t="n">
-        <v>11749114</v>
+        <v>11630481</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>335752820</v>
+        <v>339392000</v>
       </c>
       <c r="E17" t="n">
-        <v>3020640561</v>
+        <v>3053380880</v>
       </c>
       <c r="F17" t="n">
-        <v>6796.089800243913</v>
+        <v>6788.519114809696</v>
       </c>
       <c r="G17" t="n">
-        <v>8219.426296160418</v>
+        <v>8239.531448690948</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>37411601</v>
+        <v>37665752</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15431081</v>
+        <v>15503799</v>
       </c>
       <c r="E18" t="n">
-        <v>94582170</v>
+        <v>95027880</v>
       </c>
       <c r="F18" t="n">
-        <v>34649.53932082371</v>
+        <v>35350.06229437451</v>
       </c>
       <c r="G18" t="n">
-        <v>35067.20005436549</v>
+        <v>37723.97423605454</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>11265465</v>
+        <v>11203842</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>46964319</v>
+        <v>47197238</v>
       </c>
       <c r="E19" t="n">
-        <v>202317151</v>
+        <v>203320539</v>
       </c>
       <c r="F19" t="n">
-        <v>50154.12750580771</v>
+        <v>52210.10057782094</v>
       </c>
       <c r="G19" t="n">
-        <v>63034.8009812885</v>
+        <v>62313.2802387227</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>8958785</v>
+        <v>8947242</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>310411354</v>
+        <v>312247416</v>
       </c>
       <c r="E20" t="n">
-        <v>310411354</v>
+        <v>312247416</v>
       </c>
       <c r="F20" t="n">
-        <v>66952.89044678368</v>
+        <v>70021.51869229879</v>
       </c>
       <c r="G20" t="n">
-        <v>120368.524949437</v>
+        <v>127439.0166391818</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>49901557</v>
+        <v>50372783</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30216862</v>
+        <v>30263823</v>
       </c>
       <c r="E21" t="n">
-        <v>135293285</v>
+        <v>135503551</v>
       </c>
       <c r="F21" t="n">
-        <v>42553.86755488007</v>
+        <v>40316.18905203011</v>
       </c>
       <c r="G21" t="n">
-        <v>53582.93202612334</v>
+        <v>51754.87732588308</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>8362133</v>
+        <v>8470794</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48217541</v>
+        <v>48734832</v>
       </c>
       <c r="E22" t="n">
-        <v>312677919</v>
+        <v>316032415</v>
       </c>
       <c r="F22" t="n">
-        <v>7175.636494590261</v>
+        <v>8967.5817356635</v>
       </c>
       <c r="G22" t="n">
-        <v>5290.162879206673</v>
+        <v>5142.129326356873</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I22" t="n">
-        <v>16745223</v>
+        <v>16287882</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125260318</v>
+        <v>125491437</v>
       </c>
       <c r="E23" t="n">
-        <v>2074413460</v>
+        <v>2078240970</v>
       </c>
       <c r="F23" t="n">
-        <v>340535.2173715231</v>
+        <v>339909.689571926</v>
       </c>
       <c r="G23" t="n">
-        <v>338646.272381307</v>
+        <v>341110.8972941351</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>4961335</v>
+        <v>4835896</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6698771</v>
+        <v>6675422</v>
       </c>
       <c r="E24" t="n">
-        <v>34463143</v>
+        <v>34343015</v>
       </c>
       <c r="F24" t="n">
-        <v>2466.748434046963</v>
+        <v>365.8661569533299</v>
       </c>
       <c r="G24" t="n">
-        <v>2780.230606243036</v>
+        <v>728.3823576026346</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I24" t="n">
-        <v>923028</v>
+        <v>924588</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22890274</v>
+        <v>23075977</v>
       </c>
       <c r="E25" t="n">
-        <v>22890274</v>
+        <v>23076229</v>
       </c>
       <c r="F25" t="n">
-        <v>20639.93384612239</v>
+        <v>18103.29747301154</v>
       </c>
       <c r="G25" t="n">
-        <v>11396.14142367054</v>
+        <v>11570.73866916155</v>
       </c>
       <c r="H25" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I25" t="n">
-        <v>2062423</v>
+        <v>2056583</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>313756163</v>
+        <v>315253850</v>
       </c>
       <c r="E27" t="n">
-        <v>580520452</v>
+        <v>583291515</v>
       </c>
       <c r="F27" t="n">
-        <v>100954.8728231745</v>
+        <v>101802.3987128436</v>
       </c>
       <c r="G27" t="n">
-        <v>103289.471499061</v>
+        <v>105012.4253792231</v>
       </c>
       <c r="H27" t="n">
         <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>13320209</v>
+        <v>13335479</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44200545</v>
+        <v>44436035</v>
       </c>
       <c r="E28" t="n">
-        <v>44200545</v>
+        <v>44436035</v>
       </c>
       <c r="F28" t="n">
-        <v>29374.97550448883</v>
+        <v>23687.95577061893</v>
       </c>
       <c r="G28" t="n">
-        <v>40378.29221543099</v>
+        <v>43065.25685177148</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>7706662</v>
+        <v>7610785</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>595957132</v>
+        <v>599340792</v>
       </c>
       <c r="E29" t="n">
-        <v>2308054046</v>
+        <v>2321158462</v>
       </c>
       <c r="F29" t="n">
-        <v>69572.3238603588</v>
+        <v>75754.70174914319</v>
       </c>
       <c r="G29" t="n">
-        <v>225245.3386639423</v>
+        <v>220981.3643664586</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>32883450</v>
+        <v>32749024</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>116800151</v>
+        <v>117937805</v>
       </c>
       <c r="E30" t="n">
-        <v>448064177</v>
+        <v>452428403</v>
       </c>
       <c r="F30" t="n">
-        <v>145773.4643753646</v>
+        <v>149545.4834423384</v>
       </c>
       <c r="G30" t="n">
-        <v>177145.1031725181</v>
+        <v>177427.7306546367</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>31066327</v>
+        <v>30870209</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>31823351</v>
+        <v>31596501</v>
       </c>
       <c r="F31" t="n">
-        <v>14326.2263205243</v>
+        <v>16432.45291729564</v>
       </c>
       <c r="G31" t="n">
-        <v>14032.43822669073</v>
+        <v>16835.01761131055</v>
       </c>
       <c r="H31" t="n">
         <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>5542375</v>
+        <v>5475019</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>87658035</v>
+        <v>88060293</v>
       </c>
       <c r="E32" t="n">
-        <v>324038948</v>
+        <v>325524452</v>
       </c>
       <c r="F32" t="n">
-        <v>10340.41262566452</v>
+        <v>10301.6351667366</v>
       </c>
       <c r="G32" t="n">
-        <v>985.5801591680043</v>
+        <v>1114.04222734853</v>
       </c>
       <c r="H32" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="I32" t="n">
-        <v>282517</v>
+        <v>277030</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>486226997</v>
+        <v>487215437</v>
       </c>
       <c r="E33" t="n">
-        <v>1692515713</v>
+        <v>1695956387</v>
       </c>
       <c r="F33" t="n">
-        <v>246342.2950984138</v>
+        <v>247198.7145882621</v>
       </c>
       <c r="G33" t="n">
-        <v>280169.2536098975</v>
+        <v>279352.1314750172</v>
       </c>
       <c r="H33" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>29636516</v>
+        <v>29318611</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>101489306</v>
+        <v>101432282</v>
       </c>
       <c r="E34" t="n">
-        <v>153768024</v>
+        <v>153681626</v>
       </c>
       <c r="F34" t="n">
-        <v>64419.85119455196</v>
+        <v>64499.42367660114</v>
       </c>
       <c r="G34" t="n">
-        <v>145084.5431715664</v>
+        <v>142977.0743841317</v>
       </c>
       <c r="H34" t="n">
         <v>0.19</v>
       </c>
       <c r="I34" t="n">
-        <v>7058883</v>
+        <v>7082782</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2616602</v>
+        <v>2630350</v>
       </c>
       <c r="E35" t="n">
-        <v>10466410</v>
+        <v>10521400</v>
       </c>
       <c r="F35" t="n">
-        <v>91634.43769797518</v>
+        <v>72995.77054252857</v>
       </c>
       <c r="G35" t="n">
-        <v>55412.08612568331</v>
+        <v>88151.23126421019</v>
       </c>
       <c r="H35" t="n">
         <v>0.1</v>
       </c>
       <c r="I35" t="n">
-        <v>6997822</v>
+        <v>6960976</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>215438758</v>
+        <v>216024295</v>
       </c>
       <c r="E36" t="n">
-        <v>662393107</v>
+        <v>664193411</v>
       </c>
       <c r="F36" t="n">
-        <v>159956.6304356681</v>
+        <v>160766.6142776047</v>
       </c>
       <c r="G36" t="n">
-        <v>220943.3904802489</v>
+        <v>226588.2528697444</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I36" t="n">
-        <v>11847023</v>
+        <v>11917132</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>151430810</v>
+        <v>150929160</v>
       </c>
       <c r="E37" t="n">
-        <v>395608790</v>
+        <v>394298244</v>
       </c>
       <c r="F37" t="n">
-        <v>49908.32094328398</v>
+        <v>51737.58737617564</v>
       </c>
       <c r="G37" t="n">
-        <v>56492.63203831939</v>
+        <v>75917.40485957451</v>
       </c>
       <c r="H37" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I37" t="n">
-        <v>7095655</v>
+        <v>7205365</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>394626933</v>
+        <v>398438642</v>
       </c>
       <c r="E38" t="n">
-        <v>2255011045</v>
+        <v>2276792241</v>
       </c>
       <c r="F38" t="n">
-        <v>41432.59256417243</v>
+        <v>39943.74143083627</v>
       </c>
       <c r="G38" t="n">
-        <v>82585.33514339845</v>
+        <v>87347.53292235687</v>
       </c>
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>38650105</v>
+        <v>38239618</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250221.xlsx
+++ b/OkxData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>244972078</v>
+        <v>246405063</v>
       </c>
       <c r="E2" t="n">
-        <v>1536185465</v>
+        <v>1545171517</v>
       </c>
       <c r="F2" t="n">
-        <v>194554.3815186928</v>
+        <v>177785.8116665751</v>
       </c>
       <c r="G2" t="n">
-        <v>197068.243207378</v>
+        <v>199207.3295351677</v>
       </c>
       <c r="H2" t="n">
         <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>16569584</v>
+        <v>16608409</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>142700290</v>
+        <v>144721498</v>
       </c>
       <c r="E3" t="n">
-        <v>158134223</v>
+        <v>160374037</v>
       </c>
       <c r="F3" t="n">
-        <v>60652.7680124714</v>
+        <v>60843.58428318436</v>
       </c>
       <c r="G3" t="n">
-        <v>180810.6647215786</v>
+        <v>179270.2819445272</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>35804723</v>
+        <v>36262353</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>576386802</v>
+        <v>584542819</v>
       </c>
       <c r="E4" t="n">
-        <v>720974223</v>
+        <v>731176188</v>
       </c>
       <c r="F4" t="n">
-        <v>78819.60677233114</v>
+        <v>78406.42075470135</v>
       </c>
       <c r="G4" t="n">
-        <v>162067.8223113841</v>
+        <v>155784.2462279482</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>51016532</v>
+        <v>53089483</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>137502855</v>
+        <v>139306765</v>
       </c>
       <c r="E5" t="n">
-        <v>137502855</v>
+        <v>139306765</v>
       </c>
       <c r="F5" t="n">
-        <v>75229.05588435977</v>
+        <v>77632.22919964282</v>
       </c>
       <c r="G5" t="n">
-        <v>99460.01835320333</v>
+        <v>113180.4145892991</v>
       </c>
       <c r="H5" t="n">
         <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>60791821</v>
+        <v>65362366</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>252505005</v>
+        <v>254920504</v>
       </c>
       <c r="E6" t="n">
-        <v>252505005</v>
+        <v>254920504</v>
       </c>
       <c r="F6" t="n">
-        <v>62113.04287625813</v>
+        <v>56640.71531018992</v>
       </c>
       <c r="G6" t="n">
-        <v>124749.7008471148</v>
+        <v>132883.3393498055</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>14708143</v>
+        <v>14568433</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>99458992</v>
+        <v>99893847</v>
       </c>
       <c r="E7" t="n">
-        <v>124013704</v>
+        <v>124555917</v>
       </c>
       <c r="F7" t="n">
-        <v>12736.12269657991</v>
+        <v>13343.76382537169</v>
       </c>
       <c r="G7" t="n">
-        <v>42983.78426939762</v>
+        <v>37272.89412172219</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>10482728</v>
+        <v>10276825</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>74467371</v>
+        <v>75634028</v>
       </c>
       <c r="E8" t="n">
-        <v>155302284</v>
+        <v>157735357</v>
       </c>
       <c r="F8" t="n">
-        <v>41969.16538806214</v>
+        <v>42866.28805433081</v>
       </c>
       <c r="G8" t="n">
-        <v>46699.89087803587</v>
+        <v>47296.81730014952</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I8" t="n">
-        <v>16075481</v>
+        <v>15998807</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>144572839</v>
+        <v>144859719</v>
       </c>
       <c r="E9" t="n">
-        <v>144621448</v>
+        <v>144908425</v>
       </c>
       <c r="F9" t="n">
-        <v>11743.24115371727</v>
+        <v>7966.269247837982</v>
       </c>
       <c r="G9" t="n">
-        <v>10806.35442018076</v>
+        <v>17331.06586749236</v>
       </c>
       <c r="H9" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I9" t="n">
-        <v>2600491</v>
+        <v>2578798</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>643139598</v>
+        <v>647982224</v>
       </c>
       <c r="E10" t="n">
-        <v>643139598</v>
+        <v>647982224</v>
       </c>
       <c r="F10" t="n">
-        <v>267075.2247328416</v>
+        <v>254678.5946045479</v>
       </c>
       <c r="G10" t="n">
-        <v>432556.2957386421</v>
+        <v>479332.7214618446</v>
       </c>
       <c r="H10" t="n">
         <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>287566412</v>
+        <v>292807049</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71781083</v>
+        <v>71867963</v>
       </c>
       <c r="E11" t="n">
-        <v>82359650</v>
+        <v>82459333</v>
       </c>
       <c r="F11" t="n">
-        <v>8558.328369365878</v>
+        <v>9206.855277289769</v>
       </c>
       <c r="G11" t="n">
-        <v>10937.00789030155</v>
+        <v>10351.14111470455</v>
       </c>
       <c r="H11" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="I11" t="n">
-        <v>1156279</v>
+        <v>1290728</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>268842153</v>
+        <v>271714838</v>
       </c>
       <c r="E12" t="n">
-        <v>1160471979</v>
+        <v>1172872080</v>
       </c>
       <c r="F12" t="n">
-        <v>373089.4844609874</v>
+        <v>354643.866181525</v>
       </c>
       <c r="G12" t="n">
-        <v>369291.5698541236</v>
+        <v>391754.8883941995</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>99165974</v>
+        <v>99402155</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>114421671</v>
+        <v>115118776</v>
       </c>
       <c r="E13" t="n">
-        <v>114421671</v>
+        <v>115118776</v>
       </c>
       <c r="F13" t="n">
-        <v>6051.20153358301</v>
+        <v>1882.950641954453</v>
       </c>
       <c r="G13" t="n">
-        <v>3739.907318265415</v>
+        <v>4292.827053211997</v>
       </c>
       <c r="H13" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I13" t="n">
-        <v>6161852</v>
+        <v>6143525</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19735890</v>
+        <v>19794811</v>
       </c>
       <c r="E14" t="n">
-        <v>49339725</v>
+        <v>49487028</v>
       </c>
       <c r="F14" t="n">
-        <v>11759.1669228281</v>
+        <v>12532.6429865252</v>
       </c>
       <c r="G14" t="n">
-        <v>6960.043253511722</v>
+        <v>7177.082467379249</v>
       </c>
       <c r="H14" t="n">
         <v>0.14</v>
       </c>
       <c r="I14" t="n">
-        <v>1960449</v>
+        <v>1850654</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12194143</v>
+        <v>12161053</v>
       </c>
       <c r="E15" t="n">
-        <v>17931258</v>
+        <v>17882600</v>
       </c>
       <c r="F15" t="n">
-        <v>856.757027240135</v>
+        <v>1010.48715049055</v>
       </c>
       <c r="G15" t="n">
-        <v>6968.062013450869</v>
+        <v>7013.702711007925</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06</v>
+        <v>0.22</v>
       </c>
       <c r="I15" t="n">
-        <v>2291127</v>
+        <v>2298297</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31501478</v>
+        <v>31639793</v>
       </c>
       <c r="E16" t="n">
-        <v>98085496</v>
+        <v>98516163</v>
       </c>
       <c r="F16" t="n">
-        <v>13980.81965420789</v>
+        <v>12530.84636712884</v>
       </c>
       <c r="G16" t="n">
-        <v>28590.75018955369</v>
+        <v>31735.99357886919</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I16" t="n">
-        <v>11630481</v>
+        <v>11641714</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>339392000</v>
+        <v>339215256</v>
       </c>
       <c r="E17" t="n">
-        <v>3053380880</v>
+        <v>3051790786</v>
       </c>
       <c r="F17" t="n">
-        <v>6788.519114809696</v>
+        <v>6535.971869191962</v>
       </c>
       <c r="G17" t="n">
-        <v>8239.531448690948</v>
+        <v>7991.49380037193</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>37665752</v>
+        <v>38329681</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15503799</v>
+        <v>15658903</v>
       </c>
       <c r="E18" t="n">
-        <v>95027880</v>
+        <v>95978563</v>
       </c>
       <c r="F18" t="n">
-        <v>35350.06229437451</v>
+        <v>33367.29460755496</v>
       </c>
       <c r="G18" t="n">
-        <v>37723.97423605454</v>
+        <v>34215.07858841083</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I18" t="n">
-        <v>11203842</v>
+        <v>10974436</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47197238</v>
+        <v>47367984</v>
       </c>
       <c r="E19" t="n">
-        <v>203320539</v>
+        <v>204056096</v>
       </c>
       <c r="F19" t="n">
-        <v>52210.10057782094</v>
+        <v>58283.91240498088</v>
       </c>
       <c r="G19" t="n">
-        <v>62313.2802387227</v>
+        <v>75143.70107599831</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I19" t="n">
-        <v>8947242</v>
+        <v>8968472</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>312247416</v>
+        <v>315800725</v>
       </c>
       <c r="E20" t="n">
-        <v>312247416</v>
+        <v>315800725</v>
       </c>
       <c r="F20" t="n">
-        <v>70021.51869229879</v>
+        <v>75625.04238209162</v>
       </c>
       <c r="G20" t="n">
-        <v>127439.0166391818</v>
+        <v>126214.9074181941</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I20" t="n">
-        <v>50372783</v>
+        <v>51296957</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30263823</v>
+        <v>30458962</v>
       </c>
       <c r="E21" t="n">
-        <v>135503551</v>
+        <v>136377267</v>
       </c>
       <c r="F21" t="n">
-        <v>40316.18905203011</v>
+        <v>41130.48809575851</v>
       </c>
       <c r="G21" t="n">
-        <v>51754.87732588308</v>
+        <v>64141.17610583597</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>8470794</v>
+        <v>8470100</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48734832</v>
+        <v>49347822</v>
       </c>
       <c r="E22" t="n">
-        <v>316032415</v>
+        <v>320007494</v>
       </c>
       <c r="F22" t="n">
-        <v>8967.5817356635</v>
+        <v>10537.1435751701</v>
       </c>
       <c r="G22" t="n">
-        <v>5142.129326356873</v>
+        <v>4499.051692424044</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>16287882</v>
+        <v>16622708</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125491437</v>
+        <v>125301070</v>
       </c>
       <c r="E23" t="n">
-        <v>2078240970</v>
+        <v>2075088342</v>
       </c>
       <c r="F23" t="n">
-        <v>339909.689571926</v>
+        <v>344201.5335673076</v>
       </c>
       <c r="G23" t="n">
-        <v>341110.8972941351</v>
+        <v>345617.1141254552</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>4835896</v>
+        <v>4847594</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6675422</v>
+        <v>6656603</v>
       </c>
       <c r="E24" t="n">
-        <v>34343015</v>
+        <v>34246202</v>
       </c>
       <c r="F24" t="n">
-        <v>365.8661569533299</v>
+        <v>388.6968851195017</v>
       </c>
       <c r="G24" t="n">
-        <v>728.3823576026346</v>
+        <v>1482.911198537247</v>
       </c>
       <c r="H24" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="I24" t="n">
-        <v>924588</v>
+        <v>921876</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23075977</v>
+        <v>22984729</v>
       </c>
       <c r="E25" t="n">
-        <v>23076229</v>
+        <v>22984729</v>
       </c>
       <c r="F25" t="n">
-        <v>18103.29747301154</v>
+        <v>6229.838473946466</v>
       </c>
       <c r="G25" t="n">
-        <v>11570.73866916155</v>
+        <v>10641.34591899061</v>
       </c>
       <c r="H25" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I25" t="n">
-        <v>2056583</v>
+        <v>2081076</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>315253850</v>
+        <v>317327525</v>
       </c>
       <c r="E27" t="n">
-        <v>583291515</v>
+        <v>587128287</v>
       </c>
       <c r="F27" t="n">
-        <v>101802.3987128436</v>
+        <v>99786.13012408513</v>
       </c>
       <c r="G27" t="n">
-        <v>105012.4253792231</v>
+        <v>106178.073400351</v>
       </c>
       <c r="H27" t="n">
         <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>13335479</v>
+        <v>13356414</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44436035</v>
+        <v>44621228</v>
       </c>
       <c r="E28" t="n">
-        <v>44436035</v>
+        <v>44621228</v>
       </c>
       <c r="F28" t="n">
-        <v>23687.95577061893</v>
+        <v>28888.07788169174</v>
       </c>
       <c r="G28" t="n">
-        <v>43065.25685177148</v>
+        <v>46698.90382884217</v>
       </c>
       <c r="H28" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="I28" t="n">
-        <v>7610785</v>
+        <v>7600907</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>599340792</v>
+        <v>608016915</v>
       </c>
       <c r="E29" t="n">
-        <v>2321158462</v>
+        <v>2354759806</v>
       </c>
       <c r="F29" t="n">
-        <v>75754.70174914319</v>
+        <v>63076.91700706628</v>
       </c>
       <c r="G29" t="n">
-        <v>220981.3643664586</v>
+        <v>232225.556017784</v>
       </c>
       <c r="H29" t="n">
         <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>32749024</v>
+        <v>32909552</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>117937805</v>
+        <v>118649020</v>
       </c>
       <c r="E30" t="n">
-        <v>452428403</v>
+        <v>455156736</v>
       </c>
       <c r="F30" t="n">
-        <v>149545.4834423384</v>
+        <v>141929.1815707858</v>
       </c>
       <c r="G30" t="n">
-        <v>177427.7306546367</v>
+        <v>173788.5589748379</v>
       </c>
       <c r="H30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I30" t="n">
-        <v>30870209</v>
+        <v>31028745</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>31596501</v>
+        <v>32253086</v>
       </c>
       <c r="F31" t="n">
-        <v>16432.45291729564</v>
+        <v>20988.01121538584</v>
       </c>
       <c r="G31" t="n">
-        <v>16835.01761131055</v>
+        <v>25049.98542816454</v>
       </c>
       <c r="H31" t="n">
         <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>5475019</v>
+        <v>5491816</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>88060293</v>
+        <v>88225967</v>
       </c>
       <c r="E32" t="n">
-        <v>325524452</v>
+        <v>326135380</v>
       </c>
       <c r="F32" t="n">
-        <v>10301.6351667366</v>
+        <v>10305.89293127203</v>
       </c>
       <c r="G32" t="n">
-        <v>1114.04222734853</v>
+        <v>792.8751952285188</v>
       </c>
       <c r="H32" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="I32" t="n">
-        <v>277030</v>
+        <v>260289</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>487215437</v>
+        <v>493168298</v>
       </c>
       <c r="E33" t="n">
-        <v>1695956387</v>
+        <v>1716677803</v>
       </c>
       <c r="F33" t="n">
-        <v>247198.7145882621</v>
+        <v>246735.5928614285</v>
       </c>
       <c r="G33" t="n">
-        <v>279352.1314750172</v>
+        <v>273409.1856969413</v>
       </c>
       <c r="H33" t="n">
         <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>29318611</v>
+        <v>29291105</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>101432282</v>
+        <v>102002215</v>
       </c>
       <c r="E34" t="n">
-        <v>153681626</v>
+        <v>154545142</v>
       </c>
       <c r="F34" t="n">
-        <v>64499.42367660114</v>
+        <v>61045.78358663692</v>
       </c>
       <c r="G34" t="n">
-        <v>142977.0743841317</v>
+        <v>142068.3706365952</v>
       </c>
       <c r="H34" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I34" t="n">
-        <v>7082782</v>
+        <v>6943062</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2630350</v>
+        <v>2618689</v>
       </c>
       <c r="E35" t="n">
-        <v>10521400</v>
+        <v>10474757</v>
       </c>
       <c r="F35" t="n">
-        <v>72995.77054252857</v>
+        <v>14934.9738165694</v>
       </c>
       <c r="G35" t="n">
-        <v>88151.23126421019</v>
+        <v>74928.46525897151</v>
       </c>
       <c r="H35" t="n">
         <v>0.1</v>
       </c>
       <c r="I35" t="n">
-        <v>6960976</v>
+        <v>6897257</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>216024295</v>
+        <v>219937018</v>
       </c>
       <c r="E36" t="n">
-        <v>664193411</v>
+        <v>676223563</v>
       </c>
       <c r="F36" t="n">
-        <v>160766.6142776047</v>
+        <v>136093.2760432147</v>
       </c>
       <c r="G36" t="n">
-        <v>226588.2528697444</v>
+        <v>224947.2443363414</v>
       </c>
       <c r="H36" t="n">
         <v>0.03</v>
       </c>
       <c r="I36" t="n">
-        <v>11917132</v>
+        <v>13074098</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>150929160</v>
+        <v>151312336</v>
       </c>
       <c r="E37" t="n">
-        <v>394298244</v>
+        <v>395299280</v>
       </c>
       <c r="F37" t="n">
-        <v>51737.58737617564</v>
+        <v>47349.92949216298</v>
       </c>
       <c r="G37" t="n">
-        <v>75917.40485957451</v>
+        <v>51203.89697175797</v>
       </c>
       <c r="H37" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="I37" t="n">
-        <v>7205365</v>
+        <v>6907182</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>398438642</v>
+        <v>401842223</v>
       </c>
       <c r="E38" t="n">
-        <v>2276792241</v>
+        <v>2296241275</v>
       </c>
       <c r="F38" t="n">
-        <v>39943.74143083627</v>
+        <v>34223.063594381</v>
       </c>
       <c r="G38" t="n">
-        <v>87347.53292235687</v>
+        <v>78753.3491956824</v>
       </c>
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>38239618</v>
+        <v>38250071</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250221.xlsx
+++ b/OkxData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>246405063</v>
+        <v>246088828</v>
       </c>
       <c r="E2" t="n">
-        <v>1545171517</v>
+        <v>1543188452</v>
       </c>
       <c r="F2" t="n">
-        <v>177785.8116665751</v>
+        <v>187474.6491914564</v>
       </c>
       <c r="G2" t="n">
-        <v>199207.3295351677</v>
+        <v>205184.0649116022</v>
       </c>
       <c r="H2" t="n">
         <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>16608409</v>
+        <v>16488292</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>144721498</v>
+        <v>144853050</v>
       </c>
       <c r="E3" t="n">
-        <v>160374037</v>
+        <v>160519817</v>
       </c>
       <c r="F3" t="n">
-        <v>60843.58428318436</v>
+        <v>62272.27062553213</v>
       </c>
       <c r="G3" t="n">
-        <v>179270.2819445272</v>
+        <v>171860.0857831041</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>36262353</v>
+        <v>37027548</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>584542819</v>
+        <v>584886066</v>
       </c>
       <c r="E4" t="n">
-        <v>731176188</v>
+        <v>731605539</v>
       </c>
       <c r="F4" t="n">
-        <v>78406.42075470135</v>
+        <v>91601.14700694161</v>
       </c>
       <c r="G4" t="n">
-        <v>155784.2462279482</v>
+        <v>164413.3742326</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>53089483</v>
+        <v>55574701</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139306765</v>
+        <v>138766037</v>
       </c>
       <c r="E5" t="n">
-        <v>139306765</v>
+        <v>138766037</v>
       </c>
       <c r="F5" t="n">
-        <v>77632.22919964282</v>
+        <v>76191.04065915373</v>
       </c>
       <c r="G5" t="n">
-        <v>113180.4145892991</v>
+        <v>108123.6252980071</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>65362366</v>
+        <v>66016466</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>254920504</v>
+        <v>255344315</v>
       </c>
       <c r="E6" t="n">
-        <v>254920504</v>
+        <v>255344315</v>
       </c>
       <c r="F6" t="n">
-        <v>56640.71531018992</v>
+        <v>60946.95701444933</v>
       </c>
       <c r="G6" t="n">
-        <v>132883.3393498055</v>
+        <v>118969.2862792525</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>14568433</v>
+        <v>14549913</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>99893847</v>
+        <v>99631983</v>
       </c>
       <c r="E7" t="n">
-        <v>124555917</v>
+        <v>124229404</v>
       </c>
       <c r="F7" t="n">
-        <v>13343.76382537169</v>
+        <v>10117.97798152371</v>
       </c>
       <c r="G7" t="n">
-        <v>37272.89412172219</v>
+        <v>43475.49912502513</v>
       </c>
       <c r="H7" t="n">
         <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>10276825</v>
+        <v>10171106</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>75634028</v>
+        <v>76139362</v>
       </c>
       <c r="E8" t="n">
-        <v>157735357</v>
+        <v>158789234</v>
       </c>
       <c r="F8" t="n">
-        <v>42866.28805433081</v>
+        <v>39809.01087585303</v>
       </c>
       <c r="G8" t="n">
-        <v>47296.81730014952</v>
+        <v>46980.71063473879</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I8" t="n">
-        <v>15998807</v>
+        <v>16221879</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>144859719</v>
+        <v>145235675</v>
       </c>
       <c r="E9" t="n">
-        <v>144908425</v>
+        <v>145284508</v>
       </c>
       <c r="F9" t="n">
-        <v>7966.269247837982</v>
+        <v>8331.721385912109</v>
       </c>
       <c r="G9" t="n">
-        <v>17331.06586749236</v>
+        <v>16000.62398554711</v>
       </c>
       <c r="H9" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="I9" t="n">
-        <v>2578798</v>
+        <v>2556870</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>647982224</v>
+        <v>653687310</v>
       </c>
       <c r="E10" t="n">
-        <v>647982224</v>
+        <v>653687310</v>
       </c>
       <c r="F10" t="n">
-        <v>254678.5946045479</v>
+        <v>272751.0351810007</v>
       </c>
       <c r="G10" t="n">
-        <v>479332.7214618446</v>
+        <v>551799.0638568753</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I10" t="n">
-        <v>292807049</v>
+        <v>303080241</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71867963</v>
+        <v>71706120</v>
       </c>
       <c r="E11" t="n">
-        <v>82459333</v>
+        <v>82273639</v>
       </c>
       <c r="F11" t="n">
-        <v>9206.855277289769</v>
+        <v>5062.651509091911</v>
       </c>
       <c r="G11" t="n">
-        <v>10351.14111470455</v>
+        <v>24709.7421264639</v>
       </c>
       <c r="H11" t="n">
-        <v>0.34</v>
+        <v>0.19</v>
       </c>
       <c r="I11" t="n">
-        <v>1290728</v>
+        <v>1167679</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>271714838</v>
+        <v>271485250</v>
       </c>
       <c r="E12" t="n">
-        <v>1172872080</v>
+        <v>1171881051</v>
       </c>
       <c r="F12" t="n">
-        <v>354643.866181525</v>
+        <v>350615.7846533991</v>
       </c>
       <c r="G12" t="n">
-        <v>391754.8883941995</v>
+        <v>387004.4534765382</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>99402155</v>
+        <v>99170322</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>115118776</v>
+        <v>114527891</v>
       </c>
       <c r="E13" t="n">
-        <v>115118776</v>
+        <v>114527891</v>
       </c>
       <c r="F13" t="n">
-        <v>1882.950641954453</v>
+        <v>5494.639951449411</v>
       </c>
       <c r="G13" t="n">
-        <v>4292.827053211997</v>
+        <v>4113.542263097097</v>
       </c>
       <c r="H13" t="n">
-        <v>0.14</v>
+        <v>0.39</v>
       </c>
       <c r="I13" t="n">
-        <v>6143525</v>
+        <v>6220461</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19794811</v>
+        <v>19757963</v>
       </c>
       <c r="E14" t="n">
-        <v>49487028</v>
+        <v>49394908</v>
       </c>
       <c r="F14" t="n">
-        <v>12532.6429865252</v>
+        <v>13772.27133513561</v>
       </c>
       <c r="G14" t="n">
-        <v>7177.082467379249</v>
+        <v>8079.875968948256</v>
       </c>
       <c r="H14" t="n">
         <v>0.14</v>
       </c>
       <c r="I14" t="n">
-        <v>1850654</v>
+        <v>2006586</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12161053</v>
+        <v>12210349</v>
       </c>
       <c r="E15" t="n">
-        <v>17882600</v>
+        <v>17955088</v>
       </c>
       <c r="F15" t="n">
-        <v>1010.48715049055</v>
+        <v>1161.438639266064</v>
       </c>
       <c r="G15" t="n">
-        <v>7013.702711007925</v>
+        <v>7232.915287526162</v>
       </c>
       <c r="H15" t="n">
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
       <c r="I15" t="n">
-        <v>2298297</v>
+        <v>2283857</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31639793</v>
+        <v>32029964</v>
       </c>
       <c r="E16" t="n">
-        <v>98516163</v>
+        <v>99731032</v>
       </c>
       <c r="F16" t="n">
-        <v>12530.84636712884</v>
+        <v>12183.98112397121</v>
       </c>
       <c r="G16" t="n">
-        <v>31735.99357886919</v>
+        <v>25256.88825723695</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I16" t="n">
-        <v>11641714</v>
+        <v>11589842</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>339215256</v>
+        <v>340069108</v>
       </c>
       <c r="E17" t="n">
-        <v>3051790786</v>
+        <v>3059472562</v>
       </c>
       <c r="F17" t="n">
-        <v>6535.971869191962</v>
+        <v>6790.93851968102</v>
       </c>
       <c r="G17" t="n">
-        <v>7991.49380037193</v>
+        <v>8218.44062721274</v>
       </c>
       <c r="H17" t="n">
         <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>38329681</v>
+        <v>38291037</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15658903</v>
+        <v>15695703</v>
       </c>
       <c r="E18" t="n">
-        <v>95978563</v>
+        <v>96204127</v>
       </c>
       <c r="F18" t="n">
-        <v>33367.29460755496</v>
+        <v>36101.99568170298</v>
       </c>
       <c r="G18" t="n">
-        <v>34215.07858841083</v>
+        <v>27040.38319417652</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>10974436</v>
+        <v>10840893</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47367984</v>
+        <v>47353997</v>
       </c>
       <c r="E19" t="n">
-        <v>204056096</v>
+        <v>203995840</v>
       </c>
       <c r="F19" t="n">
-        <v>58283.91240498088</v>
+        <v>50678.02652183332</v>
       </c>
       <c r="G19" t="n">
-        <v>75143.70107599831</v>
+        <v>73386.88132649924</v>
       </c>
       <c r="H19" t="n">
         <v>0.05</v>
       </c>
       <c r="I19" t="n">
-        <v>8968472</v>
+        <v>8913630</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>315800725</v>
+        <v>314578029</v>
       </c>
       <c r="E20" t="n">
-        <v>315800725</v>
+        <v>314578029</v>
       </c>
       <c r="F20" t="n">
-        <v>75625.04238209162</v>
+        <v>70600.94514353007</v>
       </c>
       <c r="G20" t="n">
-        <v>126214.9074181941</v>
+        <v>133794.0406912139</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>51296957</v>
+        <v>51789639</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30458962</v>
+        <v>30936291</v>
       </c>
       <c r="E21" t="n">
-        <v>136377267</v>
+        <v>138514466</v>
       </c>
       <c r="F21" t="n">
-        <v>41130.48809575851</v>
+        <v>52422.329439163</v>
       </c>
       <c r="G21" t="n">
-        <v>64141.17610583597</v>
+        <v>60097.43538696925</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>8470100</v>
+        <v>8810919</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>49347822</v>
+        <v>49914827</v>
       </c>
       <c r="E22" t="n">
-        <v>320007494</v>
+        <v>323684369</v>
       </c>
       <c r="F22" t="n">
-        <v>10537.1435751701</v>
+        <v>9420.760061321183</v>
       </c>
       <c r="G22" t="n">
-        <v>4499.051692424044</v>
+        <v>5774.078679464111</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>16622708</v>
+        <v>16850660</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125301070</v>
+        <v>125371236</v>
       </c>
       <c r="E23" t="n">
-        <v>2075088342</v>
+        <v>2076250343</v>
       </c>
       <c r="F23" t="n">
-        <v>344201.5335673076</v>
+        <v>345730.981307529</v>
       </c>
       <c r="G23" t="n">
-        <v>345617.1141254552</v>
+        <v>345722.4480230772</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>4847594</v>
+        <v>4921165</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6656603</v>
+        <v>6720419</v>
       </c>
       <c r="E24" t="n">
-        <v>34246202</v>
+        <v>34574512</v>
       </c>
       <c r="F24" t="n">
-        <v>388.6968851195017</v>
+        <v>1742.959383467405</v>
       </c>
       <c r="G24" t="n">
-        <v>1482.911198537247</v>
+        <v>1379.572144668323</v>
       </c>
       <c r="H24" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I24" t="n">
-        <v>921876</v>
+        <v>919852</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22984729</v>
+        <v>23038088</v>
       </c>
       <c r="E25" t="n">
-        <v>22984729</v>
+        <v>23038088</v>
       </c>
       <c r="F25" t="n">
-        <v>6229.838473946466</v>
+        <v>18324.43147965344</v>
       </c>
       <c r="G25" t="n">
-        <v>10641.34591899061</v>
+        <v>9325.537332952683</v>
       </c>
       <c r="H25" t="n">
         <v>0.14</v>
       </c>
       <c r="I25" t="n">
-        <v>2081076</v>
+        <v>2111141</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>317327525</v>
+        <v>316131925</v>
       </c>
       <c r="E27" t="n">
-        <v>587128287</v>
+        <v>584916154</v>
       </c>
       <c r="F27" t="n">
-        <v>99786.13012408513</v>
+        <v>99093.47450544813</v>
       </c>
       <c r="G27" t="n">
-        <v>106178.073400351</v>
+        <v>105007.937232247</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>13356414</v>
+        <v>13475524</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44621228</v>
+        <v>44785505</v>
       </c>
       <c r="E28" t="n">
-        <v>44621228</v>
+        <v>44785505</v>
       </c>
       <c r="F28" t="n">
-        <v>28888.07788169174</v>
+        <v>21804.31848059999</v>
       </c>
       <c r="G28" t="n">
-        <v>46698.90382884217</v>
+        <v>49882.30896019555</v>
       </c>
       <c r="H28" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>7600907</v>
+        <v>8635833</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>608016915</v>
+        <v>608805395</v>
       </c>
       <c r="E29" t="n">
-        <v>2354759806</v>
+        <v>2357813472</v>
       </c>
       <c r="F29" t="n">
-        <v>63076.91700706628</v>
+        <v>68243.85433132117</v>
       </c>
       <c r="G29" t="n">
-        <v>232225.556017784</v>
+        <v>234603.8626643093</v>
       </c>
       <c r="H29" t="n">
         <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>32909552</v>
+        <v>32837434</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>118649020</v>
+        <v>120149947</v>
       </c>
       <c r="E30" t="n">
-        <v>455156736</v>
+        <v>460914537</v>
       </c>
       <c r="F30" t="n">
-        <v>141929.1815707858</v>
+        <v>143056.6674220333</v>
       </c>
       <c r="G30" t="n">
-        <v>173788.5589748379</v>
+        <v>178306.6788503756</v>
       </c>
       <c r="H30" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I30" t="n">
-        <v>31028745</v>
+        <v>31271287</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>32253086</v>
+        <v>31932052</v>
       </c>
       <c r="F31" t="n">
-        <v>20988.01121538584</v>
+        <v>12829.62152693402</v>
       </c>
       <c r="G31" t="n">
-        <v>25049.98542816454</v>
+        <v>22227.41964920295</v>
       </c>
       <c r="H31" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I31" t="n">
-        <v>5491816</v>
+        <v>5490155</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>88225967</v>
+        <v>88715328</v>
       </c>
       <c r="E32" t="n">
-        <v>326135380</v>
+        <v>327944584</v>
       </c>
       <c r="F32" t="n">
-        <v>10305.89293127203</v>
+        <v>10463.98812237752</v>
       </c>
       <c r="G32" t="n">
-        <v>792.8751952285188</v>
+        <v>806.2439321606247</v>
       </c>
       <c r="H32" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="I32" t="n">
-        <v>260289</v>
+        <v>259046</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>493168298</v>
+        <v>496975364</v>
       </c>
       <c r="E33" t="n">
-        <v>1716677803</v>
+        <v>1729929883</v>
       </c>
       <c r="F33" t="n">
-        <v>246735.5928614285</v>
+        <v>252732.473758812</v>
       </c>
       <c r="G33" t="n">
-        <v>273409.1856969413</v>
+        <v>277321.8558283232</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>29291105</v>
+        <v>30513919</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>102002215</v>
+        <v>102169974</v>
       </c>
       <c r="E34" t="n">
-        <v>154545142</v>
+        <v>154799316</v>
       </c>
       <c r="F34" t="n">
-        <v>61045.78358663692</v>
+        <v>61412.29178721474</v>
       </c>
       <c r="G34" t="n">
-        <v>142068.3706365952</v>
+        <v>143026.4303654469</v>
       </c>
       <c r="H34" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I34" t="n">
-        <v>6943062</v>
+        <v>6960534</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2618689</v>
+        <v>2625312</v>
       </c>
       <c r="E35" t="n">
-        <v>10474757</v>
+        <v>10501247</v>
       </c>
       <c r="F35" t="n">
-        <v>14934.9738165694</v>
+        <v>59560.43231316675</v>
       </c>
       <c r="G35" t="n">
-        <v>74928.46525897151</v>
+        <v>68648.50008245978</v>
       </c>
       <c r="H35" t="n">
         <v>0.1</v>
       </c>
       <c r="I35" t="n">
-        <v>6897257</v>
+        <v>6925877</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>219937018</v>
+        <v>220199662</v>
       </c>
       <c r="E36" t="n">
-        <v>676223563</v>
+        <v>677031096</v>
       </c>
       <c r="F36" t="n">
-        <v>136093.2760432147</v>
+        <v>161103.3107835798</v>
       </c>
       <c r="G36" t="n">
-        <v>224947.2443363414</v>
+        <v>240785.1736824376</v>
       </c>
       <c r="H36" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>13074098</v>
+        <v>12423747</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>151312336</v>
+        <v>150559844</v>
       </c>
       <c r="E37" t="n">
-        <v>395299280</v>
+        <v>393333417</v>
       </c>
       <c r="F37" t="n">
-        <v>47349.92949216298</v>
+        <v>45860.70071847885</v>
       </c>
       <c r="G37" t="n">
-        <v>51203.89697175797</v>
+        <v>68994.25569341969</v>
       </c>
       <c r="H37" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="I37" t="n">
-        <v>6907182</v>
+        <v>7292672</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>401842223</v>
+        <v>401283996</v>
       </c>
       <c r="E38" t="n">
-        <v>2296241275</v>
+        <v>2293051405</v>
       </c>
       <c r="F38" t="n">
-        <v>34223.063594381</v>
+        <v>40079.84601078628</v>
       </c>
       <c r="G38" t="n">
-        <v>78753.3491956824</v>
+        <v>96268.22943067481</v>
       </c>
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>38250071</v>
+        <v>38416525</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250221.xlsx
+++ b/OkxData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>246088828</v>
+        <v>247037762</v>
       </c>
       <c r="E2" t="n">
-        <v>1543188452</v>
+        <v>1549139080</v>
       </c>
       <c r="F2" t="n">
-        <v>187474.6491914564</v>
+        <v>182297.962490088</v>
       </c>
       <c r="G2" t="n">
-        <v>205184.0649116022</v>
+        <v>210773.4553006599</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I2" t="n">
-        <v>16488292</v>
+        <v>16881375</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>144853050</v>
+        <v>146265161</v>
       </c>
       <c r="E3" t="n">
-        <v>160519817</v>
+        <v>162084657</v>
       </c>
       <c r="F3" t="n">
-        <v>62272.27062553213</v>
+        <v>69599.95547875777</v>
       </c>
       <c r="G3" t="n">
-        <v>171860.0857831041</v>
+        <v>178042.7055082587</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>37027548</v>
+        <v>37125156</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>584886066</v>
+        <v>584027157</v>
       </c>
       <c r="E4" t="n">
-        <v>731605539</v>
+        <v>730531171</v>
       </c>
       <c r="F4" t="n">
-        <v>91601.14700694161</v>
+        <v>98301.45973665579</v>
       </c>
       <c r="G4" t="n">
-        <v>164413.3742326</v>
+        <v>146759.6036358966</v>
       </c>
       <c r="H4" t="n">
         <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>55574701</v>
+        <v>55786363</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138766037</v>
+        <v>138523100</v>
       </c>
       <c r="E5" t="n">
-        <v>138766037</v>
+        <v>138523100</v>
       </c>
       <c r="F5" t="n">
-        <v>76191.04065915373</v>
+        <v>54531.3326540253</v>
       </c>
       <c r="G5" t="n">
-        <v>108123.6252980071</v>
+        <v>128448.102553851</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>66016466</v>
+        <v>64488306</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>255344315</v>
+        <v>257661476</v>
       </c>
       <c r="E6" t="n">
-        <v>255344315</v>
+        <v>257661476</v>
       </c>
       <c r="F6" t="n">
-        <v>60946.95701444933</v>
+        <v>62920.4836771496</v>
       </c>
       <c r="G6" t="n">
-        <v>118969.2862792525</v>
+        <v>120555.0629076028</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>14549913</v>
+        <v>14429592</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>99631983</v>
+        <v>99528691</v>
       </c>
       <c r="E7" t="n">
-        <v>124229404</v>
+        <v>124100610</v>
       </c>
       <c r="F7" t="n">
-        <v>10117.97798152371</v>
+        <v>14791.56392876628</v>
       </c>
       <c r="G7" t="n">
-        <v>43475.49912502513</v>
+        <v>37465.96376716008</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I7" t="n">
-        <v>10171106</v>
+        <v>10190260</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>76139362</v>
+        <v>76644865</v>
       </c>
       <c r="E8" t="n">
-        <v>158789234</v>
+        <v>159843465</v>
       </c>
       <c r="F8" t="n">
-        <v>39809.01087585303</v>
+        <v>41611.23372708123</v>
       </c>
       <c r="G8" t="n">
-        <v>46980.71063473879</v>
+        <v>47161.32433159032</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>16221879</v>
+        <v>16620281</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>145235675</v>
+        <v>144766307</v>
       </c>
       <c r="E9" t="n">
-        <v>145284508</v>
+        <v>144814981</v>
       </c>
       <c r="F9" t="n">
-        <v>8331.721385912109</v>
+        <v>8135.641713405989</v>
       </c>
       <c r="G9" t="n">
-        <v>16000.62398554711</v>
+        <v>14286.8259415971</v>
       </c>
       <c r="H9" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>2556870</v>
+        <v>2587736</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>653687310</v>
+        <v>649815150</v>
       </c>
       <c r="E10" t="n">
-        <v>653687310</v>
+        <v>649815150</v>
       </c>
       <c r="F10" t="n">
-        <v>272751.0351810007</v>
+        <v>292736.7868330319</v>
       </c>
       <c r="G10" t="n">
-        <v>551799.0638568753</v>
+        <v>493356.0118236811</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>303080241</v>
+        <v>308498205</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71706120</v>
+        <v>71800680</v>
       </c>
       <c r="E11" t="n">
-        <v>82273639</v>
+        <v>82382134</v>
       </c>
       <c r="F11" t="n">
-        <v>5062.651509091911</v>
+        <v>11989.25633485409</v>
       </c>
       <c r="G11" t="n">
-        <v>24709.7421264639</v>
+        <v>8987.807513750544</v>
       </c>
       <c r="H11" t="n">
         <v>0.19</v>
       </c>
       <c r="I11" t="n">
-        <v>1167679</v>
+        <v>1282774</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>271485250</v>
+        <v>272015522</v>
       </c>
       <c r="E12" t="n">
-        <v>1171881051</v>
+        <v>1174169999</v>
       </c>
       <c r="F12" t="n">
-        <v>350615.7846533991</v>
+        <v>331908.2199362915</v>
       </c>
       <c r="G12" t="n">
-        <v>387004.4534765382</v>
+        <v>373486.4989847745</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>99170322</v>
+        <v>97115217</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>114527891</v>
+        <v>114710807</v>
       </c>
       <c r="E13" t="n">
-        <v>114527891</v>
+        <v>114710807</v>
       </c>
       <c r="F13" t="n">
-        <v>5494.639951449411</v>
+        <v>5852.626241476773</v>
       </c>
       <c r="G13" t="n">
-        <v>4113.542263097097</v>
+        <v>4073.32198808884</v>
       </c>
       <c r="H13" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="I13" t="n">
-        <v>6220461</v>
+        <v>6118737</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19757963</v>
+        <v>19618254</v>
       </c>
       <c r="E14" t="n">
-        <v>49394908</v>
+        <v>49045634</v>
       </c>
       <c r="F14" t="n">
-        <v>13772.27133513561</v>
+        <v>10739.99913397597</v>
       </c>
       <c r="G14" t="n">
-        <v>8079.875968948256</v>
+        <v>12642.92526365231</v>
       </c>
       <c r="H14" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="I14" t="n">
-        <v>2006586</v>
+        <v>2066605</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12210349</v>
+        <v>12362865</v>
       </c>
       <c r="E15" t="n">
-        <v>17955088</v>
+        <v>18179361</v>
       </c>
       <c r="F15" t="n">
-        <v>1161.438639266064</v>
+        <v>2250.458053983355</v>
       </c>
       <c r="G15" t="n">
-        <v>7232.915287526162</v>
+        <v>3836.695148215751</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>2283857</v>
+        <v>2415615</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>32029964</v>
+        <v>31728156</v>
       </c>
       <c r="E16" t="n">
-        <v>99731032</v>
+        <v>98791297</v>
       </c>
       <c r="F16" t="n">
-        <v>12183.98112397121</v>
+        <v>14937.32150613023</v>
       </c>
       <c r="G16" t="n">
-        <v>25256.88825723695</v>
+        <v>32958.06653048252</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I16" t="n">
-        <v>11589842</v>
+        <v>11676498</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>340069108</v>
+        <v>339295033</v>
       </c>
       <c r="E17" t="n">
-        <v>3059472562</v>
+        <v>3052508510</v>
       </c>
       <c r="F17" t="n">
-        <v>6790.93851968102</v>
+        <v>6792.841529933145</v>
       </c>
       <c r="G17" t="n">
-        <v>8218.44062721274</v>
+        <v>7996.569156365968</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>38291037</v>
+        <v>38417063</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15695703</v>
+        <v>15717722</v>
       </c>
       <c r="E18" t="n">
-        <v>96204127</v>
+        <v>96339086</v>
       </c>
       <c r="F18" t="n">
-        <v>36101.99568170298</v>
+        <v>36875.09923834824</v>
       </c>
       <c r="G18" t="n">
-        <v>27040.38319417652</v>
+        <v>27988.80990964812</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>10840893</v>
+        <v>10568762</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47353997</v>
+        <v>47635106</v>
       </c>
       <c r="E19" t="n">
-        <v>203995840</v>
+        <v>205206827</v>
       </c>
       <c r="F19" t="n">
-        <v>50678.02652183332</v>
+        <v>54588.30320776694</v>
       </c>
       <c r="G19" t="n">
-        <v>73386.88132649924</v>
+        <v>69505.01463958508</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I19" t="n">
-        <v>8913630</v>
+        <v>8406982</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>314578029</v>
+        <v>298456088</v>
       </c>
       <c r="E20" t="n">
-        <v>314578029</v>
+        <v>298456088</v>
       </c>
       <c r="F20" t="n">
-        <v>70600.94514353007</v>
+        <v>63601.67036461501</v>
       </c>
       <c r="G20" t="n">
-        <v>133794.0406912139</v>
+        <v>112882.6871930383</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>51789639</v>
+        <v>63739815</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30936291</v>
+        <v>30788345</v>
       </c>
       <c r="E21" t="n">
-        <v>138514466</v>
+        <v>137852051</v>
       </c>
       <c r="F21" t="n">
-        <v>52422.329439163</v>
+        <v>53202.54884279906</v>
       </c>
       <c r="G21" t="n">
-        <v>60097.43538696925</v>
+        <v>71940.87421208595</v>
       </c>
       <c r="H21" t="n">
         <v>0.15</v>
       </c>
       <c r="I21" t="n">
-        <v>8810919</v>
+        <v>8714941</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>49914827</v>
+        <v>49880733</v>
       </c>
       <c r="E22" t="n">
-        <v>323684369</v>
+        <v>323463277</v>
       </c>
       <c r="F22" t="n">
-        <v>9420.760061321183</v>
+        <v>9806.421253759743</v>
       </c>
       <c r="G22" t="n">
-        <v>5774.078679464111</v>
+        <v>2317.032933426302</v>
       </c>
       <c r="H22" t="n">
         <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>16850660</v>
+        <v>16527886</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125371236</v>
+        <v>125352973</v>
       </c>
       <c r="E23" t="n">
-        <v>2076250343</v>
+        <v>2075947907</v>
       </c>
       <c r="F23" t="n">
-        <v>345730.981307529</v>
+        <v>336198.5629966203</v>
       </c>
       <c r="G23" t="n">
-        <v>345722.4480230772</v>
+        <v>337538.9113525944</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>4921165</v>
+        <v>4818488</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6720419</v>
+        <v>6608900</v>
       </c>
       <c r="E24" t="n">
-        <v>34574512</v>
+        <v>34000781</v>
       </c>
       <c r="F24" t="n">
-        <v>1742.959383467405</v>
+        <v>2419.314069025571</v>
       </c>
       <c r="G24" t="n">
-        <v>1379.572144668323</v>
+        <v>2037.276197894308</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09</v>
+        <v>0.29</v>
       </c>
       <c r="I24" t="n">
-        <v>919852</v>
+        <v>921898</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23038088</v>
+        <v>22989792</v>
       </c>
       <c r="E25" t="n">
-        <v>23038088</v>
+        <v>22989792</v>
       </c>
       <c r="F25" t="n">
-        <v>18324.43147965344</v>
+        <v>22269.84620125967</v>
       </c>
       <c r="G25" t="n">
-        <v>9325.537332952683</v>
+        <v>11040.39643626896</v>
       </c>
       <c r="H25" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="I25" t="n">
-        <v>2111141</v>
+        <v>2077454</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>316131925</v>
+        <v>316480483</v>
       </c>
       <c r="E27" t="n">
-        <v>584916154</v>
+        <v>585561067</v>
       </c>
       <c r="F27" t="n">
-        <v>99093.47450544813</v>
+        <v>100007.0174145221</v>
       </c>
       <c r="G27" t="n">
-        <v>105007.937232247</v>
+        <v>105264.7605898126</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>13475524</v>
+        <v>13540975</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44785505</v>
+        <v>45084458</v>
       </c>
       <c r="E28" t="n">
-        <v>44785505</v>
+        <v>45084458</v>
       </c>
       <c r="F28" t="n">
-        <v>21804.31848059999</v>
+        <v>25970.72464506246</v>
       </c>
       <c r="G28" t="n">
-        <v>49882.30896019555</v>
+        <v>51164.62185833295</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>8635833</v>
+        <v>7530264</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>608805395</v>
+        <v>609269451</v>
       </c>
       <c r="E29" t="n">
-        <v>2357813472</v>
+        <v>2359610692</v>
       </c>
       <c r="F29" t="n">
-        <v>68243.85433132117</v>
+        <v>64223.08516838397</v>
       </c>
       <c r="G29" t="n">
-        <v>234603.8626643093</v>
+        <v>241868.5035492367</v>
       </c>
       <c r="H29" t="n">
         <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>32837434</v>
+        <v>32614709</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>120149947</v>
+        <v>121203979</v>
       </c>
       <c r="E30" t="n">
-        <v>460914537</v>
+        <v>464957972</v>
       </c>
       <c r="F30" t="n">
-        <v>143056.6674220333</v>
+        <v>145419.6899887545</v>
       </c>
       <c r="G30" t="n">
-        <v>178306.6788503756</v>
+        <v>179423.7553161197</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>31271287</v>
+        <v>31423622</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>31932052</v>
+        <v>31579600</v>
       </c>
       <c r="F31" t="n">
-        <v>12829.62152693402</v>
+        <v>12126.99951591921</v>
       </c>
       <c r="G31" t="n">
-        <v>22227.41964920295</v>
+        <v>22029.08219795955</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>5490155</v>
+        <v>5376297</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>88715328</v>
+        <v>88785494</v>
       </c>
       <c r="E32" t="n">
-        <v>327944584</v>
+        <v>328201941</v>
       </c>
       <c r="F32" t="n">
-        <v>10463.98812237752</v>
+        <v>10359.17488431188</v>
       </c>
       <c r="G32" t="n">
-        <v>806.2439321606247</v>
+        <v>648.1625659794106</v>
       </c>
       <c r="H32" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="I32" t="n">
-        <v>259046</v>
+        <v>245233</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>496975364</v>
+        <v>495432508</v>
       </c>
       <c r="E33" t="n">
-        <v>1729929883</v>
+        <v>1724559330</v>
       </c>
       <c r="F33" t="n">
-        <v>252732.473758812</v>
+        <v>248680.6508460614</v>
       </c>
       <c r="G33" t="n">
-        <v>277321.8558283232</v>
+        <v>285667.5127744722</v>
       </c>
       <c r="H33" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>30513919</v>
+        <v>30664946</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>102169974</v>
+        <v>103549925</v>
       </c>
       <c r="E34" t="n">
-        <v>154799316</v>
+        <v>156890100</v>
       </c>
       <c r="F34" t="n">
-        <v>61412.29178721474</v>
+        <v>67868.57796734001</v>
       </c>
       <c r="G34" t="n">
-        <v>143026.4303654469</v>
+        <v>67073.49400744576</v>
       </c>
       <c r="H34" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="I34" t="n">
-        <v>6960534</v>
+        <v>7584729</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2625312</v>
+        <v>2629047</v>
       </c>
       <c r="E35" t="n">
-        <v>10501247</v>
+        <v>10516186</v>
       </c>
       <c r="F35" t="n">
-        <v>59560.43231316675</v>
+        <v>102376.2122477605</v>
       </c>
       <c r="G35" t="n">
-        <v>68648.50008245978</v>
+        <v>27149.03063456695</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I35" t="n">
-        <v>6925877</v>
+        <v>6889734</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>220199662</v>
+        <v>226522483</v>
       </c>
       <c r="E36" t="n">
-        <v>677031096</v>
+        <v>696471389</v>
       </c>
       <c r="F36" t="n">
-        <v>161103.3107835798</v>
+        <v>172521.1247063077</v>
       </c>
       <c r="G36" t="n">
-        <v>240785.1736824376</v>
+        <v>227391.5156240796</v>
       </c>
       <c r="H36" t="n">
         <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>12423747</v>
+        <v>14404568</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>150559844</v>
+        <v>152221834</v>
       </c>
       <c r="E37" t="n">
-        <v>393333417</v>
+        <v>397675318</v>
       </c>
       <c r="F37" t="n">
-        <v>45860.70071847885</v>
+        <v>43718.56865223738</v>
       </c>
       <c r="G37" t="n">
-        <v>68994.25569341969</v>
+        <v>53898.53808517157</v>
       </c>
       <c r="H37" t="n">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="I37" t="n">
-        <v>7292672</v>
+        <v>7288698</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>401283996</v>
+        <v>402105747</v>
       </c>
       <c r="E38" t="n">
-        <v>2293051405</v>
+        <v>2297747124</v>
       </c>
       <c r="F38" t="n">
-        <v>40079.84601078628</v>
+        <v>40203.82262102058</v>
       </c>
       <c r="G38" t="n">
-        <v>96268.22943067481</v>
+        <v>90218.05519722076</v>
       </c>
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>38416525</v>
+        <v>38789232</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250221.xlsx
+++ b/OkxData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>247037762</v>
+        <v>249969520</v>
       </c>
       <c r="E2" t="n">
-        <v>1549139080</v>
+        <v>1567523727</v>
       </c>
       <c r="F2" t="n">
-        <v>182297.962490088</v>
+        <v>187046.0746516094</v>
       </c>
       <c r="G2" t="n">
-        <v>210773.4553006599</v>
+        <v>205970.4392679736</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>16881375</v>
+        <v>17429384</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>146265161</v>
+        <v>147288932</v>
       </c>
       <c r="E3" t="n">
-        <v>162084657</v>
+        <v>163219155</v>
       </c>
       <c r="F3" t="n">
-        <v>69599.95547875777</v>
+        <v>63053.73114178101</v>
       </c>
       <c r="G3" t="n">
-        <v>178042.7055082587</v>
+        <v>109663.6327656982</v>
       </c>
       <c r="H3" t="n">
         <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>37125156</v>
+        <v>37241494</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>584027157</v>
+        <v>582488549</v>
       </c>
       <c r="E4" t="n">
-        <v>730531171</v>
+        <v>728606601</v>
       </c>
       <c r="F4" t="n">
-        <v>98301.45973665579</v>
+        <v>102144.270385127</v>
       </c>
       <c r="G4" t="n">
-        <v>146759.6036358966</v>
+        <v>136806.3103990938</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I4" t="n">
-        <v>55786363</v>
+        <v>55630352</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138523100</v>
+        <v>140134678</v>
       </c>
       <c r="E5" t="n">
-        <v>138523100</v>
+        <v>140134678</v>
       </c>
       <c r="F5" t="n">
-        <v>54531.3326540253</v>
+        <v>72747.54264631677</v>
       </c>
       <c r="G5" t="n">
-        <v>128448.102553851</v>
+        <v>105218.4017766272</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>64488306</v>
+        <v>68037956</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>257661476</v>
+        <v>258570269</v>
       </c>
       <c r="E6" t="n">
-        <v>257661476</v>
+        <v>258570269</v>
       </c>
       <c r="F6" t="n">
-        <v>62920.4836771496</v>
+        <v>66714.07449627132</v>
       </c>
       <c r="G6" t="n">
-        <v>120555.0629076028</v>
+        <v>111654.4694779296</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>14429592</v>
+        <v>14383661</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>99528691</v>
+        <v>100081416</v>
       </c>
       <c r="E7" t="n">
-        <v>124100610</v>
+        <v>124789794</v>
       </c>
       <c r="F7" t="n">
-        <v>14791.56392876628</v>
+        <v>12361.22168961369</v>
       </c>
       <c r="G7" t="n">
-        <v>37465.96376716008</v>
+        <v>38064.3021489844</v>
       </c>
       <c r="H7" t="n">
         <v>0.02</v>
       </c>
       <c r="I7" t="n">
-        <v>10190260</v>
+        <v>10139418</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>76644865</v>
+        <v>78618838</v>
       </c>
       <c r="E8" t="n">
-        <v>159843465</v>
+        <v>163960201</v>
       </c>
       <c r="F8" t="n">
-        <v>41611.23372708123</v>
+        <v>40849.06218507474</v>
       </c>
       <c r="G8" t="n">
-        <v>47161.32433159032</v>
+        <v>44960.1757941949</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I8" t="n">
-        <v>16620281</v>
+        <v>17645171</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>144766307</v>
+        <v>145018013</v>
       </c>
       <c r="E9" t="n">
-        <v>144814981</v>
+        <v>145066773</v>
       </c>
       <c r="F9" t="n">
-        <v>8135.641713405989</v>
+        <v>7990.116050018501</v>
       </c>
       <c r="G9" t="n">
-        <v>14286.8259415971</v>
+        <v>14550.66574257603</v>
       </c>
       <c r="H9" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I9" t="n">
-        <v>2587736</v>
+        <v>2586153</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>649815150</v>
+        <v>655077079</v>
       </c>
       <c r="E10" t="n">
-        <v>649815150</v>
+        <v>655077079</v>
       </c>
       <c r="F10" t="n">
-        <v>292736.7868330319</v>
+        <v>265902.0150825412</v>
       </c>
       <c r="G10" t="n">
-        <v>493356.0118236811</v>
+        <v>505556.5887594679</v>
       </c>
       <c r="H10" t="n">
         <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>308498205</v>
+        <v>311003588</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71800680</v>
+        <v>71629134</v>
       </c>
       <c r="E11" t="n">
-        <v>82382134</v>
+        <v>82185307</v>
       </c>
       <c r="F11" t="n">
-        <v>11989.25633485409</v>
+        <v>5984.130000266056</v>
       </c>
       <c r="G11" t="n">
-        <v>8987.807513750544</v>
+        <v>11114.11851458975</v>
       </c>
       <c r="H11" t="n">
         <v>0.19</v>
       </c>
       <c r="I11" t="n">
-        <v>1282774</v>
+        <v>1164937</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>272015522</v>
+        <v>274077591</v>
       </c>
       <c r="E12" t="n">
-        <v>1174169999</v>
+        <v>1183071036</v>
       </c>
       <c r="F12" t="n">
-        <v>331908.2199362915</v>
+        <v>285861.3162726059</v>
       </c>
       <c r="G12" t="n">
-        <v>373486.4989847745</v>
+        <v>400129.8954516888</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I12" t="n">
-        <v>97115217</v>
+        <v>98566815</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>114710807</v>
+        <v>115147408</v>
       </c>
       <c r="E13" t="n">
-        <v>114710807</v>
+        <v>115147408</v>
       </c>
       <c r="F13" t="n">
-        <v>5852.626241476773</v>
+        <v>2457.195980515465</v>
       </c>
       <c r="G13" t="n">
-        <v>4073.32198808884</v>
+        <v>3902.122176791832</v>
       </c>
       <c r="H13" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="I13" t="n">
-        <v>6118737</v>
+        <v>6114190</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19618254</v>
+        <v>19617661</v>
       </c>
       <c r="E14" t="n">
-        <v>49045634</v>
+        <v>49044153</v>
       </c>
       <c r="F14" t="n">
-        <v>10739.99913397597</v>
+        <v>7654.537332621244</v>
       </c>
       <c r="G14" t="n">
-        <v>12642.92526365231</v>
+        <v>9001.451912895553</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I14" t="n">
-        <v>2066605</v>
+        <v>2064967</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12362865</v>
+        <v>12870754</v>
       </c>
       <c r="E15" t="n">
-        <v>18179361</v>
+        <v>18926201</v>
       </c>
       <c r="F15" t="n">
-        <v>2250.458053983355</v>
+        <v>413.288556257022</v>
       </c>
       <c r="G15" t="n">
-        <v>3836.695148215751</v>
+        <v>2245.079076089365</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.78</v>
       </c>
       <c r="I15" t="n">
-        <v>2415615</v>
+        <v>2976236</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31728156</v>
+        <v>31813700</v>
       </c>
       <c r="E16" t="n">
-        <v>98791297</v>
+        <v>99057654</v>
       </c>
       <c r="F16" t="n">
-        <v>14937.32150613023</v>
+        <v>15179.88729332853</v>
       </c>
       <c r="G16" t="n">
-        <v>32958.06653048252</v>
+        <v>34887.68123671471</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="I16" t="n">
-        <v>11676498</v>
+        <v>11508451</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>339295033</v>
+        <v>347056848</v>
       </c>
       <c r="E17" t="n">
-        <v>3052508510</v>
+        <v>3122338611</v>
       </c>
       <c r="F17" t="n">
-        <v>6792.841529933145</v>
+        <v>6794.66313557829</v>
       </c>
       <c r="G17" t="n">
-        <v>7996.569156365968</v>
+        <v>7888.161281692853</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>38417063</v>
+        <v>40162330</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15717722</v>
+        <v>15724816</v>
       </c>
       <c r="E18" t="n">
-        <v>96339086</v>
+        <v>96382569</v>
       </c>
       <c r="F18" t="n">
-        <v>36875.09923834824</v>
+        <v>35478.15231687776</v>
       </c>
       <c r="G18" t="n">
-        <v>27988.80990964812</v>
+        <v>33162.68093057114</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>10568762</v>
+        <v>10295939</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47635106</v>
+        <v>48078152</v>
       </c>
       <c r="E19" t="n">
-        <v>205206827</v>
+        <v>207115421</v>
       </c>
       <c r="F19" t="n">
-        <v>54588.30320776694</v>
+        <v>54953.76319347068</v>
       </c>
       <c r="G19" t="n">
-        <v>69505.01463958508</v>
+        <v>60829.68544693973</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I19" t="n">
-        <v>8406982</v>
+        <v>8804172</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>298456088</v>
+        <v>297488647</v>
       </c>
       <c r="E20" t="n">
-        <v>298456088</v>
+        <v>297488647</v>
       </c>
       <c r="F20" t="n">
-        <v>63601.67036461501</v>
+        <v>63762.05006589183</v>
       </c>
       <c r="G20" t="n">
-        <v>112882.6871930383</v>
+        <v>123773.7489961054</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>63739815</v>
+        <v>76453674</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30788345</v>
+        <v>30932426</v>
       </c>
       <c r="E21" t="n">
-        <v>137852051</v>
+        <v>138497161</v>
       </c>
       <c r="F21" t="n">
-        <v>53202.54884279906</v>
+        <v>44732.92531842888</v>
       </c>
       <c r="G21" t="n">
-        <v>71940.87421208595</v>
+        <v>72214.08109537697</v>
       </c>
       <c r="H21" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I21" t="n">
-        <v>8714941</v>
+        <v>8563682</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>49880733</v>
+        <v>50296732</v>
       </c>
       <c r="E22" t="n">
-        <v>323463277</v>
+        <v>326160922</v>
       </c>
       <c r="F22" t="n">
-        <v>9806.421253759743</v>
+        <v>6588.299293935587</v>
       </c>
       <c r="G22" t="n">
-        <v>2317.032933426302</v>
+        <v>4353.015706261678</v>
       </c>
       <c r="H22" t="n">
         <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>16527886</v>
+        <v>16775176</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125352973</v>
+        <v>125524606</v>
       </c>
       <c r="E23" t="n">
-        <v>2075947907</v>
+        <v>2078790280</v>
       </c>
       <c r="F23" t="n">
-        <v>336198.5629966203</v>
+        <v>340030.6798418741</v>
       </c>
       <c r="G23" t="n">
-        <v>337538.9113525944</v>
+        <v>336533.7822718106</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>4818488</v>
+        <v>4697255</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6608900</v>
+        <v>6640315</v>
       </c>
       <c r="E24" t="n">
-        <v>34000781</v>
+        <v>34162405</v>
       </c>
       <c r="F24" t="n">
-        <v>2419.314069025571</v>
+        <v>1816.496442285721</v>
       </c>
       <c r="G24" t="n">
-        <v>2037.276197894308</v>
+        <v>3937.398237195273</v>
       </c>
       <c r="H24" t="n">
-        <v>0.29</v>
+        <v>0.52</v>
       </c>
       <c r="I24" t="n">
-        <v>921898</v>
+        <v>912136</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22989792</v>
+        <v>23218689</v>
       </c>
       <c r="E25" t="n">
-        <v>22989792</v>
+        <v>23218689</v>
       </c>
       <c r="F25" t="n">
-        <v>22269.84620125967</v>
+        <v>17262.6065047378</v>
       </c>
       <c r="G25" t="n">
-        <v>11040.39643626896</v>
+        <v>9398.048930229326</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="I25" t="n">
-        <v>2077454</v>
+        <v>2099606</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>316480483</v>
+        <v>317782505</v>
       </c>
       <c r="E27" t="n">
-        <v>585561067</v>
+        <v>587970103</v>
       </c>
       <c r="F27" t="n">
-        <v>100007.0174145221</v>
+        <v>100130.7891632585</v>
       </c>
       <c r="G27" t="n">
-        <v>105264.7605898126</v>
+        <v>105047.3623622595</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I27" t="n">
-        <v>13540975</v>
+        <v>13903968</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>45084458</v>
+        <v>44895843</v>
       </c>
       <c r="E28" t="n">
-        <v>45084458</v>
+        <v>44895843</v>
       </c>
       <c r="F28" t="n">
-        <v>25970.72464506246</v>
+        <v>22907.04559799122</v>
       </c>
       <c r="G28" t="n">
-        <v>51164.62185833295</v>
+        <v>39689.43152966404</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>7530264</v>
+        <v>7129828</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>609269451</v>
+        <v>611631851</v>
       </c>
       <c r="E29" t="n">
-        <v>2359610692</v>
+        <v>2368759918</v>
       </c>
       <c r="F29" t="n">
-        <v>64223.08516838397</v>
+        <v>65617.74242548455</v>
       </c>
       <c r="G29" t="n">
-        <v>241868.5035492367</v>
+        <v>236955.6713342437</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I29" t="n">
-        <v>32614709</v>
+        <v>32194883</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>121203979</v>
+        <v>122896258</v>
       </c>
       <c r="E30" t="n">
-        <v>464957972</v>
+        <v>471449826</v>
       </c>
       <c r="F30" t="n">
-        <v>145419.6899887545</v>
+        <v>147044.4275930016</v>
       </c>
       <c r="G30" t="n">
-        <v>179423.7553161197</v>
+        <v>176011.4057745207</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I30" t="n">
-        <v>31423622</v>
+        <v>30542670</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>31579600</v>
+        <v>31843552</v>
       </c>
       <c r="F31" t="n">
-        <v>12126.99951591921</v>
+        <v>14871.81399802011</v>
       </c>
       <c r="G31" t="n">
-        <v>22029.08219795955</v>
+        <v>30030.1719044863</v>
       </c>
       <c r="H31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>5376297</v>
+        <v>5371860</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>88785494</v>
+        <v>89005814</v>
       </c>
       <c r="E32" t="n">
-        <v>328201941</v>
+        <v>329016118</v>
       </c>
       <c r="F32" t="n">
-        <v>10359.17488431188</v>
+        <v>10005.15556547559</v>
       </c>
       <c r="G32" t="n">
-        <v>648.1625659794106</v>
+        <v>765.8339104902149</v>
       </c>
       <c r="H32" t="n">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="I32" t="n">
-        <v>245233</v>
+        <v>237273</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>495432508</v>
+        <v>498764559</v>
       </c>
       <c r="E33" t="n">
-        <v>1724559330</v>
+        <v>1736157922</v>
       </c>
       <c r="F33" t="n">
-        <v>248680.6508460614</v>
+        <v>254292.5953463088</v>
       </c>
       <c r="G33" t="n">
-        <v>285667.5127744722</v>
+        <v>290733.786197071</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I33" t="n">
-        <v>30664946</v>
+        <v>30692041</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>103549925</v>
+        <v>104912189</v>
       </c>
       <c r="E34" t="n">
-        <v>156890100</v>
+        <v>158954087</v>
       </c>
       <c r="F34" t="n">
-        <v>67868.57796734001</v>
+        <v>63142.94030530203</v>
       </c>
       <c r="G34" t="n">
-        <v>67073.49400744576</v>
+        <v>67884.43108620353</v>
       </c>
       <c r="H34" t="n">
         <v>0.12</v>
       </c>
       <c r="I34" t="n">
-        <v>7584729</v>
+        <v>7690876</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2629047</v>
+        <v>2631929</v>
       </c>
       <c r="E35" t="n">
-        <v>10516186</v>
+        <v>10527717</v>
       </c>
       <c r="F35" t="n">
-        <v>102376.2122477605</v>
+        <v>40948.47106494768</v>
       </c>
       <c r="G35" t="n">
-        <v>27149.03063456695</v>
+        <v>87559.97433036052</v>
       </c>
       <c r="H35" t="n">
         <v>0.09</v>
       </c>
       <c r="I35" t="n">
-        <v>6889734</v>
+        <v>6858130</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>226522483</v>
+        <v>229227366</v>
       </c>
       <c r="E36" t="n">
-        <v>696471389</v>
+        <v>704787887</v>
       </c>
       <c r="F36" t="n">
-        <v>172521.1247063077</v>
+        <v>167648.5275319316</v>
       </c>
       <c r="G36" t="n">
-        <v>227391.5156240796</v>
+        <v>217309.8126482223</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>14404568</v>
+        <v>15173660</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>152221834</v>
+        <v>148336981</v>
       </c>
       <c r="E37" t="n">
-        <v>397675318</v>
+        <v>387526249</v>
       </c>
       <c r="F37" t="n">
-        <v>43718.56865223738</v>
+        <v>52621.70573002452</v>
       </c>
       <c r="G37" t="n">
-        <v>53898.53808517157</v>
+        <v>57441.67846939393</v>
       </c>
       <c r="H37" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="I37" t="n">
-        <v>7288698</v>
+        <v>7692785</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>402105747</v>
+        <v>405510814</v>
       </c>
       <c r="E38" t="n">
-        <v>2297747124</v>
+        <v>2317204654</v>
       </c>
       <c r="F38" t="n">
-        <v>40203.82262102058</v>
+        <v>44711.09359033149</v>
       </c>
       <c r="G38" t="n">
-        <v>90218.05519722076</v>
+        <v>79968.41617553831</v>
       </c>
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>38789232</v>
+        <v>39301762</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250221.xlsx
+++ b/OkxData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>249969520</v>
+        <v>248246221</v>
       </c>
       <c r="E2" t="n">
-        <v>1567523727</v>
+        <v>1556717158</v>
       </c>
       <c r="F2" t="n">
-        <v>187046.0746516094</v>
+        <v>182681.1813688976</v>
       </c>
       <c r="G2" t="n">
-        <v>205970.4392679736</v>
+        <v>205295.6728757681</v>
       </c>
       <c r="H2" t="n">
         <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>17429384</v>
+        <v>17634097</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>147288932</v>
+        <v>146579210</v>
       </c>
       <c r="E3" t="n">
-        <v>163219155</v>
+        <v>162432672</v>
       </c>
       <c r="F3" t="n">
-        <v>63053.73114178101</v>
+        <v>64439.3889354567</v>
       </c>
       <c r="G3" t="n">
-        <v>109663.6327656982</v>
+        <v>169164.8545136189</v>
       </c>
       <c r="H3" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>37241494</v>
+        <v>37546598</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>582488549</v>
+        <v>580374264</v>
       </c>
       <c r="E4" t="n">
-        <v>728606601</v>
+        <v>725961945</v>
       </c>
       <c r="F4" t="n">
-        <v>102144.270385127</v>
+        <v>101944.1876135225</v>
       </c>
       <c r="G4" t="n">
-        <v>136806.3103990938</v>
+        <v>139855.9572700106</v>
       </c>
       <c r="H4" t="n">
         <v>0.01</v>
       </c>
       <c r="I4" t="n">
-        <v>55630352</v>
+        <v>55847262</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140134678</v>
+        <v>139888598</v>
       </c>
       <c r="E5" t="n">
-        <v>140134678</v>
+        <v>139888598</v>
       </c>
       <c r="F5" t="n">
-        <v>72747.54264631677</v>
+        <v>69762.24986903292</v>
       </c>
       <c r="G5" t="n">
-        <v>105218.4017766272</v>
+        <v>115681.7818269906</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>68037956</v>
+        <v>68888963</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>258570269</v>
+        <v>257684251</v>
       </c>
       <c r="E6" t="n">
-        <v>258570269</v>
+        <v>257684251</v>
       </c>
       <c r="F6" t="n">
-        <v>66714.07449627132</v>
+        <v>59705.07913662682</v>
       </c>
       <c r="G6" t="n">
-        <v>111654.4694779296</v>
+        <v>115569.9626545051</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>14383661</v>
+        <v>14528937</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>100081416</v>
+        <v>99760555</v>
       </c>
       <c r="E7" t="n">
-        <v>124789794</v>
+        <v>124389717</v>
       </c>
       <c r="F7" t="n">
-        <v>12361.22168961369</v>
+        <v>11689.37713240259</v>
       </c>
       <c r="G7" t="n">
-        <v>38064.3021489844</v>
+        <v>43044.01361882128</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I7" t="n">
-        <v>10139418</v>
+        <v>10160402</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>78618838</v>
+        <v>78441662</v>
       </c>
       <c r="E8" t="n">
-        <v>163960201</v>
+        <v>163590699</v>
       </c>
       <c r="F8" t="n">
-        <v>40849.06218507474</v>
+        <v>44785.70626859022</v>
       </c>
       <c r="G8" t="n">
-        <v>44960.1757941949</v>
+        <v>49701.35273679353</v>
       </c>
       <c r="H8" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I8" t="n">
-        <v>17645171</v>
+        <v>17824431</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>145018013</v>
+        <v>144881218</v>
       </c>
       <c r="E9" t="n">
-        <v>145066773</v>
+        <v>144929931</v>
       </c>
       <c r="F9" t="n">
-        <v>7990.116050018501</v>
+        <v>9972.847173495071</v>
       </c>
       <c r="G9" t="n">
-        <v>14550.66574257603</v>
+        <v>14958.14258325997</v>
       </c>
       <c r="H9" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I9" t="n">
-        <v>2586153</v>
+        <v>2598395</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>655077079</v>
+        <v>653743509</v>
       </c>
       <c r="E10" t="n">
-        <v>655077079</v>
+        <v>653743509</v>
       </c>
       <c r="F10" t="n">
-        <v>265902.0150825412</v>
+        <v>275181.3117935213</v>
       </c>
       <c r="G10" t="n">
-        <v>505556.5887594679</v>
+        <v>516490.3284175001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>311003588</v>
+        <v>310200492</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71629134</v>
+        <v>71816820</v>
       </c>
       <c r="E11" t="n">
-        <v>82185307</v>
+        <v>82400653</v>
       </c>
       <c r="F11" t="n">
-        <v>5984.130000266056</v>
+        <v>5319.017279252322</v>
       </c>
       <c r="G11" t="n">
-        <v>11114.11851458975</v>
+        <v>9978.892216793305</v>
       </c>
       <c r="H11" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I11" t="n">
-        <v>1164937</v>
+        <v>1297415</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>274077591</v>
+        <v>271775792</v>
       </c>
       <c r="E12" t="n">
-        <v>1183071036</v>
+        <v>1173135191</v>
       </c>
       <c r="F12" t="n">
-        <v>285861.3162726059</v>
+        <v>360090.770966055</v>
       </c>
       <c r="G12" t="n">
-        <v>400129.8954516888</v>
+        <v>390726.7848664175</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>98566815</v>
+        <v>100505888</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>115147408</v>
+        <v>115226381</v>
       </c>
       <c r="E13" t="n">
-        <v>115147408</v>
+        <v>115226381</v>
       </c>
       <c r="F13" t="n">
-        <v>2457.195980515465</v>
+        <v>2467.677115640668</v>
       </c>
       <c r="G13" t="n">
-        <v>3902.122176791832</v>
+        <v>3873.058774306124</v>
       </c>
       <c r="H13" t="n">
-        <v>0.39</v>
+        <v>0.27</v>
       </c>
       <c r="I13" t="n">
-        <v>6114190</v>
+        <v>6109549</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19617661</v>
+        <v>19506534</v>
       </c>
       <c r="E14" t="n">
-        <v>49044153</v>
+        <v>48766334</v>
       </c>
       <c r="F14" t="n">
-        <v>7654.537332621244</v>
+        <v>8312.768210297816</v>
       </c>
       <c r="G14" t="n">
-        <v>9001.451912895553</v>
+        <v>11083.01958679405</v>
       </c>
       <c r="H14" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2064967</v>
+        <v>2067285</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12870754</v>
+        <v>12790188</v>
       </c>
       <c r="E15" t="n">
-        <v>18926201</v>
+        <v>18807731</v>
       </c>
       <c r="F15" t="n">
-        <v>413.288556257022</v>
+        <v>1196.4839130138</v>
       </c>
       <c r="G15" t="n">
-        <v>2245.079076089365</v>
+        <v>6328.845146709822</v>
       </c>
       <c r="H15" t="n">
-        <v>0.78</v>
+        <v>0.11</v>
       </c>
       <c r="I15" t="n">
-        <v>2976236</v>
+        <v>2926084</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31813700</v>
+        <v>31631410</v>
       </c>
       <c r="E16" t="n">
-        <v>99057654</v>
+        <v>98490061</v>
       </c>
       <c r="F16" t="n">
-        <v>15179.88729332853</v>
+        <v>14505.42871299225</v>
       </c>
       <c r="G16" t="n">
-        <v>34887.68123671471</v>
+        <v>32053.19649123903</v>
       </c>
       <c r="H16" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="I16" t="n">
-        <v>11508451</v>
+        <v>11451905</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>347056848</v>
+        <v>344177847</v>
       </c>
       <c r="E17" t="n">
-        <v>3122338611</v>
+        <v>3096437333</v>
       </c>
       <c r="F17" t="n">
-        <v>6794.66313557829</v>
+        <v>6539.987566909787</v>
       </c>
       <c r="G17" t="n">
-        <v>7888.161281692853</v>
+        <v>7990.91924533664</v>
       </c>
       <c r="H17" t="n">
         <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>40162330</v>
+        <v>40114723</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15724816</v>
+        <v>15709878</v>
       </c>
       <c r="E18" t="n">
-        <v>96382569</v>
+        <v>96291010</v>
       </c>
       <c r="F18" t="n">
-        <v>35478.15231687776</v>
+        <v>37652.93918877248</v>
       </c>
       <c r="G18" t="n">
-        <v>33162.68093057114</v>
+        <v>27888.26576045948</v>
       </c>
       <c r="H18" t="n">
         <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>10295939</v>
+        <v>10229246</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>48078152</v>
+        <v>47781173</v>
       </c>
       <c r="E19" t="n">
-        <v>207115421</v>
+        <v>205836067</v>
       </c>
       <c r="F19" t="n">
-        <v>54953.76319347068</v>
+        <v>57416.07424677618</v>
       </c>
       <c r="G19" t="n">
-        <v>60829.68544693973</v>
+        <v>71024.13871947519</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I19" t="n">
-        <v>8804172</v>
+        <v>8824903</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>297488647</v>
+        <v>296574320</v>
       </c>
       <c r="E20" t="n">
-        <v>297488647</v>
+        <v>296574320</v>
       </c>
       <c r="F20" t="n">
-        <v>63762.05006589183</v>
+        <v>69069.98161015665</v>
       </c>
       <c r="G20" t="n">
-        <v>123773.7489961054</v>
+        <v>119243.2987554014</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>76453674</v>
+        <v>76940884</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30932426</v>
+        <v>30809902</v>
       </c>
       <c r="E21" t="n">
-        <v>138497161</v>
+        <v>137948571</v>
       </c>
       <c r="F21" t="n">
-        <v>44732.92531842888</v>
+        <v>47788.5673574461</v>
       </c>
       <c r="G21" t="n">
-        <v>72214.08109537697</v>
+        <v>77066.00466186128</v>
       </c>
       <c r="H21" t="n">
         <v>0.14</v>
       </c>
       <c r="I21" t="n">
-        <v>8563682</v>
+        <v>8591538</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>50296732</v>
+        <v>50202590</v>
       </c>
       <c r="E22" t="n">
-        <v>326160922</v>
+        <v>325550436</v>
       </c>
       <c r="F22" t="n">
-        <v>6588.299293935587</v>
+        <v>6400.945719054886</v>
       </c>
       <c r="G22" t="n">
-        <v>4353.015706261678</v>
+        <v>4986.544359819576</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>16775176</v>
+        <v>16786113</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125524606</v>
+        <v>125420326</v>
       </c>
       <c r="E23" t="n">
-        <v>2078790280</v>
+        <v>2077063316</v>
       </c>
       <c r="F23" t="n">
-        <v>340030.6798418741</v>
+        <v>340523.4593494189</v>
       </c>
       <c r="G23" t="n">
-        <v>336533.7822718106</v>
+        <v>337629.1407389637</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>4697255</v>
+        <v>4686981</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6640315</v>
+        <v>6644637</v>
       </c>
       <c r="E24" t="n">
-        <v>34162405</v>
+        <v>34184636</v>
       </c>
       <c r="F24" t="n">
-        <v>1816.496442285721</v>
+        <v>2064.771734145068</v>
       </c>
       <c r="G24" t="n">
-        <v>3937.398237195273</v>
+        <v>4506.594565308686</v>
       </c>
       <c r="H24" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="I24" t="n">
-        <v>912136</v>
+        <v>857212</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23218689</v>
+        <v>23246139</v>
       </c>
       <c r="E25" t="n">
-        <v>23218689</v>
+        <v>23246139</v>
       </c>
       <c r="F25" t="n">
-        <v>17262.6065047378</v>
+        <v>5677.56940491946</v>
       </c>
       <c r="G25" t="n">
-        <v>9398.048930229326</v>
+        <v>10072.28993188432</v>
       </c>
       <c r="H25" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="I25" t="n">
-        <v>2099606</v>
+        <v>2080956</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>317782505</v>
+        <v>317257353</v>
       </c>
       <c r="E27" t="n">
-        <v>587970103</v>
+        <v>586998454</v>
       </c>
       <c r="F27" t="n">
-        <v>100130.7891632585</v>
+        <v>99575.84326744296</v>
       </c>
       <c r="G27" t="n">
-        <v>105047.3623622595</v>
+        <v>104818.2530009074</v>
       </c>
       <c r="H27" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>13903968</v>
+        <v>13925497</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44895843</v>
+        <v>44896272</v>
       </c>
       <c r="E28" t="n">
-        <v>44895843</v>
+        <v>44896272</v>
       </c>
       <c r="F28" t="n">
-        <v>22907.04559799122</v>
+        <v>23975.98641963599</v>
       </c>
       <c r="G28" t="n">
-        <v>39689.43152966404</v>
+        <v>43917.43970917285</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>7129828</v>
+        <v>7148698</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>611631851</v>
+        <v>610763818</v>
       </c>
       <c r="E29" t="n">
-        <v>2368759918</v>
+        <v>2365398155</v>
       </c>
       <c r="F29" t="n">
-        <v>65617.74242548455</v>
+        <v>60449.73578741326</v>
       </c>
       <c r="G29" t="n">
-        <v>236955.6713342437</v>
+        <v>237223.4158561713</v>
       </c>
       <c r="H29" t="n">
         <v>0.08</v>
       </c>
       <c r="I29" t="n">
-        <v>32194883</v>
+        <v>33096925</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>122896258</v>
+        <v>122779665</v>
       </c>
       <c r="E30" t="n">
-        <v>471449826</v>
+        <v>471002557</v>
       </c>
       <c r="F30" t="n">
-        <v>147044.4275930016</v>
+        <v>145240.138238208</v>
       </c>
       <c r="G30" t="n">
-        <v>176011.4057745207</v>
+        <v>173294.9624971739</v>
       </c>
       <c r="H30" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I30" t="n">
-        <v>30542670</v>
+        <v>31758298</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>31843552</v>
+        <v>32043285</v>
       </c>
       <c r="F31" t="n">
-        <v>14871.81399802011</v>
+        <v>16579.14600418038</v>
       </c>
       <c r="G31" t="n">
-        <v>30030.1719044863</v>
+        <v>49928.06302237289</v>
       </c>
       <c r="H31" t="n">
         <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>5371860</v>
+        <v>5426371</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>89005814</v>
+        <v>88954221</v>
       </c>
       <c r="E32" t="n">
-        <v>329016118</v>
+        <v>328824403</v>
       </c>
       <c r="F32" t="n">
-        <v>10005.15556547559</v>
+        <v>10101.49723315732</v>
       </c>
       <c r="G32" t="n">
-        <v>765.8339104902149</v>
+        <v>977.9586210226165</v>
       </c>
       <c r="H32" t="n">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="I32" t="n">
-        <v>237273</v>
+        <v>235787</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>498764559</v>
+        <v>497085188</v>
       </c>
       <c r="E33" t="n">
-        <v>1736157922</v>
+        <v>1730312169</v>
       </c>
       <c r="F33" t="n">
-        <v>254292.5953463088</v>
+        <v>252328.8788609545</v>
       </c>
       <c r="G33" t="n">
-        <v>290733.786197071</v>
+        <v>288552.1930179641</v>
       </c>
       <c r="H33" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>30692041</v>
+        <v>30666851</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>104912189</v>
+        <v>105150441</v>
       </c>
       <c r="E34" t="n">
-        <v>158954087</v>
+        <v>159315068</v>
       </c>
       <c r="F34" t="n">
-        <v>63142.94030530203</v>
+        <v>62502.46569326371</v>
       </c>
       <c r="G34" t="n">
-        <v>67884.43108620353</v>
+        <v>67435.58726943671</v>
       </c>
       <c r="H34" t="n">
         <v>0.12</v>
       </c>
       <c r="I34" t="n">
-        <v>7690876</v>
+        <v>7613687</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2631929</v>
+        <v>2635114</v>
       </c>
       <c r="E35" t="n">
-        <v>10527717</v>
+        <v>10540455</v>
       </c>
       <c r="F35" t="n">
-        <v>40948.47106494768</v>
+        <v>57632.74226275112</v>
       </c>
       <c r="G35" t="n">
-        <v>87559.97433036052</v>
+        <v>78264.2175855013</v>
       </c>
       <c r="H35" t="n">
         <v>0.09</v>
       </c>
       <c r="I35" t="n">
-        <v>6858130</v>
+        <v>6857324</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>229227366</v>
+        <v>228465872</v>
       </c>
       <c r="E36" t="n">
-        <v>704787887</v>
+        <v>702446578</v>
       </c>
       <c r="F36" t="n">
-        <v>167648.5275319316</v>
+        <v>164924.2838465511</v>
       </c>
       <c r="G36" t="n">
-        <v>217309.8126482223</v>
+        <v>231807.0630249943</v>
       </c>
       <c r="H36" t="n">
         <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>15173660</v>
+        <v>15302467</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>148336981</v>
+        <v>148172739</v>
       </c>
       <c r="E37" t="n">
-        <v>387526249</v>
+        <v>387097170</v>
       </c>
       <c r="F37" t="n">
-        <v>52621.70573002452</v>
+        <v>50911.40248288601</v>
       </c>
       <c r="G37" t="n">
-        <v>57441.67846939393</v>
+        <v>40758.09338923277</v>
       </c>
       <c r="H37" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="I37" t="n">
-        <v>7692785</v>
+        <v>7789863</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>405510814</v>
+        <v>404398007</v>
       </c>
       <c r="E38" t="n">
-        <v>2317204654</v>
+        <v>2310845756</v>
       </c>
       <c r="F38" t="n">
-        <v>44711.09359033149</v>
+        <v>42271.36292550844</v>
       </c>
       <c r="G38" t="n">
-        <v>79968.41617553831</v>
+        <v>82288.06924793396</v>
       </c>
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>39301762</v>
+        <v>39312883</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250221.xlsx
+++ b/OkxData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>248246221</v>
+        <v>248774205</v>
       </c>
       <c r="E2" t="n">
-        <v>1556717158</v>
+        <v>1560028073</v>
       </c>
       <c r="F2" t="n">
-        <v>182681.1813688976</v>
+        <v>181659.2240566578</v>
       </c>
       <c r="G2" t="n">
-        <v>205295.6728757681</v>
+        <v>226521.9435871485</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I2" t="n">
-        <v>17634097</v>
+        <v>17488056</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>146579210</v>
+        <v>148177480</v>
       </c>
       <c r="E3" t="n">
-        <v>162432672</v>
+        <v>164203805</v>
       </c>
       <c r="F3" t="n">
-        <v>64439.3889354567</v>
+        <v>71001.82227376547</v>
       </c>
       <c r="G3" t="n">
-        <v>169164.8545136189</v>
+        <v>177777.4323496467</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>37546598</v>
+        <v>38028641</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>580374264</v>
+        <v>583686632</v>
       </c>
       <c r="E4" t="n">
-        <v>725961945</v>
+        <v>730105225</v>
       </c>
       <c r="F4" t="n">
-        <v>101944.1876135225</v>
+        <v>87218.59271180221</v>
       </c>
       <c r="G4" t="n">
-        <v>139855.9572700106</v>
+        <v>153005.3567815134</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>55847262</v>
+        <v>55664933</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139888598</v>
+        <v>141457637</v>
       </c>
       <c r="E5" t="n">
-        <v>139888598</v>
+        <v>141457637</v>
       </c>
       <c r="F5" t="n">
-        <v>69762.24986903292</v>
+        <v>68861.89309730721</v>
       </c>
       <c r="G5" t="n">
-        <v>115681.7818269906</v>
+        <v>88549.46277629001</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>68888963</v>
+        <v>69076921</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>257684251</v>
+        <v>261684200</v>
       </c>
       <c r="E6" t="n">
-        <v>257684251</v>
+        <v>261684200</v>
       </c>
       <c r="F6" t="n">
-        <v>59705.07913662682</v>
+        <v>68421.95943226443</v>
       </c>
       <c r="G6" t="n">
-        <v>115569.9626545051</v>
+        <v>106985.3771787669</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I6" t="n">
-        <v>14528937</v>
+        <v>14712632</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>99760555</v>
+        <v>99820271</v>
       </c>
       <c r="E7" t="n">
-        <v>124389717</v>
+        <v>124464177</v>
       </c>
       <c r="F7" t="n">
-        <v>11689.37713240259</v>
+        <v>14277.89026260775</v>
       </c>
       <c r="G7" t="n">
-        <v>43044.01361882128</v>
+        <v>40034.46189974087</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>10160402</v>
+        <v>10127803</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>78441662</v>
+        <v>78584792</v>
       </c>
       <c r="E8" t="n">
-        <v>163590699</v>
+        <v>163889198</v>
       </c>
       <c r="F8" t="n">
-        <v>44785.70626859022</v>
+        <v>45209.61746409105</v>
       </c>
       <c r="G8" t="n">
-        <v>49701.35273679353</v>
+        <v>53367.01272532049</v>
       </c>
       <c r="H8" t="n">
         <v>0.09</v>
       </c>
       <c r="I8" t="n">
-        <v>17824431</v>
+        <v>18657752</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>144881218</v>
+        <v>144917971</v>
       </c>
       <c r="E9" t="n">
-        <v>144929931</v>
+        <v>144966697</v>
       </c>
       <c r="F9" t="n">
-        <v>9972.847173495071</v>
+        <v>8429.300581985921</v>
       </c>
       <c r="G9" t="n">
-        <v>14958.14258325997</v>
+        <v>12628.81597977389</v>
       </c>
       <c r="H9" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2598395</v>
+        <v>2601984</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>653743509</v>
+        <v>653137762</v>
       </c>
       <c r="E10" t="n">
-        <v>653743509</v>
+        <v>653137762</v>
       </c>
       <c r="F10" t="n">
-        <v>275181.3117935213</v>
+        <v>281156.2672056593</v>
       </c>
       <c r="G10" t="n">
-        <v>516490.3284175001</v>
+        <v>520055.0191837494</v>
       </c>
       <c r="H10" t="n">
         <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>310200492</v>
+        <v>312326415</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71816820</v>
+        <v>71401984</v>
       </c>
       <c r="E11" t="n">
-        <v>82400653</v>
+        <v>81924682</v>
       </c>
       <c r="F11" t="n">
-        <v>5319.017279252322</v>
+        <v>3451.668912366913</v>
       </c>
       <c r="G11" t="n">
-        <v>9978.892216793305</v>
+        <v>8770.907675473358</v>
       </c>
       <c r="H11" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I11" t="n">
-        <v>1297415</v>
+        <v>1159764</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>271775792</v>
+        <v>272332396</v>
       </c>
       <c r="E12" t="n">
-        <v>1173135191</v>
+        <v>1175537804</v>
       </c>
       <c r="F12" t="n">
-        <v>360090.770966055</v>
+        <v>379272.5885864933</v>
       </c>
       <c r="G12" t="n">
-        <v>390726.7848664175</v>
+        <v>392767.2181048189</v>
       </c>
       <c r="H12" t="n">
         <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>100505888</v>
+        <v>100209356</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>115226381</v>
+        <v>115347105</v>
       </c>
       <c r="E13" t="n">
-        <v>115226381</v>
+        <v>115347105</v>
       </c>
       <c r="F13" t="n">
-        <v>2467.677115640668</v>
+        <v>6336.329524874426</v>
       </c>
       <c r="G13" t="n">
-        <v>3873.058774306124</v>
+        <v>4619.475303254838</v>
       </c>
       <c r="H13" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="I13" t="n">
-        <v>6109549</v>
+        <v>6135305</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19506534</v>
+        <v>19474332</v>
       </c>
       <c r="E14" t="n">
-        <v>48766334</v>
+        <v>48685830</v>
       </c>
       <c r="F14" t="n">
-        <v>8312.768210297816</v>
+        <v>8872.928574279464</v>
       </c>
       <c r="G14" t="n">
-        <v>11083.01958679405</v>
+        <v>10254.20520848167</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I14" t="n">
-        <v>2067285</v>
+        <v>2005724</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12790188</v>
+        <v>12448379</v>
       </c>
       <c r="E15" t="n">
-        <v>18807731</v>
+        <v>18305107</v>
       </c>
       <c r="F15" t="n">
-        <v>1196.4839130138</v>
+        <v>1030.558799337311</v>
       </c>
       <c r="G15" t="n">
-        <v>6328.845146709822</v>
+        <v>5820.590049470338</v>
       </c>
       <c r="H15" t="n">
         <v>0.11</v>
       </c>
       <c r="I15" t="n">
-        <v>2926084</v>
+        <v>3253249</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31631410</v>
+        <v>31617236</v>
       </c>
       <c r="E16" t="n">
-        <v>98490061</v>
+        <v>98445927</v>
       </c>
       <c r="F16" t="n">
-        <v>14505.42871299225</v>
+        <v>13907.69643883578</v>
       </c>
       <c r="G16" t="n">
-        <v>32053.19649123903</v>
+        <v>31696.08948519897</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I16" t="n">
-        <v>11451905</v>
+        <v>10807348</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>344177847</v>
+        <v>346336344</v>
       </c>
       <c r="E17" t="n">
-        <v>3096437333</v>
+        <v>3115856511</v>
       </c>
       <c r="F17" t="n">
-        <v>6539.987566909787</v>
+        <v>6526.833065192791</v>
       </c>
       <c r="G17" t="n">
-        <v>7990.91924533664</v>
+        <v>7039.378590963875</v>
       </c>
       <c r="H17" t="n">
         <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>40114723</v>
+        <v>44160367</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15709878</v>
+        <v>15823974</v>
       </c>
       <c r="E18" t="n">
-        <v>96291010</v>
+        <v>96990341</v>
       </c>
       <c r="F18" t="n">
-        <v>37652.93918877248</v>
+        <v>41767.78425101908</v>
       </c>
       <c r="G18" t="n">
-        <v>27888.26576045948</v>
+        <v>38239.06603050781</v>
       </c>
       <c r="H18" t="n">
         <v>0.03</v>
       </c>
       <c r="I18" t="n">
-        <v>10229246</v>
+        <v>10232674</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47781173</v>
+        <v>50394470</v>
       </c>
       <c r="E19" t="n">
-        <v>205836067</v>
+        <v>217093868</v>
       </c>
       <c r="F19" t="n">
-        <v>57416.07424677618</v>
+        <v>35699.88823640439</v>
       </c>
       <c r="G19" t="n">
-        <v>71024.13871947519</v>
+        <v>85146.69544923703</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I19" t="n">
-        <v>8824903</v>
+        <v>9878699</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>296574320</v>
+        <v>301957688</v>
       </c>
       <c r="E20" t="n">
-        <v>296574320</v>
+        <v>301957688</v>
       </c>
       <c r="F20" t="n">
-        <v>69069.98161015665</v>
+        <v>72751.91882967588</v>
       </c>
       <c r="G20" t="n">
-        <v>119243.2987554014</v>
+        <v>115512.4191640033</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>76940884</v>
+        <v>80151878</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30809902</v>
+        <v>31049206</v>
       </c>
       <c r="E21" t="n">
-        <v>137948571</v>
+        <v>139020034</v>
       </c>
       <c r="F21" t="n">
-        <v>47788.5673574461</v>
+        <v>50861.79240820367</v>
       </c>
       <c r="G21" t="n">
-        <v>77066.00466186128</v>
+        <v>71949.7658249657</v>
       </c>
       <c r="H21" t="n">
         <v>0.14</v>
       </c>
       <c r="I21" t="n">
-        <v>8591538</v>
+        <v>8557940</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>50202590</v>
+        <v>51158695</v>
       </c>
       <c r="E22" t="n">
-        <v>325550436</v>
+        <v>331750524</v>
       </c>
       <c r="F22" t="n">
-        <v>6400.945719054886</v>
+        <v>6221.481665941805</v>
       </c>
       <c r="G22" t="n">
-        <v>4986.544359819576</v>
+        <v>7777.778350548692</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I22" t="n">
-        <v>16786113</v>
+        <v>17002461</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125420326</v>
+        <v>125368446</v>
       </c>
       <c r="E23" t="n">
-        <v>2077063316</v>
+        <v>2076204141</v>
       </c>
       <c r="F23" t="n">
-        <v>340523.4593494189</v>
+        <v>349188.4916564628</v>
       </c>
       <c r="G23" t="n">
-        <v>337629.1407389637</v>
+        <v>348206.4423277481</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>4686981</v>
+        <v>4485337</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6644637</v>
+        <v>6643062</v>
       </c>
       <c r="E24" t="n">
-        <v>34184636</v>
+        <v>34176535</v>
       </c>
       <c r="F24" t="n">
-        <v>2064.771734145068</v>
+        <v>1991.1291374743</v>
       </c>
       <c r="G24" t="n">
-        <v>4506.594565308686</v>
+        <v>2478.517955824276</v>
       </c>
       <c r="H24" t="n">
-        <v>0.41</v>
+        <v>0.23</v>
       </c>
       <c r="I24" t="n">
-        <v>857212</v>
+        <v>912475</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23246139</v>
+        <v>23100166</v>
       </c>
       <c r="E25" t="n">
-        <v>23246139</v>
+        <v>23100166</v>
       </c>
       <c r="F25" t="n">
-        <v>5677.56940491946</v>
+        <v>16711.00177790094</v>
       </c>
       <c r="G25" t="n">
-        <v>10072.28993188432</v>
+        <v>10155.00156029604</v>
       </c>
       <c r="H25" t="n">
         <v>0.14</v>
       </c>
       <c r="I25" t="n">
-        <v>2080956</v>
+        <v>1957420</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>317257353</v>
+        <v>319861095</v>
       </c>
       <c r="E27" t="n">
-        <v>586998454</v>
+        <v>591815969</v>
       </c>
       <c r="F27" t="n">
-        <v>99575.84326744296</v>
+        <v>98146.91776463448</v>
       </c>
       <c r="G27" t="n">
-        <v>104818.2530009074</v>
+        <v>106686.3381342032</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>13925497</v>
+        <v>14123969</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44896272</v>
+        <v>45209455</v>
       </c>
       <c r="E28" t="n">
-        <v>44896272</v>
+        <v>45209455</v>
       </c>
       <c r="F28" t="n">
-        <v>23975.98641963599</v>
+        <v>25185.53358194474</v>
       </c>
       <c r="G28" t="n">
-        <v>43917.43970917285</v>
+        <v>39531.85300461073</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>7148698</v>
+        <v>8541748</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>610763818</v>
+        <v>618868067</v>
       </c>
       <c r="E29" t="n">
-        <v>2365398155</v>
+        <v>2396784714</v>
       </c>
       <c r="F29" t="n">
-        <v>60449.73578741326</v>
+        <v>76814.93049738684</v>
       </c>
       <c r="G29" t="n">
-        <v>237223.4158561713</v>
+        <v>228782.4470335788</v>
       </c>
       <c r="H29" t="n">
         <v>0.08</v>
       </c>
       <c r="I29" t="n">
-        <v>33096925</v>
+        <v>33580035</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>122779665</v>
+        <v>125389023</v>
       </c>
       <c r="E30" t="n">
-        <v>471002557</v>
+        <v>481012476</v>
       </c>
       <c r="F30" t="n">
-        <v>145240.138238208</v>
+        <v>136019.3260530442</v>
       </c>
       <c r="G30" t="n">
-        <v>173294.9624971739</v>
+        <v>174538.3503010069</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>31758298</v>
+        <v>32034482</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>32043285</v>
+        <v>32560363</v>
       </c>
       <c r="F31" t="n">
-        <v>16579.14600418038</v>
+        <v>17633.55046320135</v>
       </c>
       <c r="G31" t="n">
-        <v>49928.06302237289</v>
+        <v>15795.13965682391</v>
       </c>
       <c r="H31" t="n">
         <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>5426371</v>
+        <v>5571446</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>88954221</v>
+        <v>89001938</v>
       </c>
       <c r="E32" t="n">
-        <v>328824403</v>
+        <v>328999525</v>
       </c>
       <c r="F32" t="n">
-        <v>10101.49723315732</v>
+        <v>9874.174373760827</v>
       </c>
       <c r="G32" t="n">
-        <v>977.9586210226165</v>
+        <v>885.0095090307499</v>
       </c>
       <c r="H32" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="I32" t="n">
-        <v>235787</v>
+        <v>231104</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>497085188</v>
+        <v>501151441</v>
       </c>
       <c r="E33" t="n">
-        <v>1730312169</v>
+        <v>1744466458</v>
       </c>
       <c r="F33" t="n">
-        <v>252328.8788609545</v>
+        <v>240323.8331568084</v>
       </c>
       <c r="G33" t="n">
-        <v>288552.1930179641</v>
+        <v>289363.8479816771</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I33" t="n">
-        <v>30666851</v>
+        <v>31705938</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>105150441</v>
+        <v>106973999</v>
       </c>
       <c r="E34" t="n">
-        <v>159315068</v>
+        <v>162077968</v>
       </c>
       <c r="F34" t="n">
-        <v>62502.46569326371</v>
+        <v>61114.28652881954</v>
       </c>
       <c r="G34" t="n">
-        <v>67435.58726943671</v>
+        <v>65868.1680893602</v>
       </c>
       <c r="H34" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I34" t="n">
-        <v>7613687</v>
+        <v>8103903</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2635114</v>
+        <v>2629834</v>
       </c>
       <c r="E35" t="n">
-        <v>10540455</v>
+        <v>10519336</v>
       </c>
       <c r="F35" t="n">
-        <v>57632.74226275112</v>
+        <v>89268.62831911587</v>
       </c>
       <c r="G35" t="n">
-        <v>78264.2175855013</v>
+        <v>62564.75212030096</v>
       </c>
       <c r="H35" t="n">
         <v>0.09</v>
       </c>
       <c r="I35" t="n">
-        <v>6857324</v>
+        <v>6885098</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>228465872</v>
+        <v>229315899</v>
       </c>
       <c r="E36" t="n">
-        <v>702446578</v>
+        <v>705060093</v>
       </c>
       <c r="F36" t="n">
-        <v>164924.2838465511</v>
+        <v>195684.0407686337</v>
       </c>
       <c r="G36" t="n">
-        <v>231807.0630249943</v>
+        <v>230114.6867775241</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>15302467</v>
+        <v>16149618</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>148172739</v>
+        <v>143426714</v>
       </c>
       <c r="E37" t="n">
-        <v>387097170</v>
+        <v>374698312</v>
       </c>
       <c r="F37" t="n">
-        <v>50911.40248288601</v>
+        <v>55140.31726767342</v>
       </c>
       <c r="G37" t="n">
-        <v>40758.09338923277</v>
+        <v>49666.31243881083</v>
       </c>
       <c r="H37" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="I37" t="n">
-        <v>7789863</v>
+        <v>8417094</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>404398007</v>
+        <v>405131613</v>
       </c>
       <c r="E38" t="n">
-        <v>2310845756</v>
+        <v>2315037789</v>
       </c>
       <c r="F38" t="n">
-        <v>42271.36292550844</v>
+        <v>41955.22018778812</v>
       </c>
       <c r="G38" t="n">
-        <v>82288.06924793396</v>
+        <v>79994.7216301954</v>
       </c>
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>39312883</v>
+        <v>39757351</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250221.xlsx
+++ b/OkxData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>248774205</v>
+        <v>254230078</v>
       </c>
       <c r="E2" t="n">
-        <v>1560028073</v>
+        <v>1594241087</v>
       </c>
       <c r="F2" t="n">
-        <v>181659.2240566578</v>
+        <v>173456.0779656551</v>
       </c>
       <c r="G2" t="n">
-        <v>226521.9435871485</v>
+        <v>197598.7056565965</v>
       </c>
       <c r="H2" t="n">
         <v>0.05</v>
       </c>
       <c r="I2" t="n">
-        <v>17488056</v>
+        <v>18460668</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>148177480</v>
+        <v>151276064</v>
       </c>
       <c r="E3" t="n">
-        <v>164203805</v>
+        <v>167637520</v>
       </c>
       <c r="F3" t="n">
-        <v>71001.82227376547</v>
+        <v>69871.58783412106</v>
       </c>
       <c r="G3" t="n">
-        <v>177777.4323496467</v>
+        <v>163495.0726951431</v>
       </c>
       <c r="H3" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>38028641</v>
+        <v>38847267</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>583686632</v>
+        <v>588094869</v>
       </c>
       <c r="E4" t="n">
-        <v>730105225</v>
+        <v>735619274</v>
       </c>
       <c r="F4" t="n">
-        <v>87218.59271180221</v>
+        <v>88117.92635974956</v>
       </c>
       <c r="G4" t="n">
-        <v>153005.3567815134</v>
+        <v>153773.4441989541</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I4" t="n">
-        <v>55664933</v>
+        <v>56461650</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141457637</v>
+        <v>144540599</v>
       </c>
       <c r="E5" t="n">
-        <v>141457637</v>
+        <v>144540599</v>
       </c>
       <c r="F5" t="n">
-        <v>68861.89309730721</v>
+        <v>63324.85232666317</v>
       </c>
       <c r="G5" t="n">
-        <v>88549.46277629001</v>
+        <v>102715.8123577703</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>69076921</v>
+        <v>72184290</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>261684200</v>
+        <v>269633252</v>
       </c>
       <c r="E6" t="n">
-        <v>261684200</v>
+        <v>269633252</v>
       </c>
       <c r="F6" t="n">
-        <v>68421.95943226443</v>
+        <v>70726.56586702181</v>
       </c>
       <c r="G6" t="n">
-        <v>106985.3771787669</v>
+        <v>116912.8055836209</v>
       </c>
       <c r="H6" t="n">
         <v>0.03</v>
       </c>
       <c r="I6" t="n">
-        <v>14712632</v>
+        <v>19008154</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>99820271</v>
+        <v>101072157</v>
       </c>
       <c r="E7" t="n">
-        <v>124464177</v>
+        <v>126025132</v>
       </c>
       <c r="F7" t="n">
-        <v>14277.89026260775</v>
+        <v>14321.48778694439</v>
       </c>
       <c r="G7" t="n">
-        <v>40034.46189974087</v>
+        <v>38292.49251639589</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>10127803</v>
+        <v>12408834</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>78584792</v>
+        <v>80956944</v>
       </c>
       <c r="E8" t="n">
-        <v>163889198</v>
+        <v>168836340</v>
       </c>
       <c r="F8" t="n">
-        <v>45209.61746409105</v>
+        <v>41468.84580097149</v>
       </c>
       <c r="G8" t="n">
-        <v>53367.01272532049</v>
+        <v>50316.56082344208</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>18657752</v>
+        <v>19554061</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>144917971</v>
+        <v>146188642</v>
       </c>
       <c r="E9" t="n">
-        <v>144966697</v>
+        <v>146237795</v>
       </c>
       <c r="F9" t="n">
-        <v>8429.300581985921</v>
+        <v>6856.541962653648</v>
       </c>
       <c r="G9" t="n">
-        <v>12628.81597977389</v>
+        <v>14582.9708854369</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I9" t="n">
-        <v>2601984</v>
+        <v>2608164</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>653137762</v>
+        <v>671654936</v>
       </c>
       <c r="E10" t="n">
-        <v>653137762</v>
+        <v>671654936</v>
       </c>
       <c r="F10" t="n">
-        <v>281156.2672056593</v>
+        <v>242691.6246556125</v>
       </c>
       <c r="G10" t="n">
-        <v>520055.0191837494</v>
+        <v>461511.6813949589</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>312326415</v>
+        <v>323986741</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71401984</v>
+        <v>71851407</v>
       </c>
       <c r="E11" t="n">
-        <v>81924682</v>
+        <v>82440337</v>
       </c>
       <c r="F11" t="n">
-        <v>3451.668912366913</v>
+        <v>4381.920603132459</v>
       </c>
       <c r="G11" t="n">
-        <v>8770.907675473358</v>
+        <v>15299.5847095458</v>
       </c>
       <c r="H11" t="n">
-        <v>0.19</v>
+        <v>0.45</v>
       </c>
       <c r="I11" t="n">
-        <v>1159764</v>
+        <v>1318856</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>272332396</v>
+        <v>279962246</v>
       </c>
       <c r="E12" t="n">
-        <v>1175537804</v>
+        <v>1208472472</v>
       </c>
       <c r="F12" t="n">
-        <v>379272.5885864933</v>
+        <v>358811.144291327</v>
       </c>
       <c r="G12" t="n">
-        <v>392767.2181048189</v>
+        <v>329770.4913095084</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I12" t="n">
-        <v>100209356</v>
+        <v>104676458</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>115347105</v>
+        <v>116981829</v>
       </c>
       <c r="E13" t="n">
-        <v>115347105</v>
+        <v>116981829</v>
       </c>
       <c r="F13" t="n">
-        <v>6336.329524874426</v>
+        <v>5047.294129479504</v>
       </c>
       <c r="G13" t="n">
-        <v>4619.475303254838</v>
+        <v>4090.667653446857</v>
       </c>
       <c r="H13" t="n">
-        <v>0.32</v>
+        <v>0.14</v>
       </c>
       <c r="I13" t="n">
-        <v>6135305</v>
+        <v>7450894</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19474332</v>
+        <v>19694803</v>
       </c>
       <c r="E14" t="n">
-        <v>48685830</v>
+        <v>49237007</v>
       </c>
       <c r="F14" t="n">
-        <v>8872.928574279464</v>
+        <v>8361.064284221726</v>
       </c>
       <c r="G14" t="n">
-        <v>10254.20520848167</v>
+        <v>8436.761706190749</v>
       </c>
       <c r="H14" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I14" t="n">
-        <v>2005724</v>
+        <v>2098601</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12448379</v>
+        <v>12567468</v>
       </c>
       <c r="E15" t="n">
-        <v>18305107</v>
+        <v>18480224</v>
       </c>
       <c r="F15" t="n">
-        <v>1030.558799337311</v>
+        <v>781.2019567132562</v>
       </c>
       <c r="G15" t="n">
-        <v>5820.590049470338</v>
+        <v>7235.430188020779</v>
       </c>
       <c r="H15" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>3253249</v>
+        <v>3379587</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31617236</v>
+        <v>31837357</v>
       </c>
       <c r="E16" t="n">
-        <v>98445927</v>
+        <v>99131315</v>
       </c>
       <c r="F16" t="n">
-        <v>13907.69643883578</v>
+        <v>13611.6376985052</v>
       </c>
       <c r="G16" t="n">
-        <v>31696.08948519897</v>
+        <v>20120.44052311043</v>
       </c>
       <c r="H16" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I16" t="n">
-        <v>10807348</v>
+        <v>10640954</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>346336344</v>
+        <v>349314093</v>
       </c>
       <c r="E17" t="n">
-        <v>3115856511</v>
+        <v>3142646185</v>
       </c>
       <c r="F17" t="n">
-        <v>6526.833065192791</v>
+        <v>6294.472802300692</v>
       </c>
       <c r="G17" t="n">
-        <v>7039.378590963875</v>
+        <v>6651.064663718426</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="I17" t="n">
-        <v>44160367</v>
+        <v>47297525</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15823974</v>
+        <v>15988592</v>
       </c>
       <c r="E18" t="n">
-        <v>96990341</v>
+        <v>97999340</v>
       </c>
       <c r="F18" t="n">
-        <v>41767.78425101908</v>
+        <v>39968.85621586528</v>
       </c>
       <c r="G18" t="n">
-        <v>38239.06603050781</v>
+        <v>39333.83560614316</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>10232674</v>
+        <v>10317048</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50394470</v>
+        <v>50842223</v>
       </c>
       <c r="E19" t="n">
-        <v>217093868</v>
+        <v>219022736</v>
       </c>
       <c r="F19" t="n">
-        <v>35699.88823640439</v>
+        <v>26458.22661489359</v>
       </c>
       <c r="G19" t="n">
-        <v>85146.69544923703</v>
+        <v>53427.59105310348</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I19" t="n">
-        <v>9878699</v>
+        <v>10013202</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>301957688</v>
+        <v>305544450</v>
       </c>
       <c r="E20" t="n">
-        <v>301957688</v>
+        <v>305544450</v>
       </c>
       <c r="F20" t="n">
-        <v>72751.91882967588</v>
+        <v>64181.94542310941</v>
       </c>
       <c r="G20" t="n">
-        <v>115512.4191640033</v>
+        <v>114900.9331924344</v>
       </c>
       <c r="H20" t="n">
         <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>80151878</v>
+        <v>81452919</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31049206</v>
+        <v>31475101</v>
       </c>
       <c r="E21" t="n">
-        <v>139020034</v>
+        <v>140926940</v>
       </c>
       <c r="F21" t="n">
-        <v>50861.79240820367</v>
+        <v>36712.03978622604</v>
       </c>
       <c r="G21" t="n">
-        <v>71949.7658249657</v>
+        <v>70428.86769193278</v>
       </c>
       <c r="H21" t="n">
         <v>0.14</v>
       </c>
       <c r="I21" t="n">
-        <v>8557940</v>
+        <v>8576747</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>51158695</v>
+        <v>52309397</v>
       </c>
       <c r="E22" t="n">
-        <v>331750524</v>
+        <v>339212516</v>
       </c>
       <c r="F22" t="n">
-        <v>6221.481665941805</v>
+        <v>9406.497091493544</v>
       </c>
       <c r="G22" t="n">
-        <v>7777.778350548692</v>
+        <v>2396.99630914942</v>
       </c>
       <c r="H22" t="n">
         <v>0.04</v>
       </c>
       <c r="I22" t="n">
-        <v>17002461</v>
+        <v>17381241</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125368446</v>
+        <v>125709071</v>
       </c>
       <c r="E23" t="n">
-        <v>2076204141</v>
+        <v>2081845169</v>
       </c>
       <c r="F23" t="n">
-        <v>349188.4916564628</v>
+        <v>336908.6182517669</v>
       </c>
       <c r="G23" t="n">
-        <v>348206.4423277481</v>
+        <v>333572.5676168255</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>4485337</v>
+        <v>4552160</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6643062</v>
+        <v>6720930</v>
       </c>
       <c r="E24" t="n">
-        <v>34176535</v>
+        <v>34577142</v>
       </c>
       <c r="F24" t="n">
-        <v>1991.1291374743</v>
+        <v>1465.805020938009</v>
       </c>
       <c r="G24" t="n">
-        <v>2478.517955824276</v>
+        <v>2505.767411296229</v>
       </c>
       <c r="H24" t="n">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="I24" t="n">
-        <v>912475</v>
+        <v>909939</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23100166</v>
+        <v>23371721</v>
       </c>
       <c r="E25" t="n">
-        <v>23100166</v>
+        <v>23371721</v>
       </c>
       <c r="F25" t="n">
-        <v>16711.00177790094</v>
+        <v>3611.254979551729</v>
       </c>
       <c r="G25" t="n">
-        <v>10155.00156029604</v>
+        <v>16035.23954227865</v>
       </c>
       <c r="H25" t="n">
-        <v>0.14</v>
+        <v>0.47</v>
       </c>
       <c r="I25" t="n">
-        <v>1957420</v>
+        <v>1998994</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>319861095</v>
+        <v>323931519</v>
       </c>
       <c r="E27" t="n">
-        <v>591815969</v>
+        <v>599347182</v>
       </c>
       <c r="F27" t="n">
-        <v>98146.91776463448</v>
+        <v>122347.9319841118</v>
       </c>
       <c r="G27" t="n">
-        <v>106686.3381342032</v>
+        <v>128112.3823320456</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>14123969</v>
+        <v>14286207</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>45209455</v>
+        <v>46054206</v>
       </c>
       <c r="E28" t="n">
-        <v>45209455</v>
+        <v>46054206</v>
       </c>
       <c r="F28" t="n">
-        <v>25185.53358194474</v>
+        <v>22149.93751342761</v>
       </c>
       <c r="G28" t="n">
-        <v>39531.85300461073</v>
+        <v>39319.09486535215</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>8541748</v>
+        <v>8505211</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>618868067</v>
+        <v>625414746</v>
       </c>
       <c r="E29" t="n">
-        <v>2396784714</v>
+        <v>2422139038</v>
       </c>
       <c r="F29" t="n">
-        <v>76814.93049738684</v>
+        <v>83160.17756285428</v>
       </c>
       <c r="G29" t="n">
-        <v>228782.4470335788</v>
+        <v>226560.9098371374</v>
       </c>
       <c r="H29" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>33580035</v>
+        <v>36008800</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>125389023</v>
+        <v>128311819</v>
       </c>
       <c r="E30" t="n">
-        <v>481012476</v>
+        <v>492224788</v>
       </c>
       <c r="F30" t="n">
-        <v>136019.3260530442</v>
+        <v>138926.1733177095</v>
       </c>
       <c r="G30" t="n">
-        <v>174538.3503010069</v>
+        <v>173673.9605548219</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>32034482</v>
+        <v>33738727</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>32560363</v>
+        <v>34852798</v>
       </c>
       <c r="F31" t="n">
-        <v>17633.55046320135</v>
+        <v>29600.79481188224</v>
       </c>
       <c r="G31" t="n">
-        <v>15795.13965682391</v>
+        <v>90527.512165546</v>
       </c>
       <c r="H31" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I31" t="n">
-        <v>5571446</v>
+        <v>5976134</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>89001938</v>
+        <v>89182590</v>
       </c>
       <c r="E32" t="n">
-        <v>328999525</v>
+        <v>329666806</v>
       </c>
       <c r="F32" t="n">
-        <v>9874.174373760827</v>
+        <v>10105.5870729568</v>
       </c>
       <c r="G32" t="n">
-        <v>885.0095090307499</v>
+        <v>1091.623408240645</v>
       </c>
       <c r="H32" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="I32" t="n">
-        <v>231104</v>
+        <v>234683</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>501151441</v>
+        <v>510452059</v>
       </c>
       <c r="E33" t="n">
-        <v>1744466458</v>
+        <v>1776841137</v>
       </c>
       <c r="F33" t="n">
-        <v>240323.8331568084</v>
+        <v>233452.9799696179</v>
       </c>
       <c r="G33" t="n">
-        <v>289363.8479816771</v>
+        <v>218273.6233873322</v>
       </c>
       <c r="H33" t="n">
         <v>0.11</v>
       </c>
       <c r="I33" t="n">
-        <v>31705938</v>
+        <v>33775939</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>106973999</v>
+        <v>111340544</v>
       </c>
       <c r="E34" t="n">
-        <v>162077968</v>
+        <v>168693789</v>
       </c>
       <c r="F34" t="n">
-        <v>61114.28652881954</v>
+        <v>62235.1271717438</v>
       </c>
       <c r="G34" t="n">
-        <v>65868.1680893602</v>
+        <v>62048.52581989043</v>
       </c>
       <c r="H34" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="I34" t="n">
-        <v>8103903</v>
+        <v>8443466</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2629834</v>
+        <v>2664050</v>
       </c>
       <c r="E35" t="n">
-        <v>10519336</v>
+        <v>10656201</v>
       </c>
       <c r="F35" t="n">
-        <v>89268.62831911587</v>
+        <v>88466.08368160756</v>
       </c>
       <c r="G35" t="n">
-        <v>62564.75212030096</v>
+        <v>30962.25112549516</v>
       </c>
       <c r="H35" t="n">
         <v>0.09</v>
       </c>
       <c r="I35" t="n">
-        <v>6885098</v>
+        <v>6992341</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>229315899</v>
+        <v>228964341</v>
       </c>
       <c r="E36" t="n">
-        <v>705060093</v>
+        <v>703979185</v>
       </c>
       <c r="F36" t="n">
-        <v>195684.0407686337</v>
+        <v>165017.8469967281</v>
       </c>
       <c r="G36" t="n">
-        <v>230114.6867775241</v>
+        <v>210568.5547985425</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="I36" t="n">
-        <v>16149618</v>
+        <v>16439033</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>143426714</v>
+        <v>147097952</v>
       </c>
       <c r="E37" t="n">
-        <v>374698312</v>
+        <v>384289320</v>
       </c>
       <c r="F37" t="n">
-        <v>55140.31726767342</v>
+        <v>28931.85286821572</v>
       </c>
       <c r="G37" t="n">
-        <v>49666.31243881083</v>
+        <v>20918.36013515855</v>
       </c>
       <c r="H37" t="n">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="I37" t="n">
-        <v>8417094</v>
+        <v>8561302</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>405131613</v>
+        <v>414525681</v>
       </c>
       <c r="E38" t="n">
-        <v>2315037789</v>
+        <v>2368718176</v>
       </c>
       <c r="F38" t="n">
-        <v>41955.22018778812</v>
+        <v>29601.3213994078</v>
       </c>
       <c r="G38" t="n">
-        <v>79994.7216301954</v>
+        <v>74058.11045260221</v>
       </c>
       <c r="H38" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I38" t="n">
-        <v>39757351</v>
+        <v>41590884</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250221.xlsx
+++ b/OkxData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>254230078</v>
+        <v>252126128</v>
       </c>
       <c r="E2" t="n">
-        <v>1594241087</v>
+        <v>1581047509</v>
       </c>
       <c r="F2" t="n">
-        <v>173456.0779656551</v>
+        <v>189670.2854718164</v>
       </c>
       <c r="G2" t="n">
-        <v>197598.7056565965</v>
+        <v>216625.4904181205</v>
       </c>
       <c r="H2" t="n">
         <v>0.05</v>
       </c>
       <c r="I2" t="n">
-        <v>18460668</v>
+        <v>17460998</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>151276064</v>
+        <v>150551863</v>
       </c>
       <c r="E3" t="n">
-        <v>167637520</v>
+        <v>166834993</v>
       </c>
       <c r="F3" t="n">
-        <v>69871.58783412106</v>
+        <v>69990.18070681105</v>
       </c>
       <c r="G3" t="n">
-        <v>163495.0726951431</v>
+        <v>182720.111662895</v>
       </c>
       <c r="H3" t="n">
         <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>38847267</v>
+        <v>39284744</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>588094869</v>
+        <v>591964510</v>
       </c>
       <c r="E4" t="n">
-        <v>735619274</v>
+        <v>740459620</v>
       </c>
       <c r="F4" t="n">
-        <v>88117.92635974956</v>
+        <v>106757.8357808125</v>
       </c>
       <c r="G4" t="n">
-        <v>153773.4441989541</v>
+        <v>153374.6838207796</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>56461650</v>
+        <v>56487895</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>144540599</v>
+        <v>144588490</v>
       </c>
       <c r="E5" t="n">
-        <v>144540599</v>
+        <v>144588490</v>
       </c>
       <c r="F5" t="n">
-        <v>63324.85232666317</v>
+        <v>81566.98672263107</v>
       </c>
       <c r="G5" t="n">
-        <v>102715.8123577703</v>
+        <v>106777.5933563872</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>72184290</v>
+        <v>72436255</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>269633252</v>
+        <v>267159036</v>
       </c>
       <c r="E6" t="n">
-        <v>269633252</v>
+        <v>267159036</v>
       </c>
       <c r="F6" t="n">
-        <v>70726.56586702181</v>
+        <v>75023.84519498087</v>
       </c>
       <c r="G6" t="n">
-        <v>116912.8055836209</v>
+        <v>110424.3061758282</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>19008154</v>
+        <v>15479461</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>101072157</v>
+        <v>101441782</v>
       </c>
       <c r="E7" t="n">
-        <v>126025132</v>
+        <v>126486011</v>
       </c>
       <c r="F7" t="n">
-        <v>14321.48778694439</v>
+        <v>11130.14430583515</v>
       </c>
       <c r="G7" t="n">
-        <v>38292.49251639589</v>
+        <v>46365.04265921344</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>12408834</v>
+        <v>10344629</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>80956944</v>
+        <v>80428043</v>
       </c>
       <c r="E8" t="n">
-        <v>168836340</v>
+        <v>167733314</v>
       </c>
       <c r="F8" t="n">
-        <v>41468.84580097149</v>
+        <v>44466.91776737554</v>
       </c>
       <c r="G8" t="n">
-        <v>50316.56082344208</v>
+        <v>47495.47183339312</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I8" t="n">
-        <v>19554061</v>
+        <v>19909420</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>146188642</v>
+        <v>146445434</v>
       </c>
       <c r="E9" t="n">
-        <v>146237795</v>
+        <v>146494674</v>
       </c>
       <c r="F9" t="n">
-        <v>6856.541962653648</v>
+        <v>7529.978666799396</v>
       </c>
       <c r="G9" t="n">
-        <v>14582.9708854369</v>
+        <v>13721.78506946231</v>
       </c>
       <c r="H9" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I9" t="n">
-        <v>2608164</v>
+        <v>2619044</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>671654936</v>
+        <v>678275497</v>
       </c>
       <c r="E10" t="n">
-        <v>671654936</v>
+        <v>678275497</v>
       </c>
       <c r="F10" t="n">
-        <v>242691.6246556125</v>
+        <v>314564.5738992965</v>
       </c>
       <c r="G10" t="n">
-        <v>461511.6813949589</v>
+        <v>545478.7881773879</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>323986741</v>
+        <v>333862059</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71851407</v>
+        <v>71528979</v>
       </c>
       <c r="E11" t="n">
-        <v>82440337</v>
+        <v>82070392</v>
       </c>
       <c r="F11" t="n">
-        <v>4381.920603132459</v>
+        <v>12459.34533922686</v>
       </c>
       <c r="G11" t="n">
-        <v>15299.5847095458</v>
+        <v>6187.156468239424</v>
       </c>
       <c r="H11" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="I11" t="n">
-        <v>1318856</v>
+        <v>1308552</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>279962246</v>
+        <v>277722690</v>
       </c>
       <c r="E12" t="n">
-        <v>1208472472</v>
+        <v>1198805307</v>
       </c>
       <c r="F12" t="n">
-        <v>358811.144291327</v>
+        <v>397750.1082284025</v>
       </c>
       <c r="G12" t="n">
-        <v>329770.4913095084</v>
+        <v>383520.8150167716</v>
       </c>
       <c r="H12" t="n">
         <v>0.08</v>
       </c>
       <c r="I12" t="n">
-        <v>104676458</v>
+        <v>107107292</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>116981829</v>
+        <v>116594913</v>
       </c>
       <c r="E13" t="n">
-        <v>116981829</v>
+        <v>116594913</v>
       </c>
       <c r="F13" t="n">
-        <v>5047.294129479504</v>
+        <v>6239.426477932761</v>
       </c>
       <c r="G13" t="n">
-        <v>4090.667653446857</v>
+        <v>3785.762786978244</v>
       </c>
       <c r="H13" t="n">
-        <v>0.14</v>
+        <v>0.54</v>
       </c>
       <c r="I13" t="n">
-        <v>7450894</v>
+        <v>5461647</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19694803</v>
+        <v>19750544</v>
       </c>
       <c r="E14" t="n">
-        <v>49237007</v>
+        <v>49376361</v>
       </c>
       <c r="F14" t="n">
-        <v>8361.064284221726</v>
+        <v>10641.54113454367</v>
       </c>
       <c r="G14" t="n">
-        <v>8436.761706190749</v>
+        <v>10348.00884970511</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I14" t="n">
-        <v>2098601</v>
+        <v>1990460</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12567468</v>
+        <v>12537925</v>
       </c>
       <c r="E15" t="n">
-        <v>18480224</v>
+        <v>18436782</v>
       </c>
       <c r="F15" t="n">
-        <v>781.2019567132562</v>
+        <v>614.708518685483</v>
       </c>
       <c r="G15" t="n">
-        <v>7235.430188020779</v>
+        <v>5169.531980539415</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.22</v>
       </c>
       <c r="I15" t="n">
-        <v>3379587</v>
+        <v>3369752</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31837357</v>
+        <v>31680083</v>
       </c>
       <c r="E16" t="n">
-        <v>99131315</v>
+        <v>98641614</v>
       </c>
       <c r="F16" t="n">
-        <v>13611.6376985052</v>
+        <v>10188.26431133776</v>
       </c>
       <c r="G16" t="n">
-        <v>20120.44052311043</v>
+        <v>25313.45265629773</v>
       </c>
       <c r="H16" t="n">
         <v>0.06</v>
       </c>
       <c r="I16" t="n">
-        <v>10640954</v>
+        <v>10644165</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>349314093</v>
+        <v>348708300</v>
       </c>
       <c r="E17" t="n">
-        <v>3142646185</v>
+        <v>3137196093</v>
       </c>
       <c r="F17" t="n">
-        <v>6294.472802300692</v>
+        <v>6784.008857476145</v>
       </c>
       <c r="G17" t="n">
-        <v>6651.064663718426</v>
+        <v>6634.240331990774</v>
       </c>
       <c r="H17" t="n">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>47297525</v>
+        <v>45938474</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15988592</v>
+        <v>15934746</v>
       </c>
       <c r="E18" t="n">
-        <v>97999340</v>
+        <v>97669300</v>
       </c>
       <c r="F18" t="n">
-        <v>39968.85621586528</v>
+        <v>46839.01261644444</v>
       </c>
       <c r="G18" t="n">
-        <v>39333.83560614316</v>
+        <v>34493.38869138306</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I18" t="n">
-        <v>10317048</v>
+        <v>10431160</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50842223</v>
+        <v>49654851</v>
       </c>
       <c r="E19" t="n">
-        <v>219022736</v>
+        <v>213907671</v>
       </c>
       <c r="F19" t="n">
-        <v>26458.22661489359</v>
+        <v>43935.76834700548</v>
       </c>
       <c r="G19" t="n">
-        <v>53427.59105310348</v>
+        <v>79521.92626376412</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I19" t="n">
-        <v>10013202</v>
+        <v>9771463</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>305544450</v>
+        <v>307129206</v>
       </c>
       <c r="E20" t="n">
-        <v>305544450</v>
+        <v>307129206</v>
       </c>
       <c r="F20" t="n">
-        <v>64181.94542310941</v>
+        <v>73382.22758979976</v>
       </c>
       <c r="G20" t="n">
-        <v>114900.9331924344</v>
+        <v>116857.4746426413</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>81452919</v>
+        <v>82050375</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31475101</v>
+        <v>31338363</v>
       </c>
       <c r="E21" t="n">
-        <v>140926940</v>
+        <v>140314708</v>
       </c>
       <c r="F21" t="n">
-        <v>36712.03978622604</v>
+        <v>43353.43734605186</v>
       </c>
       <c r="G21" t="n">
-        <v>70428.86769193278</v>
+        <v>69438.25982686717</v>
       </c>
       <c r="H21" t="n">
         <v>0.14</v>
       </c>
       <c r="I21" t="n">
-        <v>8576747</v>
+        <v>8670690</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>52309397</v>
+        <v>52389065</v>
       </c>
       <c r="E22" t="n">
-        <v>339212516</v>
+        <v>339729144</v>
       </c>
       <c r="F22" t="n">
-        <v>9406.497091493544</v>
+        <v>10680.78857798706</v>
       </c>
       <c r="G22" t="n">
-        <v>2396.99630914942</v>
+        <v>6209.544396656021</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>17381241</v>
+        <v>17655091</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125709071</v>
+        <v>125191084</v>
       </c>
       <c r="E23" t="n">
-        <v>2081845169</v>
+        <v>2073266878</v>
       </c>
       <c r="F23" t="n">
-        <v>336908.6182517669</v>
+        <v>350261.8482800452</v>
       </c>
       <c r="G23" t="n">
-        <v>333572.5676168255</v>
+        <v>332943.713405624</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>4552160</v>
+        <v>4559363</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6720930</v>
+        <v>6708516</v>
       </c>
       <c r="E24" t="n">
-        <v>34577142</v>
+        <v>34513274</v>
       </c>
       <c r="F24" t="n">
-        <v>1465.805020938009</v>
+        <v>2937.738477491981</v>
       </c>
       <c r="G24" t="n">
-        <v>2505.767411296229</v>
+        <v>3719.883141540422</v>
       </c>
       <c r="H24" t="n">
-        <v>0.46</v>
+        <v>0.37</v>
       </c>
       <c r="I24" t="n">
-        <v>909939</v>
+        <v>908751</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23371721</v>
+        <v>23174125</v>
       </c>
       <c r="E25" t="n">
-        <v>23371721</v>
+        <v>23174125</v>
       </c>
       <c r="F25" t="n">
-        <v>3611.254979551729</v>
+        <v>5132.029522257159</v>
       </c>
       <c r="G25" t="n">
-        <v>16035.23954227865</v>
+        <v>13209.2202007525</v>
       </c>
       <c r="H25" t="n">
-        <v>0.47</v>
+        <v>0.14</v>
       </c>
       <c r="I25" t="n">
-        <v>1998994</v>
+        <v>2007082</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>323931519</v>
+        <v>323442725</v>
       </c>
       <c r="E27" t="n">
-        <v>599347182</v>
+        <v>598442802</v>
       </c>
       <c r="F27" t="n">
-        <v>122347.9319841118</v>
+        <v>123879.7918755412</v>
       </c>
       <c r="G27" t="n">
-        <v>128112.3823320456</v>
+        <v>129280.9101934994</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I27" t="n">
-        <v>14286207</v>
+        <v>14146750</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>46054206</v>
+        <v>45718087</v>
       </c>
       <c r="E28" t="n">
-        <v>46054206</v>
+        <v>45718087</v>
       </c>
       <c r="F28" t="n">
-        <v>22149.93751342761</v>
+        <v>27107.75174107593</v>
       </c>
       <c r="G28" t="n">
-        <v>39319.09486535215</v>
+        <v>39362.25092674373</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>8505211</v>
+        <v>8708313</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>625414746</v>
+        <v>629480244</v>
       </c>
       <c r="E29" t="n">
-        <v>2422139038</v>
+        <v>2437884113</v>
       </c>
       <c r="F29" t="n">
-        <v>83160.17756285428</v>
+        <v>85010.13948682569</v>
       </c>
       <c r="G29" t="n">
-        <v>226560.9098371374</v>
+        <v>241027.5094688298</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I29" t="n">
-        <v>36008800</v>
+        <v>37198894</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>128311819</v>
+        <v>128309169</v>
       </c>
       <c r="E30" t="n">
-        <v>492224788</v>
+        <v>492214626</v>
       </c>
       <c r="F30" t="n">
-        <v>138926.1733177095</v>
+        <v>153729.3198531381</v>
       </c>
       <c r="G30" t="n">
-        <v>173673.9605548219</v>
+        <v>179095.5603219107</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I30" t="n">
-        <v>33738727</v>
+        <v>33875251</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>34852798</v>
+        <v>34701318</v>
       </c>
       <c r="F31" t="n">
-        <v>29600.79481188224</v>
+        <v>13771.18647093211</v>
       </c>
       <c r="G31" t="n">
-        <v>90527.512165546</v>
+        <v>112701.3278511223</v>
       </c>
       <c r="H31" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I31" t="n">
-        <v>5976134</v>
+        <v>6004762</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>89182590</v>
+        <v>88986703</v>
       </c>
       <c r="E32" t="n">
-        <v>329666806</v>
+        <v>328942702</v>
       </c>
       <c r="F32" t="n">
-        <v>10105.5870729568</v>
+        <v>10163.46863960041</v>
       </c>
       <c r="G32" t="n">
-        <v>1091.623408240645</v>
+        <v>910.4441257366038</v>
       </c>
       <c r="H32" t="n">
-        <v>0.29</v>
+        <v>0.18</v>
       </c>
       <c r="I32" t="n">
-        <v>234683</v>
+        <v>225966</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>510452059</v>
+        <v>510337594</v>
       </c>
       <c r="E33" t="n">
-        <v>1776841137</v>
+        <v>1776442692</v>
       </c>
       <c r="F33" t="n">
-        <v>233452.9799696179</v>
+        <v>257014.3401720053</v>
       </c>
       <c r="G33" t="n">
-        <v>218273.6233873322</v>
+        <v>286828.4747626024</v>
       </c>
       <c r="H33" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>33775939</v>
+        <v>33276453</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>111340544</v>
+        <v>110731357</v>
       </c>
       <c r="E34" t="n">
-        <v>168693789</v>
+        <v>167770800</v>
       </c>
       <c r="F34" t="n">
-        <v>62235.1271717438</v>
+        <v>69995.42233376439</v>
       </c>
       <c r="G34" t="n">
-        <v>62048.52581989043</v>
+        <v>66660.63716522175</v>
       </c>
       <c r="H34" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="I34" t="n">
-        <v>8443466</v>
+        <v>8527280</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2664050</v>
+        <v>2624129</v>
       </c>
       <c r="E35" t="n">
-        <v>10656201</v>
+        <v>10496515</v>
       </c>
       <c r="F35" t="n">
-        <v>88466.08368160756</v>
+        <v>84141.94649645725</v>
       </c>
       <c r="G35" t="n">
-        <v>30962.25112549516</v>
+        <v>29191.21941825991</v>
       </c>
       <c r="H35" t="n">
         <v>0.09</v>
       </c>
       <c r="I35" t="n">
-        <v>6992341</v>
+        <v>7003312</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>228964341</v>
+        <v>227814214</v>
       </c>
       <c r="E36" t="n">
-        <v>703979185</v>
+        <v>700442976</v>
       </c>
       <c r="F36" t="n">
-        <v>165017.8469967281</v>
+        <v>167452.7284278254</v>
       </c>
       <c r="G36" t="n">
-        <v>210568.5547985425</v>
+        <v>229532.677961566</v>
       </c>
       <c r="H36" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>16439033</v>
+        <v>16552331</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>147097952</v>
+        <v>147480953</v>
       </c>
       <c r="E37" t="n">
-        <v>384289320</v>
+        <v>385289899</v>
       </c>
       <c r="F37" t="n">
-        <v>28931.85286821572</v>
+        <v>51437.15558589953</v>
       </c>
       <c r="G37" t="n">
-        <v>20918.36013515855</v>
+        <v>51598.69615495666</v>
       </c>
       <c r="H37" t="n">
-        <v>0.28</v>
+        <v>0.16</v>
       </c>
       <c r="I37" t="n">
-        <v>8561302</v>
+        <v>8373456</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>414525681</v>
+        <v>411654705</v>
       </c>
       <c r="E38" t="n">
-        <v>2368718176</v>
+        <v>2352312600</v>
       </c>
       <c r="F38" t="n">
-        <v>29601.3213994078</v>
+        <v>45680.81615212056</v>
       </c>
       <c r="G38" t="n">
-        <v>74058.11045260221</v>
+        <v>82799.80573662693</v>
       </c>
       <c r="H38" t="n">
         <v>0.18</v>
       </c>
       <c r="I38" t="n">
-        <v>41590884</v>
+        <v>41603991</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250221.xlsx
+++ b/OkxData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>252126128</v>
+        <v>254146917</v>
       </c>
       <c r="E2" t="n">
-        <v>1581047509</v>
+        <v>1593719593</v>
       </c>
       <c r="F2" t="n">
-        <v>189670.2854718164</v>
+        <v>179265.1156261414</v>
       </c>
       <c r="G2" t="n">
-        <v>216625.4904181205</v>
+        <v>216754.5827423215</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I2" t="n">
-        <v>17460998</v>
+        <v>17685839</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>150551863</v>
+        <v>152414633</v>
       </c>
       <c r="E3" t="n">
-        <v>166834993</v>
+        <v>168899233</v>
       </c>
       <c r="F3" t="n">
-        <v>69990.18070681105</v>
+        <v>71000.10881880441</v>
       </c>
       <c r="G3" t="n">
-        <v>182720.111662895</v>
+        <v>193012.7802787739</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>39284744</v>
+        <v>40663318</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>591964510</v>
+        <v>593748399</v>
       </c>
       <c r="E4" t="n">
-        <v>740459620</v>
+        <v>742691000</v>
       </c>
       <c r="F4" t="n">
-        <v>106757.8357808125</v>
+        <v>129130.8238770147</v>
       </c>
       <c r="G4" t="n">
-        <v>153374.6838207796</v>
+        <v>183274.5213692204</v>
       </c>
       <c r="H4" t="n">
         <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>56487895</v>
+        <v>57181629</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>144588490</v>
+        <v>145858297</v>
       </c>
       <c r="E5" t="n">
-        <v>144588490</v>
+        <v>145858297</v>
       </c>
       <c r="F5" t="n">
-        <v>81566.98672263107</v>
+        <v>68059.15514467595</v>
       </c>
       <c r="G5" t="n">
-        <v>106777.5933563872</v>
+        <v>128466.2345170963</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>72436255</v>
+        <v>73454522</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>267159036</v>
+        <v>268444240</v>
       </c>
       <c r="E6" t="n">
-        <v>267159036</v>
+        <v>268444240</v>
       </c>
       <c r="F6" t="n">
-        <v>75023.84519498087</v>
+        <v>65241.91941825913</v>
       </c>
       <c r="G6" t="n">
-        <v>110424.3061758282</v>
+        <v>119593.1203482972</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>15479461</v>
+        <v>15622906</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>101441782</v>
+        <v>101509182</v>
       </c>
       <c r="E7" t="n">
-        <v>126486011</v>
+        <v>126570051</v>
       </c>
       <c r="F7" t="n">
-        <v>11130.14430583515</v>
+        <v>13298.27174465747</v>
       </c>
       <c r="G7" t="n">
-        <v>46365.04265921344</v>
+        <v>52575.33103439974</v>
       </c>
       <c r="H7" t="n">
         <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>10344629</v>
+        <v>10422449</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>80428043</v>
+        <v>80343565</v>
       </c>
       <c r="E8" t="n">
-        <v>167733314</v>
+        <v>167557134</v>
       </c>
       <c r="F8" t="n">
-        <v>44466.91776737554</v>
+        <v>45810.35048881843</v>
       </c>
       <c r="G8" t="n">
-        <v>47495.47183339312</v>
+        <v>49614.83785483574</v>
       </c>
       <c r="H8" t="n">
         <v>0.09</v>
       </c>
       <c r="I8" t="n">
-        <v>19909420</v>
+        <v>20375997</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>146445434</v>
+        <v>146847177</v>
       </c>
       <c r="E9" t="n">
-        <v>146494674</v>
+        <v>146900927</v>
       </c>
       <c r="F9" t="n">
-        <v>7529.978666799396</v>
+        <v>9348.150924835694</v>
       </c>
       <c r="G9" t="n">
-        <v>13721.78506946231</v>
+        <v>15696.21532487324</v>
       </c>
       <c r="H9" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I9" t="n">
-        <v>2619044</v>
+        <v>2684151</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>678275497</v>
+        <v>682533499</v>
       </c>
       <c r="E10" t="n">
-        <v>678275497</v>
+        <v>682533499</v>
       </c>
       <c r="F10" t="n">
-        <v>314564.5738992965</v>
+        <v>419327.6350182999</v>
       </c>
       <c r="G10" t="n">
-        <v>545478.7881773879</v>
+        <v>496813.5628963845</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>333862059</v>
+        <v>346493252</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71528979</v>
+        <v>71784619</v>
       </c>
       <c r="E11" t="n">
-        <v>82070392</v>
+        <v>82363707</v>
       </c>
       <c r="F11" t="n">
-        <v>12459.34533922686</v>
+        <v>13094.76978985942</v>
       </c>
       <c r="G11" t="n">
-        <v>6187.156468239424</v>
+        <v>3959.753561647874</v>
       </c>
       <c r="H11" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="I11" t="n">
-        <v>1308552</v>
+        <v>1319750</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>277722690</v>
+        <v>280941785</v>
       </c>
       <c r="E12" t="n">
-        <v>1198805307</v>
+        <v>1212700707</v>
       </c>
       <c r="F12" t="n">
-        <v>397750.1082284025</v>
+        <v>376690.8019902966</v>
       </c>
       <c r="G12" t="n">
-        <v>383520.8150167716</v>
+        <v>369077.5090222546</v>
       </c>
       <c r="H12" t="n">
         <v>0.08</v>
       </c>
       <c r="I12" t="n">
-        <v>107107292</v>
+        <v>108528154</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>116594913</v>
+        <v>117323984</v>
       </c>
       <c r="E13" t="n">
-        <v>116594913</v>
+        <v>117323984</v>
       </c>
       <c r="F13" t="n">
-        <v>6239.426477932761</v>
+        <v>5776.154672789274</v>
       </c>
       <c r="G13" t="n">
-        <v>3785.762786978244</v>
+        <v>4012.133888392216</v>
       </c>
       <c r="H13" t="n">
-        <v>0.54</v>
+        <v>0.42</v>
       </c>
       <c r="I13" t="n">
-        <v>5461647</v>
+        <v>6415728</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19750544</v>
+        <v>19943619</v>
       </c>
       <c r="E14" t="n">
-        <v>49376361</v>
+        <v>49859047</v>
       </c>
       <c r="F14" t="n">
-        <v>10641.54113454367</v>
+        <v>5014.703177042481</v>
       </c>
       <c r="G14" t="n">
-        <v>10348.00884970511</v>
+        <v>16925.19788714766</v>
       </c>
       <c r="H14" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I14" t="n">
-        <v>1990460</v>
+        <v>2180290</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12537925</v>
+        <v>12553717</v>
       </c>
       <c r="E15" t="n">
-        <v>18436782</v>
+        <v>18460004</v>
       </c>
       <c r="F15" t="n">
-        <v>614.708518685483</v>
+        <v>759.9684459164235</v>
       </c>
       <c r="G15" t="n">
-        <v>5169.531980539415</v>
+        <v>6459.731768336671</v>
       </c>
       <c r="H15" t="n">
         <v>0.22</v>
       </c>
       <c r="I15" t="n">
-        <v>3369752</v>
+        <v>2570319</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31680083</v>
+        <v>31756361</v>
       </c>
       <c r="E16" t="n">
-        <v>98641614</v>
+        <v>98879118</v>
       </c>
       <c r="F16" t="n">
-        <v>10188.26431133776</v>
+        <v>11985.09693085575</v>
       </c>
       <c r="G16" t="n">
-        <v>25313.45265629773</v>
+        <v>31590.28430693788</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I16" t="n">
-        <v>10644165</v>
+        <v>10389277</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>348708300</v>
+        <v>350870517</v>
       </c>
       <c r="E17" t="n">
-        <v>3137196093</v>
+        <v>3156648740</v>
       </c>
       <c r="F17" t="n">
-        <v>6784.008857476145</v>
+        <v>6549.644279701933</v>
       </c>
       <c r="G17" t="n">
-        <v>6634.240331990774</v>
+        <v>7148.07287846211</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I17" t="n">
-        <v>45938474</v>
+        <v>47954444</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15934746</v>
+        <v>15974845</v>
       </c>
       <c r="E18" t="n">
-        <v>97669300</v>
+        <v>97915078</v>
       </c>
       <c r="F18" t="n">
-        <v>46839.01261644444</v>
+        <v>43465.17054878708</v>
       </c>
       <c r="G18" t="n">
-        <v>34493.38869138306</v>
+        <v>35144.02020141865</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I18" t="n">
-        <v>10431160</v>
+        <v>10921602</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>49654851</v>
+        <v>50266076</v>
       </c>
       <c r="E19" t="n">
-        <v>213907671</v>
+        <v>216540761</v>
       </c>
       <c r="F19" t="n">
-        <v>43935.76834700548</v>
+        <v>33694.32357122972</v>
       </c>
       <c r="G19" t="n">
-        <v>79521.92626376412</v>
+        <v>55723.65613008424</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>9771463</v>
+        <v>10042915</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>307129206</v>
+        <v>305113203</v>
       </c>
       <c r="E20" t="n">
-        <v>307129206</v>
+        <v>305113203</v>
       </c>
       <c r="F20" t="n">
-        <v>73382.22758979976</v>
+        <v>99263.389270049</v>
       </c>
       <c r="G20" t="n">
-        <v>116857.4746426413</v>
+        <v>125633.5674406271</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>82050375</v>
+        <v>78153552</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31338363</v>
+        <v>31776649</v>
       </c>
       <c r="E21" t="n">
-        <v>140314708</v>
+        <v>142277092</v>
       </c>
       <c r="F21" t="n">
-        <v>43353.43734605186</v>
+        <v>28168.9575369443</v>
       </c>
       <c r="G21" t="n">
-        <v>69438.25982686717</v>
+        <v>70824.2120195563</v>
       </c>
       <c r="H21" t="n">
         <v>0.14</v>
       </c>
       <c r="I21" t="n">
-        <v>8670690</v>
+        <v>7929953</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>52389065</v>
+        <v>52343162</v>
       </c>
       <c r="E22" t="n">
-        <v>339729144</v>
+        <v>339431477</v>
       </c>
       <c r="F22" t="n">
-        <v>10680.78857798706</v>
+        <v>9543.961886253654</v>
       </c>
       <c r="G22" t="n">
-        <v>6209.544396656021</v>
+        <v>3466.085579858849</v>
       </c>
       <c r="H22" t="n">
         <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>17655091</v>
+        <v>17689114</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125191084</v>
+        <v>124962552</v>
       </c>
       <c r="E23" t="n">
-        <v>2073266878</v>
+        <v>2069482213</v>
       </c>
       <c r="F23" t="n">
-        <v>350261.8482800452</v>
+        <v>375061.0851087976</v>
       </c>
       <c r="G23" t="n">
-        <v>332943.713405624</v>
+        <v>344105.203018265</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>4559363</v>
+        <v>4686578</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6708516</v>
+        <v>6759810</v>
       </c>
       <c r="E24" t="n">
-        <v>34513274</v>
+        <v>34777170</v>
       </c>
       <c r="F24" t="n">
-        <v>2937.738477491981</v>
+        <v>2388.074751559303</v>
       </c>
       <c r="G24" t="n">
-        <v>3719.883141540422</v>
+        <v>2103.906293335674</v>
       </c>
       <c r="H24" t="n">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="I24" t="n">
-        <v>908751</v>
+        <v>918936</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23174125</v>
+        <v>23676683</v>
       </c>
       <c r="E25" t="n">
-        <v>23174125</v>
+        <v>23676683</v>
       </c>
       <c r="F25" t="n">
-        <v>5132.029522257159</v>
+        <v>16415.88799542188</v>
       </c>
       <c r="G25" t="n">
-        <v>13209.2202007525</v>
+        <v>8591.769088948538</v>
       </c>
       <c r="H25" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I25" t="n">
-        <v>2007082</v>
+        <v>2055780</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>323442725</v>
+        <v>327146361</v>
       </c>
       <c r="E27" t="n">
-        <v>598442802</v>
+        <v>605295373</v>
       </c>
       <c r="F27" t="n">
-        <v>123879.7918755412</v>
+        <v>132504.8702462162</v>
       </c>
       <c r="G27" t="n">
-        <v>129280.9101934994</v>
+        <v>138695.5027272355</v>
       </c>
       <c r="H27" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>14146750</v>
+        <v>14461567</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>45718087</v>
+        <v>46199909</v>
       </c>
       <c r="E28" t="n">
-        <v>45718087</v>
+        <v>46199909</v>
       </c>
       <c r="F28" t="n">
-        <v>27107.75174107593</v>
+        <v>25513.72182938534</v>
       </c>
       <c r="G28" t="n">
-        <v>39362.25092674373</v>
+        <v>41873.68129594885</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>8708313</v>
+        <v>7653257</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>629480244</v>
+        <v>631787078</v>
       </c>
       <c r="E29" t="n">
-        <v>2437884113</v>
+        <v>2446818138</v>
       </c>
       <c r="F29" t="n">
-        <v>85010.13948682569</v>
+        <v>68977.13332444089</v>
       </c>
       <c r="G29" t="n">
-        <v>241027.5094688298</v>
+        <v>237715.9710748651</v>
       </c>
       <c r="H29" t="n">
         <v>0.08</v>
       </c>
       <c r="I29" t="n">
-        <v>37198894</v>
+        <v>38839924</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>128309169</v>
+        <v>129751867</v>
       </c>
       <c r="E30" t="n">
-        <v>492214626</v>
+        <v>497749044</v>
       </c>
       <c r="F30" t="n">
-        <v>153729.3198531381</v>
+        <v>149424.7781933149</v>
       </c>
       <c r="G30" t="n">
-        <v>179095.5603219107</v>
+        <v>183172.9954969472</v>
       </c>
       <c r="H30" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I30" t="n">
-        <v>33875251</v>
+        <v>35637848</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>34701318</v>
+        <v>33555327</v>
       </c>
       <c r="F31" t="n">
-        <v>13771.18647093211</v>
+        <v>12555.25347506868</v>
       </c>
       <c r="G31" t="n">
-        <v>112701.3278511223</v>
+        <v>59716.16173785501</v>
       </c>
       <c r="H31" t="n">
         <v>0.06</v>
       </c>
       <c r="I31" t="n">
-        <v>6004762</v>
+        <v>5454073</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>88986703</v>
+        <v>88920157</v>
       </c>
       <c r="E32" t="n">
-        <v>328942702</v>
+        <v>328694453</v>
       </c>
       <c r="F32" t="n">
-        <v>10163.46863960041</v>
+        <v>10222.34732276456</v>
       </c>
       <c r="G32" t="n">
-        <v>910.4441257366038</v>
+        <v>1034.88922182377</v>
       </c>
       <c r="H32" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="I32" t="n">
-        <v>225966</v>
+        <v>223705</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>510337594</v>
+        <v>513619294</v>
       </c>
       <c r="E33" t="n">
-        <v>1776442692</v>
+        <v>1787866017</v>
       </c>
       <c r="F33" t="n">
-        <v>257014.3401720053</v>
+        <v>240475.1033894696</v>
       </c>
       <c r="G33" t="n">
-        <v>286828.4747626024</v>
+        <v>305990.1554596948</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I33" t="n">
-        <v>33276453</v>
+        <v>35017346</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>110731357</v>
+        <v>109077551</v>
       </c>
       <c r="E34" t="n">
-        <v>167770800</v>
+        <v>165265093</v>
       </c>
       <c r="F34" t="n">
-        <v>69995.42233376439</v>
+        <v>62078.28091828018</v>
       </c>
       <c r="G34" t="n">
-        <v>66660.63716522175</v>
+        <v>65073.97326433611</v>
       </c>
       <c r="H34" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I34" t="n">
-        <v>8527280</v>
+        <v>8344452</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2624129</v>
+        <v>2618983</v>
       </c>
       <c r="E35" t="n">
-        <v>10496515</v>
+        <v>10475932</v>
       </c>
       <c r="F35" t="n">
-        <v>84141.94649645725</v>
+        <v>84065.73180842977</v>
       </c>
       <c r="G35" t="n">
-        <v>29191.21941825991</v>
+        <v>84025.8536651333</v>
       </c>
       <c r="H35" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="I35" t="n">
-        <v>7003312</v>
+        <v>7007726</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>227814214</v>
+        <v>227318916</v>
       </c>
       <c r="E36" t="n">
-        <v>700442976</v>
+        <v>698920121</v>
       </c>
       <c r="F36" t="n">
-        <v>167452.7284278254</v>
+        <v>209761.4712437681</v>
       </c>
       <c r="G36" t="n">
-        <v>229532.677961566</v>
+        <v>224986.6036571664</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>16552331</v>
+        <v>16710325</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>147480953</v>
+        <v>148592270</v>
       </c>
       <c r="E37" t="n">
-        <v>385289899</v>
+        <v>388193184</v>
       </c>
       <c r="F37" t="n">
-        <v>51437.15558589953</v>
+        <v>56284.08924107767</v>
       </c>
       <c r="G37" t="n">
-        <v>51598.69615495666</v>
+        <v>56935.36919468838</v>
       </c>
       <c r="H37" t="n">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="I37" t="n">
-        <v>8373456</v>
+        <v>8837633</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>411654705</v>
+        <v>411618035</v>
       </c>
       <c r="E38" t="n">
-        <v>2352312600</v>
+        <v>2352103060</v>
       </c>
       <c r="F38" t="n">
-        <v>45680.81615212056</v>
+        <v>43476.49815125739</v>
       </c>
       <c r="G38" t="n">
-        <v>82799.80573662693</v>
+        <v>85715.5029129047</v>
       </c>
       <c r="H38" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>41603991</v>
+        <v>42806632</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250221.xlsx
+++ b/OkxData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>254146917</v>
+        <v>256905407</v>
       </c>
       <c r="E2" t="n">
-        <v>1593719593</v>
+        <v>1611017696</v>
       </c>
       <c r="F2" t="n">
-        <v>179265.1156261414</v>
+        <v>198789.2201275681</v>
       </c>
       <c r="G2" t="n">
-        <v>216754.5827423215</v>
+        <v>213410.0613301912</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>17685839</v>
+        <v>17161540</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>152414633</v>
+        <v>152281203</v>
       </c>
       <c r="E3" t="n">
-        <v>168899233</v>
+        <v>168751372</v>
       </c>
       <c r="F3" t="n">
-        <v>71000.10881880441</v>
+        <v>74840.0170076073</v>
       </c>
       <c r="G3" t="n">
-        <v>193012.7802787739</v>
+        <v>180465.5404072594</v>
       </c>
       <c r="H3" t="n">
         <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>40663318</v>
+        <v>40482165</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>593748399</v>
+        <v>593843809</v>
       </c>
       <c r="E4" t="n">
-        <v>742691000</v>
+        <v>742810345</v>
       </c>
       <c r="F4" t="n">
-        <v>129130.8238770147</v>
+        <v>128051.8406418098</v>
       </c>
       <c r="G4" t="n">
-        <v>183274.5213692204</v>
+        <v>187949.7892291173</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>57181629</v>
+        <v>56268403</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>145858297</v>
+        <v>145423045</v>
       </c>
       <c r="E5" t="n">
-        <v>145858297</v>
+        <v>145423045</v>
       </c>
       <c r="F5" t="n">
-        <v>68059.15514467595</v>
+        <v>58355.26856684116</v>
       </c>
       <c r="G5" t="n">
-        <v>128466.2345170963</v>
+        <v>138952.9434552648</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>73454522</v>
+        <v>74794027</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>268444240</v>
+        <v>268302354</v>
       </c>
       <c r="E6" t="n">
-        <v>268444240</v>
+        <v>268302354</v>
       </c>
       <c r="F6" t="n">
-        <v>65241.91941825913</v>
+        <v>64818.13256384169</v>
       </c>
       <c r="G6" t="n">
-        <v>119593.1203482972</v>
+        <v>125618.3217606072</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>15622906</v>
+        <v>15402383</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>101509182</v>
+        <v>101165053</v>
       </c>
       <c r="E7" t="n">
-        <v>126570051</v>
+        <v>126140963</v>
       </c>
       <c r="F7" t="n">
-        <v>13298.27174465747</v>
+        <v>12154.70424255084</v>
       </c>
       <c r="G7" t="n">
-        <v>52575.33103439974</v>
+        <v>51971.42242640757</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>10422449</v>
+        <v>10436515</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>80343565</v>
+        <v>79713348</v>
       </c>
       <c r="E8" t="n">
-        <v>167557134</v>
+        <v>166242811</v>
       </c>
       <c r="F8" t="n">
-        <v>45810.35048881843</v>
+        <v>56248.4383927817</v>
       </c>
       <c r="G8" t="n">
-        <v>49614.83785483574</v>
+        <v>50368.16189264887</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>20375997</v>
+        <v>20435175</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>146847177</v>
+        <v>146812911</v>
       </c>
       <c r="E9" t="n">
-        <v>146900927</v>
+        <v>146866649</v>
       </c>
       <c r="F9" t="n">
-        <v>9348.150924835694</v>
+        <v>10719.92295336645</v>
       </c>
       <c r="G9" t="n">
-        <v>15696.21532487324</v>
+        <v>13845.96275839595</v>
       </c>
       <c r="H9" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="I9" t="n">
-        <v>2684151</v>
+        <v>2697110</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>682533499</v>
+        <v>673132452</v>
       </c>
       <c r="E10" t="n">
-        <v>682533499</v>
+        <v>673132452</v>
       </c>
       <c r="F10" t="n">
-        <v>419327.6350182999</v>
+        <v>412669.5401374141</v>
       </c>
       <c r="G10" t="n">
-        <v>496813.5628963845</v>
+        <v>513559.5351775461</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>346493252</v>
+        <v>345280617</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71784619</v>
+        <v>72070899</v>
       </c>
       <c r="E11" t="n">
-        <v>82363707</v>
+        <v>82692176</v>
       </c>
       <c r="F11" t="n">
-        <v>13094.76978985942</v>
+        <v>11950.92806599584</v>
       </c>
       <c r="G11" t="n">
-        <v>3959.753561647874</v>
+        <v>5125.451086441581</v>
       </c>
       <c r="H11" t="n">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="I11" t="n">
-        <v>1319750</v>
+        <v>1363190</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>280941785</v>
+        <v>280001547</v>
       </c>
       <c r="E12" t="n">
-        <v>1212700707</v>
+        <v>1208642118</v>
       </c>
       <c r="F12" t="n">
-        <v>376690.8019902966</v>
+        <v>379758.4140590075</v>
       </c>
       <c r="G12" t="n">
-        <v>369077.5090222546</v>
+        <v>380812.299496918</v>
       </c>
       <c r="H12" t="n">
         <v>0.08</v>
       </c>
       <c r="I12" t="n">
-        <v>108528154</v>
+        <v>110874464</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>117323984</v>
+        <v>117003810</v>
       </c>
       <c r="E13" t="n">
-        <v>117323984</v>
+        <v>117003810</v>
       </c>
       <c r="F13" t="n">
-        <v>5776.154672789274</v>
+        <v>5903.572635153785</v>
       </c>
       <c r="G13" t="n">
-        <v>4012.133888392216</v>
+        <v>3809.534384559694</v>
       </c>
       <c r="H13" t="n">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="I13" t="n">
-        <v>6415728</v>
+        <v>6336371</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19943619</v>
+        <v>19932493</v>
       </c>
       <c r="E14" t="n">
-        <v>49859047</v>
+        <v>49831232</v>
       </c>
       <c r="F14" t="n">
-        <v>5014.703177042481</v>
+        <v>4607.330651877643</v>
       </c>
       <c r="G14" t="n">
-        <v>16925.19788714766</v>
+        <v>18894.50989815576</v>
       </c>
       <c r="H14" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I14" t="n">
-        <v>2180290</v>
+        <v>2109623</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12553717</v>
+        <v>12620742</v>
       </c>
       <c r="E15" t="n">
-        <v>18460004</v>
+        <v>18558564</v>
       </c>
       <c r="F15" t="n">
-        <v>759.9684459164235</v>
+        <v>1534.675508088108</v>
       </c>
       <c r="G15" t="n">
-        <v>6459.731768336671</v>
+        <v>4591.339893640117</v>
       </c>
       <c r="H15" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I15" t="n">
-        <v>2570319</v>
+        <v>3539422</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31756361</v>
+        <v>31838610</v>
       </c>
       <c r="E16" t="n">
-        <v>98879118</v>
+        <v>99135216</v>
       </c>
       <c r="F16" t="n">
-        <v>11985.09693085575</v>
+        <v>14916.9093288088</v>
       </c>
       <c r="G16" t="n">
-        <v>31590.28430693788</v>
+        <v>33163.58643209184</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I16" t="n">
-        <v>10389277</v>
+        <v>10274254</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>350870517</v>
+        <v>349840399</v>
       </c>
       <c r="E17" t="n">
-        <v>3156648740</v>
+        <v>3147381161</v>
       </c>
       <c r="F17" t="n">
-        <v>6549.644279701933</v>
+        <v>6780.487464626057</v>
       </c>
       <c r="G17" t="n">
-        <v>7148.07287846211</v>
+        <v>9111.972558448995</v>
       </c>
       <c r="H17" t="n">
         <v>0.06</v>
       </c>
       <c r="I17" t="n">
-        <v>47954444</v>
+        <v>47008460</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15974845</v>
+        <v>15968616</v>
       </c>
       <c r="E18" t="n">
-        <v>97915078</v>
+        <v>97876897</v>
       </c>
       <c r="F18" t="n">
-        <v>43465.17054878708</v>
+        <v>43068.75805737965</v>
       </c>
       <c r="G18" t="n">
-        <v>35144.02020141865</v>
+        <v>34973.68980295712</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>10921602</v>
+        <v>10873974</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50266076</v>
+        <v>50559617</v>
       </c>
       <c r="E19" t="n">
-        <v>216540761</v>
+        <v>217805300</v>
       </c>
       <c r="F19" t="n">
-        <v>33694.32357122972</v>
+        <v>46640.2469246873</v>
       </c>
       <c r="G19" t="n">
-        <v>55723.65613008424</v>
+        <v>72001.2703527799</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="I19" t="n">
-        <v>10042915</v>
+        <v>10083919</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>305113203</v>
+        <v>306372406</v>
       </c>
       <c r="E20" t="n">
-        <v>305113203</v>
+        <v>306372406</v>
       </c>
       <c r="F20" t="n">
-        <v>99263.389270049</v>
+        <v>96470.16976252774</v>
       </c>
       <c r="G20" t="n">
-        <v>125633.5674406271</v>
+        <v>133157.8655534338</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>78153552</v>
+        <v>71729366</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31776649</v>
+        <v>31836184</v>
       </c>
       <c r="E21" t="n">
-        <v>142277092</v>
+        <v>142543655</v>
       </c>
       <c r="F21" t="n">
-        <v>28168.9575369443</v>
+        <v>31210.91043198389</v>
       </c>
       <c r="G21" t="n">
-        <v>70824.2120195563</v>
+        <v>71957.73439499068</v>
       </c>
       <c r="H21" t="n">
         <v>0.14</v>
       </c>
       <c r="I21" t="n">
-        <v>7929953</v>
+        <v>7676267</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>52343162</v>
+        <v>52265477</v>
       </c>
       <c r="E22" t="n">
-        <v>339431477</v>
+        <v>338927706</v>
       </c>
       <c r="F22" t="n">
-        <v>9543.961886253654</v>
+        <v>9146.389608922098</v>
       </c>
       <c r="G22" t="n">
-        <v>3466.085579858849</v>
+        <v>104125.5680469623</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="I22" t="n">
-        <v>17689114</v>
+        <v>17579789</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>124962552</v>
+        <v>125073928</v>
       </c>
       <c r="E23" t="n">
-        <v>2069482213</v>
+        <v>2071326684</v>
       </c>
       <c r="F23" t="n">
-        <v>375061.0851087976</v>
+        <v>356775.105801148</v>
       </c>
       <c r="G23" t="n">
-        <v>344105.203018265</v>
+        <v>345770.9743146925</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>4686578</v>
+        <v>4820702</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6759810</v>
+        <v>6674174</v>
       </c>
       <c r="E24" t="n">
-        <v>34777170</v>
+        <v>34336595</v>
       </c>
       <c r="F24" t="n">
-        <v>2388.074751559303</v>
+        <v>2070.19915092836</v>
       </c>
       <c r="G24" t="n">
-        <v>2103.906293335674</v>
+        <v>1684.969582040872</v>
       </c>
       <c r="H24" t="n">
-        <v>0.26</v>
+        <v>0.09</v>
       </c>
       <c r="I24" t="n">
-        <v>918936</v>
+        <v>913732</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23676683</v>
+        <v>23608234</v>
       </c>
       <c r="E25" t="n">
-        <v>23676683</v>
+        <v>23608234</v>
       </c>
       <c r="F25" t="n">
-        <v>16415.88799542188</v>
+        <v>4945.531689626366</v>
       </c>
       <c r="G25" t="n">
-        <v>8591.769088948538</v>
+        <v>14009.69250172606</v>
       </c>
       <c r="H25" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I25" t="n">
-        <v>2055780</v>
+        <v>2025781</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>327146361</v>
+        <v>328189549</v>
       </c>
       <c r="E27" t="n">
-        <v>605295373</v>
+        <v>607225509</v>
       </c>
       <c r="F27" t="n">
-        <v>132504.8702462162</v>
+        <v>136426.6385819359</v>
       </c>
       <c r="G27" t="n">
-        <v>138695.5027272355</v>
+        <v>138784.3938799994</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I27" t="n">
-        <v>14461567</v>
+        <v>14629154</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>46199909</v>
+        <v>45894217</v>
       </c>
       <c r="E28" t="n">
-        <v>46199909</v>
+        <v>45894217</v>
       </c>
       <c r="F28" t="n">
-        <v>25513.72182938534</v>
+        <v>25663.74465003203</v>
       </c>
       <c r="G28" t="n">
-        <v>41873.68129594885</v>
+        <v>40311.23502790387</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>7653257</v>
+        <v>7730881</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>631787078</v>
+        <v>627399793</v>
       </c>
       <c r="E29" t="n">
-        <v>2446818138</v>
+        <v>2429826834</v>
       </c>
       <c r="F29" t="n">
-        <v>68977.13332444089</v>
+        <v>82878.29883465735</v>
       </c>
       <c r="G29" t="n">
-        <v>237715.9710748651</v>
+        <v>228215.5977672341</v>
       </c>
       <c r="H29" t="n">
         <v>0.08</v>
       </c>
       <c r="I29" t="n">
-        <v>38839924</v>
+        <v>38886810</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>129751867</v>
+        <v>127877653</v>
       </c>
       <c r="E30" t="n">
-        <v>497749044</v>
+        <v>490559260</v>
       </c>
       <c r="F30" t="n">
-        <v>149424.7781933149</v>
+        <v>139950.174326925</v>
       </c>
       <c r="G30" t="n">
-        <v>183172.9954969472</v>
+        <v>179073.3323571025</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>35637848</v>
+        <v>36871342</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>33555327</v>
+        <v>33701611</v>
       </c>
       <c r="F31" t="n">
-        <v>12555.25347506868</v>
+        <v>17367.03622229426</v>
       </c>
       <c r="G31" t="n">
-        <v>59716.16173785501</v>
+        <v>91072.18313483248</v>
       </c>
       <c r="H31" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I31" t="n">
-        <v>5454073</v>
+        <v>5380674</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>88920157</v>
+        <v>89158383</v>
       </c>
       <c r="E32" t="n">
-        <v>328694453</v>
+        <v>329574303</v>
       </c>
       <c r="F32" t="n">
-        <v>10222.34732276456</v>
+        <v>9482.129334987145</v>
       </c>
       <c r="G32" t="n">
-        <v>1034.88922182377</v>
+        <v>1137.75302445919</v>
       </c>
       <c r="H32" t="n">
-        <v>0.13</v>
+        <v>0.35</v>
       </c>
       <c r="I32" t="n">
-        <v>223705</v>
+        <v>221067</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>513619294</v>
+        <v>511846539</v>
       </c>
       <c r="E33" t="n">
-        <v>1787866017</v>
+        <v>1781695204</v>
       </c>
       <c r="F33" t="n">
-        <v>240475.1033894696</v>
+        <v>243637.6596628903</v>
       </c>
       <c r="G33" t="n">
-        <v>305990.1554596948</v>
+        <v>300404.0159432818</v>
       </c>
       <c r="H33" t="n">
         <v>0.11</v>
       </c>
       <c r="I33" t="n">
-        <v>35017346</v>
+        <v>35342580</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>109077551</v>
+        <v>109695954</v>
       </c>
       <c r="E34" t="n">
-        <v>165265093</v>
+        <v>166202045</v>
       </c>
       <c r="F34" t="n">
-        <v>62078.28091828018</v>
+        <v>62822.03305262586</v>
       </c>
       <c r="G34" t="n">
-        <v>65073.97326433611</v>
+        <v>63863.03925253158</v>
       </c>
       <c r="H34" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I34" t="n">
-        <v>8344452</v>
+        <v>8451509</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2618983</v>
+        <v>2630311</v>
       </c>
       <c r="E35" t="n">
-        <v>10475932</v>
+        <v>10521244</v>
       </c>
       <c r="F35" t="n">
-        <v>84065.73180842977</v>
+        <v>82758.50176125996</v>
       </c>
       <c r="G35" t="n">
-        <v>84025.8536651333</v>
+        <v>35249.53569820148</v>
       </c>
       <c r="H35" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I35" t="n">
-        <v>7007726</v>
+        <v>7013689</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>227318916</v>
+        <v>227234051</v>
       </c>
       <c r="E36" t="n">
-        <v>698920121</v>
+        <v>698659195</v>
       </c>
       <c r="F36" t="n">
-        <v>209761.4712437681</v>
+        <v>215145.2863775707</v>
       </c>
       <c r="G36" t="n">
-        <v>224986.6036571664</v>
+        <v>222320.8177871462</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="I36" t="n">
-        <v>16710325</v>
+        <v>16711028</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>148592270</v>
+        <v>148914396</v>
       </c>
       <c r="E37" t="n">
-        <v>388193184</v>
+        <v>389034729</v>
       </c>
       <c r="F37" t="n">
-        <v>56284.08924107767</v>
+        <v>56210.48870275532</v>
       </c>
       <c r="G37" t="n">
-        <v>56935.36919468838</v>
+        <v>54011.9354318233</v>
       </c>
       <c r="H37" t="n">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="I37" t="n">
-        <v>8837633</v>
+        <v>8872593</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>411618035</v>
+        <v>411247738</v>
       </c>
       <c r="E38" t="n">
-        <v>2352103060</v>
+        <v>2349987072</v>
       </c>
       <c r="F38" t="n">
-        <v>43476.49815125739</v>
+        <v>45602.02735853206</v>
       </c>
       <c r="G38" t="n">
-        <v>85715.5029129047</v>
+        <v>82598.22156331221</v>
       </c>
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>42806632</v>
+        <v>42894955</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250221.xlsx
+++ b/OkxData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>256905407</v>
+        <v>257359731</v>
       </c>
       <c r="E2" t="n">
-        <v>1611017696</v>
+        <v>1613866697</v>
       </c>
       <c r="F2" t="n">
-        <v>198789.2201275681</v>
+        <v>185598.2834249314</v>
       </c>
       <c r="G2" t="n">
-        <v>213410.0613301912</v>
+        <v>209567.5411185368</v>
       </c>
       <c r="H2" t="n">
         <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>17161540</v>
+        <v>17165061</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>152281203</v>
+        <v>151987692</v>
       </c>
       <c r="E3" t="n">
-        <v>168751372</v>
+        <v>168426115</v>
       </c>
       <c r="F3" t="n">
-        <v>74840.0170076073</v>
+        <v>74439.39487871107</v>
       </c>
       <c r="G3" t="n">
-        <v>180465.5404072594</v>
+        <v>183431.3916626517</v>
       </c>
       <c r="H3" t="n">
         <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>40482165</v>
+        <v>40624564</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>593843809</v>
+        <v>593285389</v>
       </c>
       <c r="E4" t="n">
-        <v>742810345</v>
+        <v>742111843</v>
       </c>
       <c r="F4" t="n">
-        <v>128051.8406418098</v>
+        <v>127976.1657058655</v>
       </c>
       <c r="G4" t="n">
-        <v>187949.7892291173</v>
+        <v>181648.8301982571</v>
       </c>
       <c r="H4" t="n">
         <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>56268403</v>
+        <v>56244997</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>145423045</v>
+        <v>145483790</v>
       </c>
       <c r="E5" t="n">
-        <v>145423045</v>
+        <v>145483790</v>
       </c>
       <c r="F5" t="n">
-        <v>58355.26856684116</v>
+        <v>85134.46308524597</v>
       </c>
       <c r="G5" t="n">
-        <v>138952.9434552648</v>
+        <v>123588.4882483827</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>74794027</v>
+        <v>74928786</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>268302354</v>
+        <v>268255083</v>
       </c>
       <c r="E6" t="n">
-        <v>268302354</v>
+        <v>268255083</v>
       </c>
       <c r="F6" t="n">
-        <v>64818.13256384169</v>
+        <v>68929.50204764208</v>
       </c>
       <c r="G6" t="n">
-        <v>125618.3217606072</v>
+        <v>124913.1896458283</v>
       </c>
       <c r="H6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>15402383</v>
+        <v>15341425</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>101165053</v>
+        <v>101271940</v>
       </c>
       <c r="E7" t="n">
-        <v>126140963</v>
+        <v>126274237</v>
       </c>
       <c r="F7" t="n">
-        <v>12154.70424255084</v>
+        <v>17367.15637527986</v>
       </c>
       <c r="G7" t="n">
-        <v>51971.42242640757</v>
+        <v>52037.88327868918</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>10436515</v>
+        <v>10450687</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>79713348</v>
+        <v>79429348</v>
       </c>
       <c r="E8" t="n">
-        <v>166242811</v>
+        <v>165650526</v>
       </c>
       <c r="F8" t="n">
-        <v>56248.4383927817</v>
+        <v>42208.20276128773</v>
       </c>
       <c r="G8" t="n">
-        <v>50368.16189264887</v>
+        <v>47760.33778099994</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I8" t="n">
-        <v>20435175</v>
+        <v>20433280</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>146812911</v>
+        <v>146842112</v>
       </c>
       <c r="E9" t="n">
-        <v>146866649</v>
+        <v>146895861</v>
       </c>
       <c r="F9" t="n">
-        <v>10719.92295336645</v>
+        <v>8021.507055477588</v>
       </c>
       <c r="G9" t="n">
-        <v>13845.96275839595</v>
+        <v>14404.29969160631</v>
       </c>
       <c r="H9" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="I9" t="n">
-        <v>2697110</v>
+        <v>2694986</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>673132452</v>
+        <v>674252919</v>
       </c>
       <c r="E10" t="n">
-        <v>673132452</v>
+        <v>674252919</v>
       </c>
       <c r="F10" t="n">
-        <v>412669.5401374141</v>
+        <v>421725.3999005506</v>
       </c>
       <c r="G10" t="n">
-        <v>513559.5351775461</v>
+        <v>507037.4295319026</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I10" t="n">
-        <v>345280617</v>
+        <v>346712993</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>72070899</v>
+        <v>72241668</v>
       </c>
       <c r="E11" t="n">
-        <v>82692176</v>
+        <v>82888112</v>
       </c>
       <c r="F11" t="n">
-        <v>11950.92806599584</v>
+        <v>4834.837090560248</v>
       </c>
       <c r="G11" t="n">
-        <v>5125.451086441581</v>
+        <v>6851.793460448888</v>
       </c>
       <c r="H11" t="n">
-        <v>0.11</v>
+        <v>0.34</v>
       </c>
       <c r="I11" t="n">
-        <v>1363190</v>
+        <v>1374090</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>280001547</v>
+        <v>279892627</v>
       </c>
       <c r="E12" t="n">
-        <v>1208642118</v>
+        <v>1208171958</v>
       </c>
       <c r="F12" t="n">
-        <v>379758.4140590075</v>
+        <v>384665.6435956683</v>
       </c>
       <c r="G12" t="n">
-        <v>380812.299496918</v>
+        <v>373605.1750534292</v>
       </c>
       <c r="H12" t="n">
         <v>0.08</v>
       </c>
       <c r="I12" t="n">
-        <v>110874464</v>
+        <v>110550075</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>117003810</v>
+        <v>116992000</v>
       </c>
       <c r="E13" t="n">
-        <v>117003810</v>
+        <v>116992000</v>
       </c>
       <c r="F13" t="n">
-        <v>5903.572635153785</v>
+        <v>5978.453839685026</v>
       </c>
       <c r="G13" t="n">
-        <v>3809.534384559694</v>
+        <v>4018.750811927328</v>
       </c>
       <c r="H13" t="n">
-        <v>0.51</v>
+        <v>0.19</v>
       </c>
       <c r="I13" t="n">
-        <v>6336371</v>
+        <v>6295225</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19932493</v>
+        <v>19788849</v>
       </c>
       <c r="E14" t="n">
-        <v>49831232</v>
+        <v>49472123</v>
       </c>
       <c r="F14" t="n">
-        <v>4607.330651877643</v>
+        <v>5748.101583742685</v>
       </c>
       <c r="G14" t="n">
-        <v>18894.50989815576</v>
+        <v>17454.41131884786</v>
       </c>
       <c r="H14" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I14" t="n">
-        <v>2109623</v>
+        <v>2184481</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12620742</v>
+        <v>12685353</v>
       </c>
       <c r="E15" t="n">
-        <v>18558564</v>
+        <v>18653572</v>
       </c>
       <c r="F15" t="n">
-        <v>1534.675508088108</v>
+        <v>1472.904640873669</v>
       </c>
       <c r="G15" t="n">
-        <v>4591.339893640117</v>
+        <v>6789.813719860651</v>
       </c>
       <c r="H15" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>3539422</v>
+        <v>3498700</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31838610</v>
+        <v>31926251</v>
       </c>
       <c r="E16" t="n">
-        <v>99135216</v>
+        <v>99408101</v>
       </c>
       <c r="F16" t="n">
-        <v>14916.9093288088</v>
+        <v>15611.96686845324</v>
       </c>
       <c r="G16" t="n">
-        <v>33163.58643209184</v>
+        <v>32446.42946984519</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I16" t="n">
-        <v>10274254</v>
+        <v>10215803</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>349840399</v>
+        <v>349530241</v>
       </c>
       <c r="E17" t="n">
-        <v>3147381161</v>
+        <v>3144590785</v>
       </c>
       <c r="F17" t="n">
-        <v>6780.487464626057</v>
+        <v>6800.863596040545</v>
       </c>
       <c r="G17" t="n">
-        <v>9111.972558448995</v>
+        <v>8835.715184300936</v>
       </c>
       <c r="H17" t="n">
         <v>0.06</v>
       </c>
       <c r="I17" t="n">
-        <v>47008460</v>
+        <v>47007728</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15968616</v>
+        <v>15941537</v>
       </c>
       <c r="E18" t="n">
-        <v>97876897</v>
+        <v>97710921</v>
       </c>
       <c r="F18" t="n">
-        <v>43068.75805737965</v>
+        <v>43669.43832519393</v>
       </c>
       <c r="G18" t="n">
-        <v>34973.68980295712</v>
+        <v>33394.02252535646</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>10873974</v>
+        <v>10838568</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50559617</v>
+        <v>51014631</v>
       </c>
       <c r="E19" t="n">
-        <v>217805300</v>
+        <v>219765452</v>
       </c>
       <c r="F19" t="n">
-        <v>46640.2469246873</v>
+        <v>44551.09310198416</v>
       </c>
       <c r="G19" t="n">
-        <v>72001.2703527799</v>
+        <v>55390.48731925385</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="I19" t="n">
-        <v>10083919</v>
+        <v>10298603</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>306372406</v>
+        <v>306012760</v>
       </c>
       <c r="E20" t="n">
-        <v>306372406</v>
+        <v>306012760</v>
       </c>
       <c r="F20" t="n">
-        <v>96470.16976252774</v>
+        <v>94387.72847086005</v>
       </c>
       <c r="G20" t="n">
-        <v>133157.8655534338</v>
+        <v>126266.2174978432</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>71729366</v>
+        <v>71348578</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31836184</v>
+        <v>31709221</v>
       </c>
       <c r="E21" t="n">
-        <v>142543655</v>
+        <v>141975192</v>
       </c>
       <c r="F21" t="n">
-        <v>31210.91043198389</v>
+        <v>31433.68801555978</v>
       </c>
       <c r="G21" t="n">
-        <v>71957.73439499068</v>
+        <v>67773.45130062345</v>
       </c>
       <c r="H21" t="n">
         <v>0.14</v>
       </c>
       <c r="I21" t="n">
-        <v>7676267</v>
+        <v>7916723</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>52265477</v>
+        <v>52164075</v>
       </c>
       <c r="E22" t="n">
-        <v>338927706</v>
+        <v>338270142</v>
       </c>
       <c r="F22" t="n">
-        <v>9146.389608922098</v>
+        <v>6274.608783428273</v>
       </c>
       <c r="G22" t="n">
-        <v>104125.5680469623</v>
+        <v>103385.396612414</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I22" t="n">
-        <v>17579789</v>
+        <v>17589381</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125073928</v>
+        <v>124928900</v>
       </c>
       <c r="E23" t="n">
-        <v>2071326684</v>
+        <v>2068924909</v>
       </c>
       <c r="F23" t="n">
-        <v>356775.105801148</v>
+        <v>374757.9883406089</v>
       </c>
       <c r="G23" t="n">
-        <v>345770.9743146925</v>
+        <v>347406.6825129402</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>4820702</v>
+        <v>4881573</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6674174</v>
+        <v>6708404</v>
       </c>
       <c r="E24" t="n">
-        <v>34336595</v>
+        <v>34512703</v>
       </c>
       <c r="F24" t="n">
-        <v>2070.19915092836</v>
+        <v>1634.194079208009</v>
       </c>
       <c r="G24" t="n">
-        <v>1684.969582040872</v>
+        <v>2468.036332881856</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I24" t="n">
-        <v>913732</v>
+        <v>911865</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23608234</v>
+        <v>23504400</v>
       </c>
       <c r="E25" t="n">
-        <v>23608234</v>
+        <v>23504400</v>
       </c>
       <c r="F25" t="n">
-        <v>4945.531689626366</v>
+        <v>7014.457607875016</v>
       </c>
       <c r="G25" t="n">
-        <v>14009.69250172606</v>
+        <v>15284.8286904967</v>
       </c>
       <c r="H25" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I25" t="n">
-        <v>2025781</v>
+        <v>2014653</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>328189549</v>
+        <v>327246004</v>
       </c>
       <c r="E27" t="n">
-        <v>607225509</v>
+        <v>605479736</v>
       </c>
       <c r="F27" t="n">
-        <v>136426.6385819359</v>
+        <v>136404.1130723389</v>
       </c>
       <c r="G27" t="n">
-        <v>138784.3938799994</v>
+        <v>139166.7751839389</v>
       </c>
       <c r="H27" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>14629154</v>
+        <v>14626906</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>45894217</v>
+        <v>45697498</v>
       </c>
       <c r="E28" t="n">
-        <v>45894217</v>
+        <v>45697498</v>
       </c>
       <c r="F28" t="n">
-        <v>25663.74465003203</v>
+        <v>25341.68448070959</v>
       </c>
       <c r="G28" t="n">
-        <v>40311.23502790387</v>
+        <v>37186.4468601351</v>
       </c>
       <c r="H28" t="n">
         <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>7730881</v>
+        <v>7802058</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>627399793</v>
+        <v>626262183</v>
       </c>
       <c r="E29" t="n">
-        <v>2429826834</v>
+        <v>2425421034</v>
       </c>
       <c r="F29" t="n">
-        <v>82878.29883465735</v>
+        <v>126531.2261795695</v>
       </c>
       <c r="G29" t="n">
-        <v>228215.5977672341</v>
+        <v>300120.1783661236</v>
       </c>
       <c r="H29" t="n">
         <v>0.08</v>
       </c>
       <c r="I29" t="n">
-        <v>38886810</v>
+        <v>38821956</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>127877653</v>
+        <v>127300132</v>
       </c>
       <c r="E30" t="n">
-        <v>490559260</v>
+        <v>488343796</v>
       </c>
       <c r="F30" t="n">
-        <v>139950.174326925</v>
+        <v>139238.7023589232</v>
       </c>
       <c r="G30" t="n">
-        <v>179073.3323571025</v>
+        <v>184370.6608368194</v>
       </c>
       <c r="H30" t="n">
         <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>36871342</v>
+        <v>37530398</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>33701611</v>
+        <v>33319704</v>
       </c>
       <c r="F31" t="n">
-        <v>17367.03622229426</v>
+        <v>14627.60168622372</v>
       </c>
       <c r="G31" t="n">
-        <v>91072.18313483248</v>
+        <v>145712.5741599474</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I31" t="n">
-        <v>5380674</v>
+        <v>5380060</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>89158383</v>
+        <v>89197885</v>
       </c>
       <c r="E32" t="n">
-        <v>329574303</v>
+        <v>329719565</v>
       </c>
       <c r="F32" t="n">
-        <v>9482.129334987145</v>
+        <v>9802.194709043355</v>
       </c>
       <c r="G32" t="n">
-        <v>1137.75302445919</v>
+        <v>2188.667474200688</v>
       </c>
       <c r="H32" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="I32" t="n">
-        <v>221067</v>
+        <v>215921</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>511846539</v>
+        <v>509038531</v>
       </c>
       <c r="E33" t="n">
-        <v>1781695204</v>
+        <v>1771920761</v>
       </c>
       <c r="F33" t="n">
-        <v>243637.6596628903</v>
+        <v>240765.4621732253</v>
       </c>
       <c r="G33" t="n">
-        <v>300404.0159432818</v>
+        <v>308560.9036330808</v>
       </c>
       <c r="H33" t="n">
         <v>0.11</v>
       </c>
       <c r="I33" t="n">
-        <v>35342580</v>
+        <v>35392681</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>109695954</v>
+        <v>111167752</v>
       </c>
       <c r="E34" t="n">
-        <v>166202045</v>
+        <v>168431989</v>
       </c>
       <c r="F34" t="n">
-        <v>62822.03305262586</v>
+        <v>62265.83792542381</v>
       </c>
       <c r="G34" t="n">
-        <v>63863.03925253158</v>
+        <v>65099.54378040302</v>
       </c>
       <c r="H34" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="I34" t="n">
-        <v>8451509</v>
+        <v>8487835</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2630311</v>
+        <v>2629533</v>
       </c>
       <c r="E35" t="n">
-        <v>10521244</v>
+        <v>10518130</v>
       </c>
       <c r="F35" t="n">
-        <v>82758.50176125996</v>
+        <v>77389.53180079907</v>
       </c>
       <c r="G35" t="n">
-        <v>35249.53569820148</v>
+        <v>71270.02435419441</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I35" t="n">
-        <v>7013689</v>
+        <v>7009925</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>227234051</v>
+        <v>227303386</v>
       </c>
       <c r="E36" t="n">
-        <v>698659195</v>
+        <v>698872373</v>
       </c>
       <c r="F36" t="n">
-        <v>215145.2863775707</v>
+        <v>214573.4738905504</v>
       </c>
       <c r="G36" t="n">
-        <v>222320.8177871462</v>
+        <v>194248.4055145883</v>
       </c>
       <c r="H36" t="n">
         <v>0.03</v>
       </c>
       <c r="I36" t="n">
-        <v>16711028</v>
+        <v>16890778</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>148914396</v>
+        <v>147903796</v>
       </c>
       <c r="E37" t="n">
-        <v>389034729</v>
+        <v>386394564</v>
       </c>
       <c r="F37" t="n">
-        <v>56210.48870275532</v>
+        <v>53947.35940717606</v>
       </c>
       <c r="G37" t="n">
-        <v>54011.9354318233</v>
+        <v>52197.13023831396</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I37" t="n">
-        <v>8872593</v>
+        <v>8861915</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>411247738</v>
+        <v>409001684</v>
       </c>
       <c r="E38" t="n">
-        <v>2349987072</v>
+        <v>2337152478</v>
       </c>
       <c r="F38" t="n">
-        <v>45602.02735853206</v>
+        <v>42865.72836094598</v>
       </c>
       <c r="G38" t="n">
-        <v>82598.22156331221</v>
+        <v>81184.49648888686</v>
       </c>
       <c r="H38" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I38" t="n">
-        <v>42894955</v>
+        <v>42885867</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250221.xlsx
+++ b/OkxData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>257359731</v>
+        <v>259094027</v>
       </c>
       <c r="E2" t="n">
-        <v>1613866697</v>
+        <v>1624742225</v>
       </c>
       <c r="F2" t="n">
-        <v>185598.2834249314</v>
+        <v>186626.5243666146</v>
       </c>
       <c r="G2" t="n">
-        <v>209567.5411185368</v>
+        <v>205909.2103780629</v>
       </c>
       <c r="H2" t="n">
         <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>17165061</v>
+        <v>17277193</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>151987692</v>
+        <v>154813738</v>
       </c>
       <c r="E3" t="n">
-        <v>168426115</v>
+        <v>171557816</v>
       </c>
       <c r="F3" t="n">
-        <v>74439.39487871107</v>
+        <v>71793.54552718339</v>
       </c>
       <c r="G3" t="n">
-        <v>183431.3916626517</v>
+        <v>170848.0999757705</v>
       </c>
       <c r="H3" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>40624564</v>
+        <v>41444366</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>593285389</v>
+        <v>600077306</v>
       </c>
       <c r="E4" t="n">
-        <v>742111843</v>
+        <v>750607522</v>
       </c>
       <c r="F4" t="n">
-        <v>127976.1657058655</v>
+        <v>113145.9667065828</v>
       </c>
       <c r="G4" t="n">
-        <v>181648.8301982571</v>
+        <v>165066.8216546808</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>56244997</v>
+        <v>57993081</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>145483790</v>
+        <v>148421155</v>
       </c>
       <c r="E5" t="n">
-        <v>145483790</v>
+        <v>148421155</v>
       </c>
       <c r="F5" t="n">
-        <v>85134.46308524597</v>
+        <v>66291.08155604539</v>
       </c>
       <c r="G5" t="n">
-        <v>123588.4882483827</v>
+        <v>123818.9166820878</v>
       </c>
       <c r="H5" t="n">
         <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>74928786</v>
+        <v>75988319</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>268255083</v>
+        <v>275856103</v>
       </c>
       <c r="E6" t="n">
-        <v>268255083</v>
+        <v>275856103</v>
       </c>
       <c r="F6" t="n">
-        <v>68929.50204764208</v>
+        <v>69413.57969302128</v>
       </c>
       <c r="G6" t="n">
-        <v>124913.1896458283</v>
+        <v>112812.4244957425</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>15341425</v>
+        <v>20143652</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>101271940</v>
+        <v>102170308</v>
       </c>
       <c r="E7" t="n">
-        <v>126274237</v>
+        <v>127394397</v>
       </c>
       <c r="F7" t="n">
-        <v>17367.15637527986</v>
+        <v>16597.72330070346</v>
       </c>
       <c r="G7" t="n">
-        <v>52037.88327868918</v>
+        <v>50190.26037541974</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>10450687</v>
+        <v>10476066</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>79429348</v>
+        <v>84050933</v>
       </c>
       <c r="E8" t="n">
-        <v>165650526</v>
+        <v>175239446</v>
       </c>
       <c r="F8" t="n">
-        <v>42208.20276128773</v>
+        <v>47997.70665093775</v>
       </c>
       <c r="G8" t="n">
-        <v>47760.33778099994</v>
+        <v>49811.03291082079</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="I8" t="n">
-        <v>20433280</v>
+        <v>23743220</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>146842112</v>
+        <v>148169297</v>
       </c>
       <c r="E9" t="n">
-        <v>146895861</v>
+        <v>148225343</v>
       </c>
       <c r="F9" t="n">
-        <v>8021.507055477588</v>
+        <v>6906.803636767109</v>
       </c>
       <c r="G9" t="n">
-        <v>14404.29969160631</v>
+        <v>18676.41035417487</v>
       </c>
       <c r="H9" t="n">
         <v>0.19</v>
       </c>
       <c r="I9" t="n">
-        <v>2694986</v>
+        <v>2717888</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>674252919</v>
+        <v>701998695</v>
       </c>
       <c r="E10" t="n">
-        <v>674252919</v>
+        <v>701998695</v>
       </c>
       <c r="F10" t="n">
-        <v>421725.3999005506</v>
+        <v>408486.2366681721</v>
       </c>
       <c r="G10" t="n">
-        <v>507037.4295319026</v>
+        <v>519216.6096880441</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I10" t="n">
-        <v>346712993</v>
+        <v>374792320</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>72241668</v>
+        <v>72684957</v>
       </c>
       <c r="E11" t="n">
-        <v>82888112</v>
+        <v>83396730</v>
       </c>
       <c r="F11" t="n">
-        <v>4834.837090560248</v>
+        <v>4989.895277734361</v>
       </c>
       <c r="G11" t="n">
-        <v>6851.793460448888</v>
+        <v>5748.387439774357</v>
       </c>
       <c r="H11" t="n">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="I11" t="n">
-        <v>1374090</v>
+        <v>1410858</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>279892627</v>
+        <v>287444916</v>
       </c>
       <c r="E12" t="n">
-        <v>1208171958</v>
+        <v>1240771831</v>
       </c>
       <c r="F12" t="n">
-        <v>384665.6435956683</v>
+        <v>264610.9367979444</v>
       </c>
       <c r="G12" t="n">
-        <v>373605.1750534292</v>
+        <v>390285.4128083815</v>
       </c>
       <c r="H12" t="n">
         <v>0.08</v>
       </c>
       <c r="I12" t="n">
-        <v>110550075</v>
+        <v>112307179</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>116992000</v>
+        <v>117837705</v>
       </c>
       <c r="E13" t="n">
-        <v>116992000</v>
+        <v>117837705</v>
       </c>
       <c r="F13" t="n">
-        <v>5978.453839685026</v>
+        <v>5815.113649553833</v>
       </c>
       <c r="G13" t="n">
-        <v>4018.750811927328</v>
+        <v>3559.421111687901</v>
       </c>
       <c r="H13" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="I13" t="n">
-        <v>6295225</v>
+        <v>6362167</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19788849</v>
+        <v>19523793</v>
       </c>
       <c r="E14" t="n">
-        <v>49472123</v>
+        <v>48809483</v>
       </c>
       <c r="F14" t="n">
-        <v>5748.101583742685</v>
+        <v>6985.031112422779</v>
       </c>
       <c r="G14" t="n">
-        <v>17454.41131884786</v>
+        <v>15723.97906718595</v>
       </c>
       <c r="H14" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I14" t="n">
-        <v>2184481</v>
+        <v>2248400</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12685353</v>
+        <v>12651337</v>
       </c>
       <c r="E15" t="n">
-        <v>18653572</v>
+        <v>18603552</v>
       </c>
       <c r="F15" t="n">
-        <v>1472.904640873669</v>
+        <v>1689.670198886258</v>
       </c>
       <c r="G15" t="n">
-        <v>6789.813719860651</v>
+        <v>15146.74319045163</v>
       </c>
       <c r="H15" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>3498700</v>
+        <v>3556294</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31926251</v>
+        <v>32284046</v>
       </c>
       <c r="E16" t="n">
-        <v>99408101</v>
+        <v>100522162</v>
       </c>
       <c r="F16" t="n">
-        <v>15611.96686845324</v>
+        <v>11958.29639524144</v>
       </c>
       <c r="G16" t="n">
-        <v>32446.42946984519</v>
+        <v>17408.55211973931</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I16" t="n">
-        <v>10215803</v>
+        <v>9919256</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>349530241</v>
+        <v>350222931</v>
       </c>
       <c r="E17" t="n">
-        <v>3144590785</v>
+        <v>3150822651</v>
       </c>
       <c r="F17" t="n">
-        <v>6800.863596040545</v>
+        <v>6552.080003982243</v>
       </c>
       <c r="G17" t="n">
-        <v>8835.715184300936</v>
+        <v>14243.22452226582</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>47007728</v>
+        <v>44893368</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15941537</v>
+        <v>15991857</v>
       </c>
       <c r="E18" t="n">
-        <v>97710921</v>
+        <v>98019350</v>
       </c>
       <c r="F18" t="n">
-        <v>43669.43832519393</v>
+        <v>44593.91416034763</v>
       </c>
       <c r="G18" t="n">
-        <v>33394.02252535646</v>
+        <v>41184.52639605539</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>10838568</v>
+        <v>10847491</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>51014631</v>
+        <v>51458983</v>
       </c>
       <c r="E19" t="n">
-        <v>219765452</v>
+        <v>221679671</v>
       </c>
       <c r="F19" t="n">
-        <v>44551.09310198416</v>
+        <v>46210.41102358614</v>
       </c>
       <c r="G19" t="n">
-        <v>55390.48731925385</v>
+        <v>62801.02179426052</v>
       </c>
       <c r="H19" t="n">
         <v>0.1</v>
       </c>
       <c r="I19" t="n">
-        <v>10298603</v>
+        <v>10256767</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>306012760</v>
+        <v>311126805</v>
       </c>
       <c r="E20" t="n">
-        <v>306012760</v>
+        <v>311126805</v>
       </c>
       <c r="F20" t="n">
-        <v>94387.72847086005</v>
+        <v>72647.56387186685</v>
       </c>
       <c r="G20" t="n">
-        <v>126266.2174978432</v>
+        <v>129397.3147819687</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>71348578</v>
+        <v>72662540</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31709221</v>
+        <v>33239182</v>
       </c>
       <c r="E21" t="n">
-        <v>141975192</v>
+        <v>148825454</v>
       </c>
       <c r="F21" t="n">
-        <v>31433.68801555978</v>
+        <v>29525.49526557168</v>
       </c>
       <c r="G21" t="n">
-        <v>67773.45130062345</v>
+        <v>90590.77560905702</v>
       </c>
       <c r="H21" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I21" t="n">
-        <v>7916723</v>
+        <v>8745969</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>52164075</v>
+        <v>53054372</v>
       </c>
       <c r="E22" t="n">
-        <v>338270142</v>
+        <v>344043483</v>
       </c>
       <c r="F22" t="n">
-        <v>6274.608783428273</v>
+        <v>10031.2708542373</v>
       </c>
       <c r="G22" t="n">
-        <v>103385.396612414</v>
+        <v>105809.6033271123</v>
       </c>
       <c r="H22" t="n">
         <v>0.04</v>
       </c>
       <c r="I22" t="n">
-        <v>17589381</v>
+        <v>17648770</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>124928900</v>
+        <v>125012890</v>
       </c>
       <c r="E23" t="n">
-        <v>2068924909</v>
+        <v>2070315845</v>
       </c>
       <c r="F23" t="n">
-        <v>374757.9883406089</v>
+        <v>352042.3596277687</v>
       </c>
       <c r="G23" t="n">
-        <v>347406.6825129402</v>
+        <v>347249.957261913</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>4881573</v>
+        <v>4892323</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6708404</v>
+        <v>6959966</v>
       </c>
       <c r="E24" t="n">
-        <v>34512703</v>
+        <v>35806908</v>
       </c>
       <c r="F24" t="n">
-        <v>1634.194079208009</v>
+        <v>323.1931246820131</v>
       </c>
       <c r="G24" t="n">
-        <v>2468.036332881856</v>
+        <v>685.5266971038719</v>
       </c>
       <c r="H24" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I24" t="n">
-        <v>911865</v>
+        <v>936190</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23504400</v>
+        <v>24219372</v>
       </c>
       <c r="E25" t="n">
-        <v>23504400</v>
+        <v>24191722</v>
       </c>
       <c r="F25" t="n">
-        <v>7014.457607875016</v>
+        <v>17304.24824430557</v>
       </c>
       <c r="G25" t="n">
-        <v>15284.8286904967</v>
+        <v>8425.556233655027</v>
       </c>
       <c r="H25" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I25" t="n">
-        <v>2014653</v>
+        <v>2090423</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>327246004</v>
+        <v>330668736</v>
       </c>
       <c r="E27" t="n">
-        <v>605479736</v>
+        <v>611812569</v>
       </c>
       <c r="F27" t="n">
-        <v>136404.1130723389</v>
+        <v>138334.1556898098</v>
       </c>
       <c r="G27" t="n">
-        <v>139166.7751839389</v>
+        <v>142714.2313178653</v>
       </c>
       <c r="H27" t="n">
         <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>14626906</v>
+        <v>14610339</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>45697498</v>
+        <v>46153726</v>
       </c>
       <c r="E28" t="n">
-        <v>45697498</v>
+        <v>46153726</v>
       </c>
       <c r="F28" t="n">
-        <v>25341.68448070959</v>
+        <v>24155.78740973978</v>
       </c>
       <c r="G28" t="n">
-        <v>37186.4468601351</v>
+        <v>44228.87638687233</v>
       </c>
       <c r="H28" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="I28" t="n">
-        <v>7802058</v>
+        <v>8886446</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>626262183</v>
+        <v>633580180</v>
       </c>
       <c r="E29" t="n">
-        <v>2425421034</v>
+        <v>2453762560</v>
       </c>
       <c r="F29" t="n">
-        <v>126531.2261795695</v>
+        <v>125544.0209108939</v>
       </c>
       <c r="G29" t="n">
-        <v>300120.1783661236</v>
+        <v>280196.5474559477</v>
       </c>
       <c r="H29" t="n">
         <v>0.08</v>
       </c>
       <c r="I29" t="n">
-        <v>38821956</v>
+        <v>40099816</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>127300132</v>
+        <v>128397825</v>
       </c>
       <c r="E30" t="n">
-        <v>488343796</v>
+        <v>492554725</v>
       </c>
       <c r="F30" t="n">
-        <v>139238.7023589232</v>
+        <v>141481.1694555655</v>
       </c>
       <c r="G30" t="n">
-        <v>184370.6608368194</v>
+        <v>178799.8273462866</v>
       </c>
       <c r="H30" t="n">
         <v>0.1</v>
       </c>
       <c r="I30" t="n">
-        <v>37530398</v>
+        <v>39175894</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>33319704</v>
+        <v>33758603</v>
       </c>
       <c r="F31" t="n">
-        <v>14627.60168622372</v>
+        <v>11617.20500997931</v>
       </c>
       <c r="G31" t="n">
-        <v>145712.5741599474</v>
+        <v>16117.14905561643</v>
       </c>
       <c r="H31" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I31" t="n">
-        <v>5380060</v>
+        <v>5229260</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>89197885</v>
+        <v>89332662</v>
       </c>
       <c r="E32" t="n">
-        <v>329719565</v>
+        <v>330218484</v>
       </c>
       <c r="F32" t="n">
-        <v>9802.194709043355</v>
+        <v>9449.131101133182</v>
       </c>
       <c r="G32" t="n">
-        <v>2188.667474200688</v>
+        <v>1157.843445054434</v>
       </c>
       <c r="H32" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="I32" t="n">
-        <v>215921</v>
+        <v>181604</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>509038531</v>
+        <v>512504692</v>
       </c>
       <c r="E33" t="n">
-        <v>1771920761</v>
+        <v>1783986180</v>
       </c>
       <c r="F33" t="n">
-        <v>240765.4621732253</v>
+        <v>241135.4651291375</v>
       </c>
       <c r="G33" t="n">
-        <v>308560.9036330808</v>
+        <v>306021.8590254068</v>
       </c>
       <c r="H33" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>35392681</v>
+        <v>36465331</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>111167752</v>
+        <v>112541077</v>
       </c>
       <c r="E34" t="n">
-        <v>168431989</v>
+        <v>170512735</v>
       </c>
       <c r="F34" t="n">
-        <v>62265.83792542381</v>
+        <v>65052.65739565729</v>
       </c>
       <c r="G34" t="n">
-        <v>65099.54378040302</v>
+        <v>68746.26994140963</v>
       </c>
       <c r="H34" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I34" t="n">
-        <v>8487835</v>
+        <v>8967754</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2629533</v>
+        <v>2624090</v>
       </c>
       <c r="E35" t="n">
-        <v>10518130</v>
+        <v>10496362</v>
       </c>
       <c r="F35" t="n">
-        <v>77389.53180079907</v>
+        <v>64649.1062210931</v>
       </c>
       <c r="G35" t="n">
-        <v>71270.02435419441</v>
+        <v>17542.10084965285</v>
       </c>
       <c r="H35" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="I35" t="n">
-        <v>7009925</v>
+        <v>7032134</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>227303386</v>
+        <v>230029797</v>
       </c>
       <c r="E36" t="n">
-        <v>698872373</v>
+        <v>707255061</v>
       </c>
       <c r="F36" t="n">
-        <v>214573.4738905504</v>
+        <v>210078.6563601152</v>
       </c>
       <c r="G36" t="n">
-        <v>194248.4055145883</v>
+        <v>245039.6450686119</v>
       </c>
       <c r="H36" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="I36" t="n">
-        <v>16890778</v>
+        <v>17110554</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>147903796</v>
+        <v>149835854</v>
       </c>
       <c r="E37" t="n">
-        <v>386394564</v>
+        <v>391442012</v>
       </c>
       <c r="F37" t="n">
-        <v>53947.35940717606</v>
+        <v>43774.74682309635</v>
       </c>
       <c r="G37" t="n">
-        <v>52197.13023831396</v>
+        <v>39951.37118841496</v>
       </c>
       <c r="H37" t="n">
-        <v>0.13</v>
+        <v>0.28</v>
       </c>
       <c r="I37" t="n">
-        <v>8861915</v>
+        <v>8822341</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>409001684</v>
+        <v>412164827</v>
       </c>
       <c r="E38" t="n">
-        <v>2337152478</v>
+        <v>2355227584</v>
       </c>
       <c r="F38" t="n">
-        <v>42865.72836094598</v>
+        <v>39187.06311350914</v>
       </c>
       <c r="G38" t="n">
-        <v>81184.49648888686</v>
+        <v>98275.61258206122</v>
       </c>
       <c r="H38" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>42885867</v>
+        <v>43123034</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250221.xlsx
+++ b/OkxData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>259094027</v>
+        <v>259779369</v>
       </c>
       <c r="E2" t="n">
-        <v>1624742225</v>
+        <v>1629039907</v>
       </c>
       <c r="F2" t="n">
-        <v>186626.5243666146</v>
+        <v>193466.6366921154</v>
       </c>
       <c r="G2" t="n">
-        <v>205909.2103780629</v>
+        <v>220021.3279632065</v>
       </c>
       <c r="H2" t="n">
         <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>17277193</v>
+        <v>17525644</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>154813738</v>
+        <v>153534600</v>
       </c>
       <c r="E3" t="n">
-        <v>171557816</v>
+        <v>170140331</v>
       </c>
       <c r="F3" t="n">
-        <v>71793.54552718339</v>
+        <v>75602.7118050516</v>
       </c>
       <c r="G3" t="n">
-        <v>170848.0999757705</v>
+        <v>190961.0210856535</v>
       </c>
       <c r="H3" t="n">
         <v>0.06</v>
       </c>
       <c r="I3" t="n">
-        <v>41444366</v>
+        <v>44476487</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>600077306</v>
+        <v>601683238</v>
       </c>
       <c r="E4" t="n">
-        <v>750607522</v>
+        <v>752616304</v>
       </c>
       <c r="F4" t="n">
-        <v>113145.9667065828</v>
+        <v>123773.740068641</v>
       </c>
       <c r="G4" t="n">
-        <v>165066.8216546808</v>
+        <v>144709.7163691182</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="n">
-        <v>57993081</v>
+        <v>62342860</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>148421155</v>
+        <v>148474593</v>
       </c>
       <c r="E5" t="n">
-        <v>148421155</v>
+        <v>148474593</v>
       </c>
       <c r="F5" t="n">
-        <v>66291.08155604539</v>
+        <v>68382.00254135215</v>
       </c>
       <c r="G5" t="n">
-        <v>123818.9166820878</v>
+        <v>111844.0259077417</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I5" t="n">
-        <v>75988319</v>
+        <v>76065203</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>275856103</v>
+        <v>276888342</v>
       </c>
       <c r="E6" t="n">
-        <v>275856103</v>
+        <v>276888342</v>
       </c>
       <c r="F6" t="n">
-        <v>69413.57969302128</v>
+        <v>62663.7504331049</v>
       </c>
       <c r="G6" t="n">
-        <v>112812.4244957425</v>
+        <v>124963.9392585801</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I6" t="n">
-        <v>20143652</v>
+        <v>16111143</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>102170308</v>
+        <v>101841775</v>
       </c>
       <c r="E7" t="n">
-        <v>127394397</v>
+        <v>126984755</v>
       </c>
       <c r="F7" t="n">
-        <v>16597.72330070346</v>
+        <v>16829.2769319369</v>
       </c>
       <c r="G7" t="n">
-        <v>50190.26037541974</v>
+        <v>49322.60659085449</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>10476066</v>
+        <v>10465644</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>84050933</v>
+        <v>97179689</v>
       </c>
       <c r="E8" t="n">
-        <v>175239446</v>
+        <v>202611846</v>
       </c>
       <c r="F8" t="n">
-        <v>47997.70665093775</v>
+        <v>52307.31592707545</v>
       </c>
       <c r="G8" t="n">
-        <v>49811.03291082079</v>
+        <v>48634.29550782894</v>
       </c>
       <c r="H8" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I8" t="n">
-        <v>23743220</v>
+        <v>41261172</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>148169297</v>
+        <v>148132732</v>
       </c>
       <c r="E9" t="n">
-        <v>148225343</v>
+        <v>148189078</v>
       </c>
       <c r="F9" t="n">
-        <v>6906.803636767109</v>
+        <v>6978.024760597163</v>
       </c>
       <c r="G9" t="n">
-        <v>18676.41035417487</v>
+        <v>17459.12317907038</v>
       </c>
       <c r="H9" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I9" t="n">
-        <v>2717888</v>
+        <v>2757659</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>701998695</v>
+        <v>714200739</v>
       </c>
       <c r="E10" t="n">
-        <v>701998695</v>
+        <v>714200739</v>
       </c>
       <c r="F10" t="n">
-        <v>408486.2366681721</v>
+        <v>407808.171894182</v>
       </c>
       <c r="G10" t="n">
-        <v>519216.6096880441</v>
+        <v>574506.9235541086</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>374792320</v>
+        <v>392523079</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>72684957</v>
+        <v>72777514</v>
       </c>
       <c r="E11" t="n">
-        <v>83396730</v>
+        <v>83502927</v>
       </c>
       <c r="F11" t="n">
-        <v>4989.895277734361</v>
+        <v>1466.077980953329</v>
       </c>
       <c r="G11" t="n">
-        <v>5748.387439774357</v>
+        <v>3581.212318941869</v>
       </c>
       <c r="H11" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="I11" t="n">
-        <v>1410858</v>
+        <v>1428200</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>287444916</v>
+        <v>289065226</v>
       </c>
       <c r="E12" t="n">
-        <v>1240771831</v>
+        <v>1247765988</v>
       </c>
       <c r="F12" t="n">
-        <v>264610.9367979444</v>
+        <v>276627.9965765916</v>
       </c>
       <c r="G12" t="n">
-        <v>390285.4128083815</v>
+        <v>372514.3824641151</v>
       </c>
       <c r="H12" t="n">
         <v>0.08</v>
       </c>
       <c r="I12" t="n">
-        <v>112307179</v>
+        <v>111768721</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>117837705</v>
+        <v>117832730</v>
       </c>
       <c r="E13" t="n">
-        <v>117837705</v>
+        <v>117832730</v>
       </c>
       <c r="F13" t="n">
-        <v>5815.113649553833</v>
+        <v>5135.180498735115</v>
       </c>
       <c r="G13" t="n">
-        <v>3559.421111687901</v>
+        <v>5209.24455812545</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="I13" t="n">
-        <v>6362167</v>
+        <v>6372462</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19523793</v>
+        <v>19659772</v>
       </c>
       <c r="E14" t="n">
-        <v>48809483</v>
+        <v>49149429</v>
       </c>
       <c r="F14" t="n">
-        <v>6985.031112422779</v>
+        <v>5463.622657255207</v>
       </c>
       <c r="G14" t="n">
-        <v>15723.97906718595</v>
+        <v>18130.59433967718</v>
       </c>
       <c r="H14" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I14" t="n">
-        <v>2248400</v>
+        <v>2304246</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12651337</v>
+        <v>12711657</v>
       </c>
       <c r="E15" t="n">
-        <v>18603552</v>
+        <v>18692252</v>
       </c>
       <c r="F15" t="n">
-        <v>1689.670198886258</v>
+        <v>2573.700721256288</v>
       </c>
       <c r="G15" t="n">
-        <v>15146.74319045163</v>
+        <v>5546.606040802923</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>3556294</v>
+        <v>3658290</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>32284046</v>
+        <v>32379365</v>
       </c>
       <c r="E16" t="n">
-        <v>100522162</v>
+        <v>100818952</v>
       </c>
       <c r="F16" t="n">
-        <v>11958.29639524144</v>
+        <v>10663.24251495791</v>
       </c>
       <c r="G16" t="n">
-        <v>17408.55211973931</v>
+        <v>21304.55095592189</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I16" t="n">
-        <v>9919256</v>
+        <v>9829377</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>350222931</v>
+        <v>350039083</v>
       </c>
       <c r="E17" t="n">
-        <v>3150822651</v>
+        <v>3149168643</v>
       </c>
       <c r="F17" t="n">
-        <v>6552.080003982243</v>
+        <v>6794.642038097164</v>
       </c>
       <c r="G17" t="n">
-        <v>14243.22452226582</v>
+        <v>5530.281137013743</v>
       </c>
       <c r="H17" t="n">
         <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>44893368</v>
+        <v>45601485</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15991857</v>
+        <v>15945028</v>
       </c>
       <c r="E18" t="n">
-        <v>98019350</v>
+        <v>97732322</v>
       </c>
       <c r="F18" t="n">
-        <v>44593.91416034763</v>
+        <v>46242.10211268032</v>
       </c>
       <c r="G18" t="n">
-        <v>41184.52639605539</v>
+        <v>36943.12594575853</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I18" t="n">
-        <v>10847491</v>
+        <v>10893774</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>51458983</v>
+        <v>52121444</v>
       </c>
       <c r="E19" t="n">
-        <v>221679671</v>
+        <v>224533480</v>
       </c>
       <c r="F19" t="n">
-        <v>46210.41102358614</v>
+        <v>48382.68549723469</v>
       </c>
       <c r="G19" t="n">
-        <v>62801.02179426052</v>
+        <v>70086.12515096439</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I19" t="n">
-        <v>10256767</v>
+        <v>10309779</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>311126805</v>
+        <v>311805714</v>
       </c>
       <c r="E20" t="n">
-        <v>311126805</v>
+        <v>311805714</v>
       </c>
       <c r="F20" t="n">
-        <v>72647.56387186685</v>
+        <v>73644.41910484782</v>
       </c>
       <c r="G20" t="n">
-        <v>129397.3147819687</v>
+        <v>104543.4880026117</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I20" t="n">
-        <v>72662540</v>
+        <v>73479894</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>33239182</v>
+        <v>33735432</v>
       </c>
       <c r="E21" t="n">
-        <v>148825454</v>
+        <v>151047367</v>
       </c>
       <c r="F21" t="n">
-        <v>29525.49526557168</v>
+        <v>38176.0213401709</v>
       </c>
       <c r="G21" t="n">
-        <v>90590.77560905702</v>
+        <v>82684.50563619086</v>
       </c>
       <c r="H21" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>8745969</v>
+        <v>9224997</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>53054372</v>
+        <v>52929960</v>
       </c>
       <c r="E22" t="n">
-        <v>344043483</v>
+        <v>343236703</v>
       </c>
       <c r="F22" t="n">
-        <v>10031.2708542373</v>
+        <v>6645.108936967594</v>
       </c>
       <c r="G22" t="n">
-        <v>105809.6033271123</v>
+        <v>96089.02179210055</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I22" t="n">
-        <v>17648770</v>
+        <v>17479495</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>125012890</v>
+        <v>125083187</v>
       </c>
       <c r="E23" t="n">
-        <v>2070315845</v>
+        <v>2071480022</v>
       </c>
       <c r="F23" t="n">
-        <v>352042.3596277687</v>
+        <v>361906.6256632536</v>
       </c>
       <c r="G23" t="n">
-        <v>347249.957261913</v>
+        <v>348528.1683569969</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
       </c>
       <c r="I23" t="n">
-        <v>4892323</v>
+        <v>4971781</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6959966</v>
+        <v>7037872</v>
       </c>
       <c r="E24" t="n">
-        <v>35806908</v>
+        <v>36207715</v>
       </c>
       <c r="F24" t="n">
-        <v>323.1931246820131</v>
+        <v>1749.181615448597</v>
       </c>
       <c r="G24" t="n">
-        <v>685.5266971038719</v>
+        <v>1324.854802447823</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="I24" t="n">
-        <v>936190</v>
+        <v>945551</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24219372</v>
+        <v>24647688</v>
       </c>
       <c r="E25" t="n">
-        <v>24191722</v>
+        <v>24648002</v>
       </c>
       <c r="F25" t="n">
-        <v>17304.24824430557</v>
+        <v>18277.67534828402</v>
       </c>
       <c r="G25" t="n">
-        <v>8425.556233655027</v>
+        <v>8082.043725266471</v>
       </c>
       <c r="H25" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="I25" t="n">
-        <v>2090423</v>
+        <v>2092967</v>
       </c>
     </row>
     <row r="26">
@@ -1364,22 +1364,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>330668736</v>
+        <v>332533738</v>
       </c>
       <c r="E27" t="n">
-        <v>611812569</v>
+        <v>615263249</v>
       </c>
       <c r="F27" t="n">
-        <v>138334.1556898098</v>
+        <v>87981.52302591108</v>
       </c>
       <c r="G27" t="n">
-        <v>142714.2313178653</v>
+        <v>93269.67750458638</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I27" t="n">
-        <v>14610339</v>
+        <v>14498189</v>
       </c>
     </row>
     <row r="28">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>46153726</v>
+        <v>46774339</v>
       </c>
       <c r="E28" t="n">
-        <v>46153726</v>
+        <v>46774339</v>
       </c>
       <c r="F28" t="n">
-        <v>24155.78740973978</v>
+        <v>25200.22823532528</v>
       </c>
       <c r="G28" t="n">
-        <v>44228.87638687233</v>
+        <v>48864.51980982033</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="I28" t="n">
-        <v>8886446</v>
+        <v>9304683</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>633580180</v>
+        <v>629851604</v>
       </c>
       <c r="E29" t="n">
-        <v>2453762560</v>
+        <v>2439322336</v>
       </c>
       <c r="F29" t="n">
-        <v>125544.0209108939</v>
+        <v>142304.1600166316</v>
       </c>
       <c r="G29" t="n">
-        <v>280196.5474559477</v>
+        <v>282655.4118620931</v>
       </c>
       <c r="H29" t="n">
         <v>0.08</v>
       </c>
       <c r="I29" t="n">
-        <v>40099816</v>
+        <v>40681305</v>
       </c>
     </row>
     <row r="30">
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>128397825</v>
+        <v>127542237</v>
       </c>
       <c r="E30" t="n">
-        <v>492554725</v>
+        <v>489272551</v>
       </c>
       <c r="F30" t="n">
-        <v>141481.1694555655</v>
+        <v>142273.9972839202</v>
       </c>
       <c r="G30" t="n">
-        <v>178799.8273462866</v>
+        <v>185826.2068254178</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>39175894</v>
+        <v>38920051</v>
       </c>
     </row>
     <row r="31">
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>33758603</v>
+        <v>34592758</v>
       </c>
       <c r="F31" t="n">
-        <v>11617.20500997931</v>
+        <v>18339.50965455223</v>
       </c>
       <c r="G31" t="n">
-        <v>16117.14905561643</v>
+        <v>17613.27404193706</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I31" t="n">
-        <v>5229260</v>
+        <v>5328551</v>
       </c>
     </row>
     <row r="32">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>89332662</v>
+        <v>89182219</v>
       </c>
       <c r="E32" t="n">
-        <v>330218484</v>
+        <v>329661827</v>
       </c>
       <c r="F32" t="n">
-        <v>9449.131101133182</v>
+        <v>9366.925007760174</v>
       </c>
       <c r="G32" t="n">
-        <v>1157.843445054434</v>
+        <v>1403.084522209492</v>
       </c>
       <c r="H32" t="n">
         <v>0.22</v>
       </c>
       <c r="I32" t="n">
-        <v>181604</v>
+        <v>179985</v>
       </c>
     </row>
     <row r="33">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>512504692</v>
+        <v>515850099</v>
       </c>
       <c r="E33" t="n">
-        <v>1783986180</v>
+        <v>1795631265</v>
       </c>
       <c r="F33" t="n">
-        <v>241135.4651291375</v>
+        <v>173966.3321787413</v>
       </c>
       <c r="G33" t="n">
-        <v>306021.8590254068</v>
+        <v>280382.6888448782</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I33" t="n">
-        <v>36465331</v>
+        <v>36765595</v>
       </c>
     </row>
     <row r="34">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>112541077</v>
+        <v>113433631</v>
       </c>
       <c r="E34" t="n">
-        <v>170512735</v>
+        <v>171865056</v>
       </c>
       <c r="F34" t="n">
-        <v>65052.65739565729</v>
+        <v>62349.20465512603</v>
       </c>
       <c r="G34" t="n">
-        <v>68746.26994140963</v>
+        <v>72252.06543675704</v>
       </c>
       <c r="H34" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="I34" t="n">
-        <v>8967754</v>
+        <v>8697710</v>
       </c>
     </row>
     <row r="35">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2624090</v>
+        <v>2638776</v>
       </c>
       <c r="E35" t="n">
-        <v>10496362</v>
+        <v>10555103</v>
       </c>
       <c r="F35" t="n">
-        <v>64649.1062210931</v>
+        <v>52595.52905145487</v>
       </c>
       <c r="G35" t="n">
-        <v>17542.10084965285</v>
+        <v>70918.36913521697</v>
       </c>
       <c r="H35" t="n">
         <v>0.09</v>
       </c>
       <c r="I35" t="n">
-        <v>7032134</v>
+        <v>7098246</v>
       </c>
     </row>
     <row r="36">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>230029797</v>
+        <v>230953769</v>
       </c>
       <c r="E36" t="n">
-        <v>707255061</v>
+        <v>710095927</v>
       </c>
       <c r="F36" t="n">
-        <v>210078.6563601152</v>
+        <v>211025.3788355005</v>
       </c>
       <c r="G36" t="n">
-        <v>245039.6450686119</v>
+        <v>240007.1177943835</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>17110554</v>
+        <v>16948108</v>
       </c>
     </row>
     <row r="37">
@@ -1714,22 +1714,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>149835854</v>
+        <v>150841387</v>
       </c>
       <c r="E37" t="n">
-        <v>391442012</v>
+        <v>394068938</v>
       </c>
       <c r="F37" t="n">
-        <v>43774.74682309635</v>
+        <v>47361.67776662431</v>
       </c>
       <c r="G37" t="n">
-        <v>39951.37118841496</v>
+        <v>41830.99759301473</v>
       </c>
       <c r="H37" t="n">
         <v>0.28</v>
       </c>
       <c r="I37" t="n">
-        <v>8822341</v>
+        <v>8592108</v>
       </c>
     </row>
     <row r="38">
@@ -1749,22 +1749,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>412164827</v>
+        <v>416043583</v>
       </c>
       <c r="E38" t="n">
-        <v>2355227584</v>
+        <v>2377391905</v>
       </c>
       <c r="F38" t="n">
-        <v>39187.06311350914</v>
+        <v>37371.16508784582</v>
       </c>
       <c r="G38" t="n">
-        <v>98275.61258206122</v>
+        <v>98005.14116545781</v>
       </c>
       <c r="H38" t="n">
         <v>0.09</v>
       </c>
       <c r="I38" t="n">
-        <v>43123034</v>
+        <v>43485355</v>
       </c>
     </row>
   </sheetData>

--- a/OkxData20250221.xlsx
+++ b/OkxData20250221.xlsx
@@ -497,22 +497,20 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>259779369</v>
+        <v>258072963</v>
       </c>
       <c r="E2" t="n">
-        <v>1629039907</v>
-      </c>
-      <c r="F2" t="n">
-        <v>193466.6366921154</v>
-      </c>
-      <c r="G2" t="n">
-        <v>220021.3279632065</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.08</v>
+        <v>1618339274</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I2" t="n">
-        <v>17525644</v>
+        <v>17627154</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +530,20 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>153534600</v>
+        <v>152371278</v>
       </c>
       <c r="E3" t="n">
-        <v>170140331</v>
-      </c>
-      <c r="F3" t="n">
-        <v>75602.7118050516</v>
-      </c>
-      <c r="G3" t="n">
-        <v>190961.0210856535</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.06</v>
+        <v>168851189</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I3" t="n">
-        <v>44476487</v>
+        <v>45057263</v>
       </c>
     </row>
     <row r="4">
@@ -558,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Polygon Ecosystem, Ethereum Ecosystem, NFT Marketplace, Animoca Brands Portfolio, Gaming Governance Token, Gaming Utility Token, Andreessen Horowitz (a16z) Portfolio, ApeChain Ecosystem, Airdropped Tokens by NFT Projects, Gaming Marketplace</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -566,24 +562,16 @@
           <t>apecoin</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>601683238</v>
-      </c>
-      <c r="E4" t="n">
-        <v>752616304</v>
-      </c>
-      <c r="F4" t="n">
-        <v>123773.740068641</v>
-      </c>
-      <c r="G4" t="n">
-        <v>144709.7163691182</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I4" t="n">
-        <v>62342860</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -602,22 +590,20 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>148474593</v>
+        <v>148224553</v>
       </c>
       <c r="E5" t="n">
-        <v>148474593</v>
-      </c>
-      <c r="F5" t="n">
-        <v>68382.00254135215</v>
-      </c>
-      <c r="G5" t="n">
-        <v>111844.0259077417</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.09</v>
+        <v>148224553</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I5" t="n">
-        <v>76065203</v>
+        <v>77085920</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +623,20 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>276888342</v>
+        <v>275014694</v>
       </c>
       <c r="E6" t="n">
-        <v>276888342</v>
-      </c>
-      <c r="F6" t="n">
-        <v>62663.7504331049</v>
-      </c>
-      <c r="G6" t="n">
-        <v>124963.9392585801</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.03</v>
+        <v>275014694</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I6" t="n">
-        <v>16111143</v>
+        <v>20930908</v>
       </c>
     </row>
     <row r="7">
@@ -663,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Software as a service, Polygon Ecosystem, Ethereum Ecosystem, Decentralized Identifier (DID), Pantera Capital Portfolio, Energi Ecosystem, Blockchain Capital Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -671,24 +655,16 @@
           <t>civic</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>101841775</v>
-      </c>
-      <c r="E7" t="n">
-        <v>126984755</v>
-      </c>
-      <c r="F7" t="n">
-        <v>16829.2769319369</v>
-      </c>
-      <c r="G7" t="n">
-        <v>49322.60659085449</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10465644</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -707,22 +683,20 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>97179689</v>
+        <v>93029944</v>
       </c>
       <c r="E8" t="n">
-        <v>202611846</v>
-      </c>
-      <c r="F8" t="n">
-        <v>52307.31592707545</v>
-      </c>
-      <c r="G8" t="n">
-        <v>48634.29550782894</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.13</v>
+        <v>193959962</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I8" t="n">
-        <v>41261172</v>
+        <v>49869983</v>
       </c>
     </row>
     <row r="9">
@@ -733,7 +707,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Internet of Things (IOT), Smart Contract Platform, Layer 1 (L1), Proof of Work (PoW), Made in USA</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -741,24 +715,16 @@
           <t>digibyte</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>148132732</v>
-      </c>
-      <c r="E9" t="n">
-        <v>148189078</v>
-      </c>
-      <c r="F9" t="n">
-        <v>6978.024760597163</v>
-      </c>
-      <c r="G9" t="n">
-        <v>17459.12317907038</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2757659</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -777,22 +743,20 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>714200739</v>
+        <v>713391690</v>
       </c>
       <c r="E10" t="n">
-        <v>714200739</v>
-      </c>
-      <c r="F10" t="n">
-        <v>407808.171894182</v>
-      </c>
-      <c r="G10" t="n">
-        <v>574506.9235541086</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.04</v>
+        <v>713391690</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I10" t="n">
-        <v>392523079</v>
+        <v>416755723</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +776,20 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>72777514</v>
+        <v>72862063</v>
       </c>
       <c r="E11" t="n">
-        <v>83502927</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1466.077980953329</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3581.212318941869</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.48</v>
+        <v>83599937</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I11" t="n">
-        <v>1428200</v>
+        <v>1442695</v>
       </c>
     </row>
     <row r="12">
@@ -838,7 +800,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Decentralized Finance (DeFi), Binance Launchpool, Arbitrum Ecosystem, Ethereum Ecosystem, Restaking, Liquid Restaking Governance Tokens, Ether.fi Ecosystem, Consensys Portfolio, OKX Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -846,24 +808,16 @@
           <t>ether-fi</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>289065226</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1247765988</v>
-      </c>
-      <c r="F12" t="n">
-        <v>276627.9965765916</v>
-      </c>
-      <c r="G12" t="n">
-        <v>372514.3824641151</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I12" t="n">
-        <v>111768721</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -873,7 +827,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI), Big Data, Media, BNB Chain Ecosystem, Polygon Ecosystem, Ethereum Ecosystem, GMCI DePIN Index, Galaxy Digital Portfolio, GMCI Index</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -881,24 +835,16 @@
           <t>everipedia</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>117832730</v>
-      </c>
-      <c r="E13" t="n">
-        <v>117832730</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5135.180498735115</v>
-      </c>
-      <c r="G13" t="n">
-        <v>5209.24455812545</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6372462</v>
-      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -908,7 +854,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Meme, Linea Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -916,24 +862,16 @@
           <t>foxy</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>19659772</v>
-      </c>
-      <c r="E14" t="n">
-        <v>49149429</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5463.622657255207</v>
-      </c>
-      <c r="G14" t="n">
-        <v>18130.59433967718</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2304246</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -943,7 +881,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sports, Fan Token, Chiliz Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -951,24 +889,16 @@
           <t>galatasaray-fan-token</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>12711657</v>
-      </c>
-      <c r="E15" t="n">
-        <v>18692252</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2573.700721256288</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5546.606040802923</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3658290</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -987,22 +917,20 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>32379365</v>
+        <v>32118017</v>
       </c>
       <c r="E16" t="n">
-        <v>100818952</v>
-      </c>
-      <c r="F16" t="n">
-        <v>10663.24251495791</v>
-      </c>
-      <c r="G16" t="n">
-        <v>21304.55095592189</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.06</v>
+        <v>100005199</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I16" t="n">
-        <v>9829377</v>
+        <v>9910846</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +950,20 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>350039083</v>
+        <v>343639615</v>
       </c>
       <c r="E17" t="n">
-        <v>3149168643</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6794.642038097164</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5530.281137013743</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.1</v>
+        <v>3091595059</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I17" t="n">
-        <v>45601485</v>
+        <v>46999924</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +983,20 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15945028</v>
+        <v>15793621</v>
       </c>
       <c r="E18" t="n">
-        <v>97732322</v>
-      </c>
-      <c r="F18" t="n">
-        <v>46242.10211268032</v>
-      </c>
-      <c r="G18" t="n">
-        <v>36943.12594575853</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.08</v>
+        <v>96804297</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I18" t="n">
-        <v>10893774</v>
+        <v>10735015</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1016,20 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>52121444</v>
+        <v>51386489</v>
       </c>
       <c r="E19" t="n">
-        <v>224533480</v>
-      </c>
-      <c r="F19" t="n">
-        <v>48382.68549723469</v>
-      </c>
-      <c r="G19" t="n">
-        <v>70086.12515096439</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.11</v>
+        <v>221367375</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I19" t="n">
-        <v>10309779</v>
+        <v>10793094</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1049,20 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>311805714</v>
+        <v>311326145</v>
       </c>
       <c r="E20" t="n">
-        <v>311805714</v>
-      </c>
-      <c r="F20" t="n">
-        <v>73644.41910484782</v>
-      </c>
-      <c r="G20" t="n">
-        <v>104543.4880026117</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.03</v>
+        <v>311326145</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I20" t="n">
-        <v>73479894</v>
+        <v>74414647</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1082,20 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>33735432</v>
+        <v>32906711</v>
       </c>
       <c r="E21" t="n">
-        <v>151047367</v>
-      </c>
-      <c r="F21" t="n">
-        <v>38176.0213401709</v>
-      </c>
-      <c r="G21" t="n">
-        <v>82684.50563619086</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.2</v>
+        <v>147336842</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I21" t="n">
-        <v>9224997</v>
+        <v>9424817</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1115,20 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>52929960</v>
+        <v>52723086</v>
       </c>
       <c r="E22" t="n">
-        <v>343236703</v>
-      </c>
-      <c r="F22" t="n">
-        <v>6645.108936967594</v>
-      </c>
-      <c r="G22" t="n">
-        <v>96089.02179210055</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.03</v>
+        <v>341895180</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I22" t="n">
-        <v>17479495</v>
+        <v>17425786</v>
       </c>
     </row>
     <row r="23">
@@ -1223,7 +1139,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, BNB Chain Ecosystem, Ethereum Ecosystem, Zero Knowledge (ZK), Animoca Brands Portfolio, Binance Labs Portfolio, OKX Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1231,24 +1147,16 @@
           <t>polyhedra-network</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>125083187</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2071480022</v>
-      </c>
-      <c r="F23" t="n">
-        <v>361906.6256632536</v>
-      </c>
-      <c r="G23" t="n">
-        <v>348528.1683569969</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4971781</v>
-      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1258,7 +1166,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BNB Chain Ecosystem, Binance Labs Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1266,24 +1174,16 @@
           <t>qna3-ai</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>7037872</v>
-      </c>
-      <c r="E24" t="n">
-        <v>36207715</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1749.181615448597</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1324.854802447823</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="I24" t="n">
-        <v>945551</v>
-      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1293,7 +1193,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BNB Chain Ecosystem, Solana Ecosystem, Ethereum Ecosystem, Algorand Ecosystem, Real World Assets (RWA), Osmosis Ecosystem, Stellar Ecosystem, Made in USA</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1301,24 +1201,16 @@
           <t>realio-network</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>24647688</v>
-      </c>
-      <c r="E25" t="n">
-        <v>24648002</v>
-      </c>
-      <c r="F25" t="n">
-        <v>18277.67534828402</v>
-      </c>
-      <c r="G25" t="n">
-        <v>8082.043725266471</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2092967</v>
-      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1355,7 +1247,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Infrastructure, Wallets, Gnosis Chain Ecosystem, Ethereum Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1363,24 +1255,16 @@
           <t>safe</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>332533738</v>
-      </c>
-      <c r="E27" t="n">
-        <v>615263249</v>
-      </c>
-      <c r="F27" t="n">
-        <v>87981.52302591108</v>
-      </c>
-      <c r="G27" t="n">
-        <v>93269.67750458638</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I27" t="n">
-        <v>14498189</v>
-      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1399,22 +1283,20 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>46774339</v>
+        <v>46160015</v>
       </c>
       <c r="E28" t="n">
-        <v>46774339</v>
-      </c>
-      <c r="F28" t="n">
-        <v>25200.22823532528</v>
-      </c>
-      <c r="G28" t="n">
-        <v>48864.51980982033</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.11</v>
+        <v>46160015</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I28" t="n">
-        <v>9304683</v>
+        <v>9382004</v>
       </c>
     </row>
     <row r="29">
@@ -1434,22 +1316,20 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>629851604</v>
+        <v>622626791</v>
       </c>
       <c r="E29" t="n">
-        <v>2439322336</v>
-      </c>
-      <c r="F29" t="n">
-        <v>142304.1600166316</v>
-      </c>
-      <c r="G29" t="n">
-        <v>282655.4118620931</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.08</v>
+        <v>2411341700</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I29" t="n">
-        <v>40681305</v>
+        <v>41569383</v>
       </c>
     </row>
     <row r="30">
@@ -1460,7 +1340,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NFT, Solana Ecosystem, NFT Marketplace</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1468,24 +1348,16 @@
           <t>tensor</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>127542237</v>
-      </c>
-      <c r="E30" t="n">
-        <v>489272551</v>
-      </c>
-      <c r="F30" t="n">
-        <v>142273.9972839202</v>
-      </c>
-      <c r="G30" t="n">
-        <v>185826.2068254178</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I30" t="n">
-        <v>38920051</v>
-      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1495,7 +1367,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), BNB Chain Ecosystem, Animoca Brands Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1503,24 +1375,16 @@
           <t>ultiverse</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>34592758</v>
-      </c>
-      <c r="F31" t="n">
-        <v>18339.50965455223</v>
-      </c>
-      <c r="G31" t="n">
-        <v>17613.27404193706</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5328551</v>
-      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1530,7 +1394,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Venom Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1538,24 +1402,16 @@
           <t>venom</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>89182219</v>
-      </c>
-      <c r="E32" t="n">
-        <v>329661827</v>
-      </c>
-      <c r="F32" t="n">
-        <v>9366.925007760174</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1403.084522209492</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I32" t="n">
-        <v>179985</v>
-      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1565,7 +1421,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Solana Ecosystem, Arbitrum Ecosystem, Ethereum Ecosystem, Interoperability, Base Ecosystem, Multicoin Capital Portfolio, Cross-chain Communication, Made in USA</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1573,24 +1429,16 @@
           <t>wormhole</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>515850099</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1795631265</v>
-      </c>
-      <c r="F33" t="n">
-        <v>173966.3321787413</v>
-      </c>
-      <c r="G33" t="n">
-        <v>280382.6888448782</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="I33" t="n">
-        <v>36765595</v>
-      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1600,7 +1448,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Play To Earn, Guild and Scholarship, Ethereum Ecosystem, Animoca Brands Portfolio, DWF Labs Portfolio, Coinbase Ventures Portfolio, DeFiance Capital Portfolio, Pantera Capital Portfolio, Binance Labs Portfolio, MMO</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1608,24 +1456,16 @@
           <t>zentry</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>113433631</v>
-      </c>
-      <c r="E34" t="n">
-        <v>171865056</v>
-      </c>
-      <c r="F34" t="n">
-        <v>62349.20465512603</v>
-      </c>
-      <c r="G34" t="n">
-        <v>72252.06543675704</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="I34" t="n">
-        <v>8697710</v>
-      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1635,7 +1475,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Decentralized Finance (DeFi), Lending/Borrowing Protocols, Linea Ecosystem, Account Abstraction</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1643,24 +1483,16 @@
           <t>zerolend</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>2638776</v>
-      </c>
-      <c r="E35" t="n">
-        <v>10555103</v>
-      </c>
-      <c r="F35" t="n">
-        <v>52595.52905145487</v>
-      </c>
-      <c r="G35" t="n">
-        <v>70918.36913521697</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I35" t="n">
-        <v>7098246</v>
-      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1670,7 +1502,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, BNB Chain Ecosystem, Layer 1 (L1), Ethereum Ecosystem, ZetaChain Ecosystem, Cross-chain Communication, Made in USA</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1678,24 +1510,16 @@
           <t>zetachain</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>230953769</v>
-      </c>
-      <c r="E36" t="n">
-        <v>710095927</v>
-      </c>
-      <c r="F36" t="n">
-        <v>211025.3788355005</v>
-      </c>
-      <c r="G36" t="n">
-        <v>240007.1177943835</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I36" t="n">
-        <v>16948108</v>
-      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1705,7 +1529,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Infrastructure, Solana Ecosystem, Animoca Brands Portfolio, Cross-chain Communication, OKX Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1713,24 +1537,16 @@
           <t>zeus-network</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>150841387</v>
-      </c>
-      <c r="E37" t="n">
-        <v>394068938</v>
-      </c>
-      <c r="F37" t="n">
-        <v>47361.67776662431</v>
-      </c>
-      <c r="G37" t="n">
-        <v>41830.99759301473</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="I37" t="n">
-        <v>8592108</v>
-      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1740,7 +1556,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, Layer 2 (L2), Zero Knowledge (ZK), ZkSync Ecosystem, Consensys Portfolio, Blockchain Capital Portfolio, OKX Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1748,24 +1564,16 @@
           <t>zksync</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>416043583</v>
-      </c>
-      <c r="E38" t="n">
-        <v>2377391905</v>
-      </c>
-      <c r="F38" t="n">
-        <v>37371.16508784582</v>
-      </c>
-      <c r="G38" t="n">
-        <v>98005.14116545781</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I38" t="n">
-        <v>43485355</v>
-      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
